--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.594</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.117</v>
+        <v>15.473</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-9143772361.903</v>
+        <v>-0.028</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2612050.337</v>
+        <v>27.69</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9389999999999999</v>
+        <v>7.396</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1907164.210746945</v>
+        <v>25.86045821433676</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1949755.096769332</v>
+        <v>25.86970441480089</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>705541.6684184376</v>
+        <v>25.88782366403457</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3772483.211327728</v>
+        <v>25.82899568226766</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-551472.661905595</v>
+        <v>25.86958464308214</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>229315.6730072023</v>
+        <v>25.87686940796408</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-3417339.585425151</v>
+        <v>25.83941648100304</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3124351.472456687</v>
+        <v>25.89942957830351</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3347275.563623729</v>
+        <v>25.9137591250049</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1310285.070743444</v>
+        <v>25.86355852022186</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-944450.1054797047</v>
+        <v>25.89507415155958</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-843478.5400654665</v>
+        <v>25.89613495471392</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-928850.1858433274</v>
+        <v>25.85814105127746</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-651790.3528217521</v>
+        <v>25.85447427183869</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2843269.34748689</v>
+        <v>25.89982143014353</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1120199.920798534</v>
+        <v>25.85544975132058</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-37514.902199992</v>
+        <v>25.8870815675507</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>713851.1544935013</v>
+        <v>25.90207471718732</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1980052.68505544</v>
+        <v>25.80705976465006</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1325305.478366108</v>
+        <v>25.83017932354648</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-1084712.352993351</v>
+        <v>25.85559736716194</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-2374309.63491864</v>
+        <v>25.80325319633716</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-1006302.411314214</v>
+        <v>25.86589061477924</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-323240.1136808205</v>
+        <v>25.86207685355227</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>400347.3304241342</v>
+        <v>25.89218631587374</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>588289.2900487134</v>
+        <v>25.89776705737528</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-3471098.549599986</v>
+        <v>25.82110289947283</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1140429.794074453</v>
+        <v>25.91143784047043</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>987296.9611454454</v>
+        <v>25.91130358343878</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-2927057.473103588</v>
+        <v>25.83633183538062</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3126545.333646434</v>
+        <v>25.94987417904177</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2932280.505543376</v>
+        <v>25.94879146922563</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1732823.688164311</v>
+        <v>25.96114223403623</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2034205.655499871</v>
+        <v>25.98084610407265</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2313470.241135116</v>
+        <v>25.97933496647139</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1465032.778059948</v>
+        <v>25.8924646831004</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2774925.085470679</v>
+        <v>25.94627901984175</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3140696.848523657</v>
+        <v>25.97297436431424</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-331162.5973577331</v>
+        <v>25.86023119688652</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>897996.5019025012</v>
+        <v>25.9257801794785</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>853165.1155770753</v>
+        <v>25.92930588527435</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-1767654.539015423</v>
+        <v>25.80886543985767</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>601963.6067694582</v>
+        <v>25.91200832589881</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>675440.4694995995</v>
+        <v>25.93261984364753</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-1930456.230613857</v>
+        <v>25.81849469917783</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2158143.452995461</v>
+        <v>25.96693260333374</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-3440227.350365576</v>
+        <v>25.8414303256857</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-1056155.337963339</v>
+        <v>25.87285558661853</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-324203.6136823645</v>
+        <v>25.88377069344447</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-3634313.124046551</v>
+        <v>25.81477278166334</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>651328.6397746969</v>
+        <v>25.90222076070262</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1227160.39031226</v>
+        <v>25.90949866799262</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-3071731.4426979</v>
+        <v>25.83054651791073</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3021633.00540388</v>
+        <v>25.94460471795196</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3733138.847271958</v>
+        <v>25.95198250225241</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3215020.033676678</v>
+        <v>25.96102362120273</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3190237.431197286</v>
+        <v>25.97618935415986</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3686200.110279958</v>
+        <v>25.98605280031427</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-1657866.899090769</v>
+        <v>25.85737697394494</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>683860.0204213805</v>
+        <v>25.92383502784867</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1867281.888608183</v>
+        <v>25.95803003514197</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-1393845.803372883</v>
+        <v>25.84091486027083</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>412539.141333486</v>
+        <v>25.90700356082954</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>676871.1805233927</v>
+        <v>25.91944797051266</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-1863516.98256914</v>
+        <v>25.79876554464551</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>-149520.0172247173</v>
+        <v>25.89790444523247</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>736978.9010184259</v>
+        <v>25.93048347137092</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>-2048344.804363659</v>
+        <v>25.81146499224743</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1582612.027568146</v>
+        <v>25.96002735004796</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-5429758.236327902</v>
+        <v>25.83714894255425</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-2619452.233615028</v>
+        <v>25.86399662067712</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-941781.1631574401</v>
+        <v>25.88062239762503</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-5188691.716637667</v>
+        <v>25.82945415952083</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>793390.882942211</v>
+        <v>25.89658599298163</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1947038.813810701</v>
+        <v>25.91066573014308</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-5558755.130465522</v>
+        <v>25.83300663692451</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3795420.104692884</v>
+        <v>25.92316502714373</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4934165.807723578</v>
+        <v>25.93974886424509</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>3118571.173915788</v>
+        <v>25.92166021063169</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>3324495.583192843</v>
+        <v>25.93564346815998</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4489036.335020097</v>
+        <v>25.95018382709865</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-2586526.848536134</v>
+        <v>25.8445361333525</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>-513309.0527899952</v>
+        <v>25.90719125475185</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>3248270.52089803</v>
+        <v>25.94586090571358</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-2450017.60145308</v>
+        <v>25.83869824626721</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>-24564.13004493326</v>
+        <v>25.89382263939251</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1045830.421851808</v>
+        <v>25.91489016824031</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-2543375.353966475</v>
+        <v>25.81812061722198</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-23609.99944198176</v>
+        <v>25.88735391954651</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1490387.084764316</v>
+        <v>25.92535433247529</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-3271747.859294983</v>
+        <v>25.814637821688</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1637530.983145899</v>
+        <v>25.9255769542812</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-481412.6952594783</v>
+        <v>25.90146081517171</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-550799.4478000128</v>
+        <v>25.85082144712653</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>335612.7279845899</v>
+        <v>25.90601856374727</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>541802.7129663363</v>
+        <v>25.92745150011561</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-1345108.077632802</v>
+        <v>25.80843222161599</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-875665.3927822412</v>
+        <v>25.8481269748303</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-366685.0252814853</v>
+        <v>25.8902740974037</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-1189803.946569091</v>
+        <v>25.85167226260123</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-436237.8721683334</v>
+        <v>25.87692977395945</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>493263.1884238859</v>
+        <v>25.91796328392098</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-1706777.759540234</v>
+        <v>25.78937675482672</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-1251069.651251479</v>
+        <v>25.82849014190049</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-745494.4435993128</v>
+        <v>25.85456228326736</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1974935.443483402</v>
+        <v>25.78800702846008</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-640634.1280766855</v>
+        <v>25.88037972870823</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>872995.4738766103</v>
+        <v>25.93434030204135</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-332440.8876574325</v>
+        <v>25.88714063844796</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>705968.5924259314</v>
+        <v>25.96191710331152</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1114007.088967411</v>
+        <v>26.00220545693234</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-1193971.858116093</v>
+        <v>25.79680926433097</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-458124.1390658455</v>
+        <v>25.86123809572743</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>215235.897543842</v>
+        <v>25.93497171539828</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>2580521.063902762</v>
+        <v>25.99144676472486</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1824732.646031804</v>
+        <v>26.01279750317088</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2102889.643113924</v>
+        <v>26.03566803384711</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2016916.546474131</v>
+        <v>26.04590215725571</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-97329.13915720502</v>
+        <v>25.88937910330266</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1914505.296941744</v>
+        <v>26.03288931098115</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2046695.825211822</v>
+        <v>26.05047985098533</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>179525.6755608521</v>
+        <v>25.87059932575082</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>984186.4101275204</v>
+        <v>25.94362009843897</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1198460.89990139</v>
+        <v>25.959558352774</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-1338179.996341616</v>
+        <v>25.80445078167156</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1128591.884230538</v>
+        <v>25.95294947321496</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1137531.790357155</v>
+        <v>25.96429918823432</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>-1327147.699457804</v>
+        <v>25.82330917540164</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2783378.182267513</v>
+        <v>26.0293225899193</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2671623.248326737</v>
+        <v>26.04820333801919</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2461434.612106656</v>
+        <v>26.12668815426041</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2556059.253729127</v>
+        <v>26.1493967274481</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2631190.634346894</v>
+        <v>26.1718916573659</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>443750.9628239488</v>
+        <v>25.93098896695547</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2311563.903704195</v>
+        <v>26.12818642226506</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>2339429.794253175</v>
+        <v>26.1546696616402</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>2892757.686886507</v>
+        <v>25.99782075718086</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1177406.68432841</v>
+        <v>25.99000389003803</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1614910.766673032</v>
+        <v>26.00796790583983</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2071985.628088644</v>
+        <v>26.03558328293314</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-936010.1397569129</v>
+        <v>25.84398051809838</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1480952.028334715</v>
+        <v>26.00604757744939</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1950311.831185213</v>
+        <v>26.03574671432264</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>-953343.8630166118</v>
+        <v>25.84632450675052</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>633391.7043882636</v>
+        <v>25.92528002182584</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1147876.269998521</v>
+        <v>25.94797600261199</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-1477854.603254109</v>
+        <v>25.79145349302615</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>668628.0955409182</v>
+        <v>25.94140966420824</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1237725.18378212</v>
+        <v>25.96435848787729</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-1433230.625308774</v>
+        <v>25.81493545548672</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>2474941.141088684</v>
+        <v>26.0275191684308</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>3172685.877934024</v>
+        <v>26.05593818282411</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>2357611.274905195</v>
+        <v>26.12191615273989</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2484957.19249869</v>
+        <v>26.13589608148514</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2931868.175724577</v>
+        <v>26.17481965244743</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>-527811.8418112727</v>
+        <v>25.88272501040428</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>2084626.00270702</v>
+        <v>26.11017292586423</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2562425.110977542</v>
+        <v>26.14791251713098</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>3820011.540515911</v>
+        <v>25.97046052417718</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>75031.82325159463</v>
+        <v>25.90532939594999</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>459880.5053140535</v>
+        <v>25.9300548520788</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1412529.749065841</v>
+        <v>25.97292365214567</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-1571704.40653687</v>
+        <v>25.82279856100944</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1755391.239190635</v>
+        <v>25.9578946781458</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>2583966.339041228</v>
+        <v>25.99509872769157</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-1652677.073007767</v>
+        <v>25.84338605112229</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>754085.5138340312</v>
+        <v>25.91402901408853</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1843218.356156373</v>
+        <v>25.94780548546534</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-2003459.297508916</v>
+        <v>25.81464887697446</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1023566.336690685</v>
+        <v>25.92965748472281</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>2006245.888708268</v>
+        <v>25.96210104812409</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-2585284.93222756</v>
+        <v>25.81707254991693</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2923175.234708949</v>
+        <v>25.98592003187668</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>4364294.031679801</v>
+        <v>26.02933426396769</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>2433303.46166228</v>
+        <v>26.03320716696195</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2903752.507295366</v>
+        <v>26.06581118517115</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>4020892.959650963</v>
+        <v>26.12220382492529</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-1104443.350042016</v>
+        <v>25.84476768074211</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2350518.581442205</v>
+        <v>26.04283474224307</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>3439636.09290604</v>
+        <v>26.0992743783151</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-2343562.078774991</v>
+        <v>25.84242175889304</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-2254830.367298083</v>
+        <v>25.85124008530283</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-552560.689494469</v>
+        <v>25.87466416499305</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-3202434.589503455</v>
+        <v>25.80886535046882</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-1087533.126553317</v>
+        <v>25.85708525436664</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-846796.8497704355</v>
+        <v>25.86362119503571</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-2905700.298766558</v>
+        <v>25.82556632423731</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1076053.001383078</v>
+        <v>25.89642881679584</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1255665.389530952</v>
+        <v>25.90801798802172</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-1226128.544104738</v>
+        <v>25.84739499329189</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-964736.0368803893</v>
+        <v>25.88601328297836</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-1040951.688596361</v>
+        <v>25.88352804889645</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-1117000.793268893</v>
+        <v>25.83750045371231</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-1351385.523922597</v>
+        <v>25.83042569893119</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>440012.5281957929</v>
+        <v>25.87025491914633</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-1583871.02025819</v>
+        <v>25.83498860256649</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-326940.9308419507</v>
+        <v>25.86915436595554</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-58531.34462324285</v>
+        <v>25.88235582822457</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1962489.568210748</v>
+        <v>25.78272166287769</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-1336136.645184041</v>
+        <v>25.8171226396489</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-1005308.330263757</v>
+        <v>25.83469978842408</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-2003901.488385706</v>
+        <v>25.79113603201703</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-334000.659556815</v>
+        <v>25.87012874586178</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-1068422.803876018</v>
+        <v>25.84254232980314</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-602110.1716547593</v>
+        <v>25.86814618412459</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-211557.8790844881</v>
+        <v>25.88359516691888</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-2845311.035081217</v>
+        <v>25.79766111292577</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>55630.83947384144</v>
+        <v>25.89641067894717</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>194349.7313169083</v>
+        <v>25.89807056743968</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-2583372.985434279</v>
+        <v>25.8178616850421</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1866328.742036149</v>
+        <v>25.94050013392869</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1764585.953257633</v>
+        <v>25.93994382625706</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>763889.0514763952</v>
+        <v>25.93179075240112</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1456203.029599588</v>
+        <v>25.96100293647326</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1380292.529682828</v>
+        <v>25.95797052613325</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-319059.7047610389</v>
+        <v>25.85099414243333</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>936013.2982789924</v>
+        <v>25.9038333105431</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1182871.711610992</v>
+        <v>25.92892410367626</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-675954.2969508847</v>
+        <v>25.82862023381741</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>70043.61309927536</v>
+        <v>25.89182510587315</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>279297.8060497791</v>
+        <v>25.90001407942953</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-1696786.284459916</v>
+        <v>25.77228873826936</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-18409.37223168371</v>
+        <v>25.89013324238211</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>263746.3676828176</v>
+        <v>25.9063844913195</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-1722866.370928539</v>
+        <v>25.79149356838707</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1254645.233041985</v>
+        <v>25.95551899471089</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-2999162.01262238</v>
+        <v>25.82659648628926</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-1514790.77800532</v>
+        <v>25.85273841504554</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-431295.79356931</v>
+        <v>25.87393264890112</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-3027560.526826717</v>
+        <v>25.79684535342234</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>114645.5705300486</v>
+        <v>25.89230081728648</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>213250.872498456</v>
+        <v>25.90036559855574</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-2700234.075101658</v>
+        <v>25.81710312894336</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1985856.63429804</v>
+        <v>25.93847109991444</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>2305777.05130658</v>
+        <v>25.94722219826198</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1501044.402421972</v>
+        <v>25.93656157840133</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1781970.547937556</v>
+        <v>25.95961324303773</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>2317835.965963134</v>
+        <v>25.9695378015751</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-2048345.140877994</v>
+        <v>25.81730745593447</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-360867.3429257498</v>
+        <v>25.88318883691827</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>296772.4212385996</v>
+        <v>25.91697810171106</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-1285012.770360932</v>
+        <v>25.81479438279183</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-103990.1446945918</v>
+        <v>25.87736607710387</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>257028.1775028173</v>
+        <v>25.89500465318655</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-1784009.816919598</v>
+        <v>25.76800680739981</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-118876.256080122</v>
+        <v>25.88114447286554</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>336104.6092784123</v>
+        <v>25.90796311622357</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-1724629.659045537</v>
+        <v>25.78937457479644</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1061423.515663597</v>
+        <v>25.95086593422199</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-4576374.592476701</v>
+        <v>25.82601540814869</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-3074903.674808223</v>
+        <v>25.85115642337334</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-1014187.383620444</v>
+        <v>25.87281205969656</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-4347870.345659202</v>
+        <v>25.81251054249752</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-491947.5474796093</v>
+        <v>25.88730893781096</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>739664.8258645484</v>
+        <v>25.89871272225097</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-4650767.93875557</v>
+        <v>25.8204730798291</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>1998482.035193156</v>
+        <v>25.91853637017331</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>3030932.76167728</v>
+        <v>25.93332075141396</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1604533.798727127</v>
+        <v>25.90812730054544</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>2051485.535916897</v>
+        <v>25.92432166955416</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>2698362.441585317</v>
+        <v>25.93663588312764</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-3153873.215954212</v>
+        <v>25.8200229979083</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-885530.5669106051</v>
+        <v>25.88171654789884</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>945919.0232307047</v>
+        <v>25.9157675397606</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-2268475.223825554</v>
+        <v>25.81468008511569</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-362787.0869491791</v>
+        <v>25.87061059828635</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>90444.66958493792</v>
+        <v>25.88927787248618</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-2539957.360603697</v>
+        <v>25.78575878098201</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-486960.5175785197</v>
+        <v>25.86733010334997</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>147629.317123976</v>
+        <v>25.89421736146956</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-2697281.943869559</v>
+        <v>25.79092747668903</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>792092.4422189289</v>
+        <v>25.91458702299847</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-146989.5851161356</v>
+        <v>25.89779133688136</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-422401.03035059</v>
+        <v>25.84061170558761</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>320272.4319607734</v>
+        <v>25.89853904379909</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>462152.706222182</v>
+        <v>25.91652112683606</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-991209.9732184449</v>
+        <v>25.79709309005925</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-536951.9313838388</v>
+        <v>25.83350909209859</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-148063.4654314595</v>
+        <v>25.86234764406446</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-1021839.301220205</v>
+        <v>25.84039254812065</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-108680.8838644279</v>
+        <v>25.87571448716352</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>425935.4709359363</v>
+        <v>25.91703569869806</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-1582008.460110759</v>
+        <v>25.76842567019253</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-1081210.411594152</v>
+        <v>25.8247095754329</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-599589.1781813803</v>
+        <v>25.84709854192766</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-1519662.259078947</v>
+        <v>25.78036625757828</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-8440.75213771477</v>
+        <v>25.89899401121124</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>1154040.550015167</v>
+        <v>25.94905683664291</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-74258.41521214148</v>
+        <v>25.89115468940587</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>599247.8400528057</v>
+        <v>25.96550892298462</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>850346.6593422503</v>
+        <v>26.00636937468122</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-809452.28020541</v>
+        <v>25.78302407623192</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-210270.275790998</v>
+        <v>25.86228397971344</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>321341.3316602979</v>
+        <v>25.92834551412705</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1726788.643275191</v>
+        <v>25.97733133670692</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>843664.2113375453</v>
+        <v>25.97866628510933</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>1261976.263290961</v>
+        <v>26.00391274398028</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>1302192.966840906</v>
+        <v>26.01440935885802</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-372866.7318812289</v>
+        <v>25.84311326920119</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>1087889.476631991</v>
+        <v>25.99103226284094</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>1192511.611603495</v>
+        <v>26.00035477202214</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-71547.6341298745</v>
+        <v>25.8517686321911</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>465410.2349501547</v>
+        <v>25.92936970322631</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>832889.5614668051</v>
+        <v>25.95189373588087</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-1304622.540058894</v>
+        <v>25.77332716948907</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>542544.8400116382</v>
+        <v>25.94334077216653</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>738164.9311740611</v>
+        <v>25.95440507462989</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-1098812.335495826</v>
+        <v>25.80338924617291</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1845519.529746606</v>
+        <v>26.03561687117348</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>2047910.285386678</v>
+        <v>26.05472798953297</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>1506152.031052015</v>
+        <v>26.11209819295295</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1743021.12250348</v>
+        <v>26.13592397885208</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>1882012.1229553</v>
+        <v>26.16058406611597</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>134123.5826397065</v>
+        <v>25.88651455211933</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>1519921.841838079</v>
+        <v>26.11036779141394</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1634737.349115134</v>
+        <v>26.13320565966141</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>1844365.099445519</v>
+        <v>25.98714747810815</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>639286.1215529984</v>
+        <v>25.95803513318469</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>904691.631094103</v>
+        <v>25.97648485093788</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>1257372.732282289</v>
+        <v>26.00622447232695</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-834515.0573970848</v>
+        <v>25.79670948822576</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>835904.7385746526</v>
+        <v>25.96374003024939</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>1068237.063139569</v>
+        <v>25.98677649771203</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-744986.8775650571</v>
+        <v>25.83081934928332</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>337922.5977594006</v>
+        <v>25.91364206666136</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>820993.0878303444</v>
+        <v>25.94304875594738</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-1427143.348848117</v>
+        <v>25.76469428839311</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>542386.1943290923</v>
+        <v>25.93626618415171</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>695505.5560002313</v>
+        <v>25.95669731931722</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-1206918.559154011</v>
+        <v>25.79839739120449</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1862505.682262276</v>
+        <v>26.03521955436867</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>2322575.934728939</v>
+        <v>26.06433182027746</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>1540952.806023987</v>
+        <v>26.10970927080995</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>1698534.100005064</v>
+        <v>26.12333849382354</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>2110734.628763348</v>
+        <v>26.16567215424334</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-461187.8442101475</v>
+        <v>25.83550511680161</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>1483868.710731861</v>
+        <v>26.09185782332877</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>1709565.725602833</v>
+        <v>26.12734602127828</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>2039924.444641059</v>
+        <v>25.95236347910831</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-197208.4443336721</v>
+        <v>25.87876253608471</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>271211.0533960324</v>
+        <v>25.89936108024454</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>690822.3606784064</v>
+        <v>25.93984448292741</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-1408480.54278539</v>
+        <v>25.7893149027667</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>613719.2720468551</v>
+        <v>25.92453686041313</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>1166562.619918422</v>
+        <v>25.94925738305136</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-1560639.34296631</v>
+        <v>25.82709084176233</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>481832.5827469001</v>
+        <v>25.90786052406833</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>1178246.487316434</v>
+        <v>25.93981717470249</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1996753.146608176</v>
+        <v>25.7870234237716</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>640055.1206111318</v>
+        <v>25.92395203354107</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>996962.5146450062</v>
+        <v>25.94705217362639</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-2066476.253258016</v>
+        <v>25.79896802954342</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>2302849.739694159</v>
+        <v>25.99317692960634</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>3093127.116887526</v>
+        <v>26.03074164159445</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>1776948.015574058</v>
+        <v>26.02943656117302</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>2120913.112128559</v>
+        <v>26.05536809497369</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>2725768.478808901</v>
+        <v>26.11145887076217</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-1026910.703824578</v>
+        <v>25.81226064929653</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>1907745.555119033</v>
+        <v>26.03320565109097</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>2346379.962174906</v>
+        <v>26.08212753277416</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-2135991.256665967</v>
+        <v>25.85060514903127</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-2119408.764985927</v>
+        <v>25.86529195049657</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-96983.15878111809</v>
+        <v>25.89020628515452</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-2877702.491250607</v>
+        <v>25.81508302992899</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-1136580.716774188</v>
+        <v>25.8694350950263</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-755443.4893724783</v>
+        <v>25.88022480127332</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-2568290.594304152</v>
+        <v>25.82649290434836</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>1768668.211330811</v>
+        <v>25.91305162933812</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>2109841.402303548</v>
+        <v>25.93079720158914</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-1140977.709161323</v>
+        <v>25.86368587721252</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-881362.3745404629</v>
+        <v>25.90488562224137</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-837572.6431034905</v>
+        <v>25.90509937638919</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-202562.072618191</v>
+        <v>25.85252813070475</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-363917.6371123383</v>
+        <v>25.85189872597759</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>810128.4044167923</v>
+        <v>25.9059962609464</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-856388.6976670009</v>
+        <v>25.85985966027625</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>102325.2046948548</v>
+        <v>25.89789520689968</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>460016.8168316716</v>
+        <v>25.90920409311996</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1460675.789674543</v>
+        <v>25.80048214896168</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-822609.8313275294</v>
+        <v>25.83797637469868</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-516816.3566552825</v>
+        <v>25.85987705648894</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-1762335.270693954</v>
+        <v>25.79715128982016</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-192610.5686670428</v>
+        <v>25.88996918253077</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-342164.5012129709</v>
+        <v>25.86054955661845</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>818644.6568807687</v>
+        <v>25.89945404038609</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>820967.7038633327</v>
+        <v>25.91010712872497</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-2529622.749543526</v>
+        <v>25.81268168862887</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>1144846.868470269</v>
+        <v>25.92517195982435</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>1223775.925323412</v>
+        <v>25.92620936304377</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-2317836.725036779</v>
+        <v>25.82972276484117</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>3269534.554530144</v>
+        <v>25.97867128827056</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>2796601.624919719</v>
+        <v>25.97841312206891</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>1452964.503713919</v>
+        <v>25.9824403331139</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>2076194.001814243</v>
+        <v>26.01013691658385</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>2193121.565947352</v>
+        <v>26.00785328629256</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>653448.7638625093</v>
+        <v>25.89759896809774</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1113250.316727782</v>
+        <v>25.96359390824962</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1228933.626673643</v>
+        <v>25.99633285309651</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-79658.66766884729</v>
+        <v>25.87280344283766</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>994547.7211129983</v>
+        <v>25.94902744651054</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>899374.8980944321</v>
+        <v>25.94608572176355</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-1273303.205534443</v>
+        <v>25.80672609732158</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>751367.3580959697</v>
+        <v>25.93672120918539</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>840813.1480455061</v>
+        <v>25.94988999830719</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1397150.258165615</v>
+        <v>25.81825300781483</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>2202940.576419002</v>
+        <v>26.00960045259049</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-2478857.113430054</v>
+        <v>25.83888621135086</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-426046.6794586782</v>
+        <v>25.87977548992673</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>142402.1690206742</v>
+        <v>25.89574075330869</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-2749324.542418761</v>
+        <v>25.80735687566852</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>610614.3603888723</v>
+        <v>25.91732337531505</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>1071160.149230009</v>
+        <v>25.92547265718013</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-2421557.682069993</v>
+        <v>25.82496632498491</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>3019081.891453152</v>
+        <v>25.97444315973893</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>3331815.025200854</v>
+        <v>25.98301758229472</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>2345506.489021702</v>
+        <v>25.98549459308491</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>2834495.05524622</v>
+        <v>26.00773097739145</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>3194827.937314668</v>
+        <v>26.01801507181654</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-897983.6568923449</v>
+        <v>25.8603979251797</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>292297.7316290006</v>
+        <v>25.94150127345371</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>705081.460709937</v>
+        <v>25.98190790010306</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-780800.1651338955</v>
+        <v>25.85267491571852</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>694670.4552037485</v>
+        <v>25.93034367454144</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>808373.446403908</v>
+        <v>25.93640887985723</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-1338331.498705678</v>
+        <v>25.79713233656557</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>265431.4861008724</v>
+        <v>25.92375002659573</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>737912.4837940605</v>
+        <v>25.94842013290037</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-1536231.607860345</v>
+        <v>25.81189765471948</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1809310.375999295</v>
+        <v>26.00349248355801</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-3868166.097273862</v>
+        <v>25.83436006415772</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-1068752.57817442</v>
+        <v>25.8701846591652</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>300552.1024793727</v>
+        <v>25.89167814660026</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-3739372.575846429</v>
+        <v>25.82508661286704</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>1144837.313640832</v>
+        <v>25.91118936496129</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>2029446.134198064</v>
+        <v>25.92682495200447</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-3879763.444223778</v>
+        <v>25.82901435869275</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>4213320.52712071</v>
+        <v>25.94897854107624</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>4772956.839245758</v>
+        <v>25.96749031600842</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>2757573.682418399</v>
+        <v>25.94260912246189</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>3227596.535172222</v>
+        <v>25.96254815817552</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>4029899.631638657</v>
+        <v>25.9775436247016</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-1227129.142197805</v>
+        <v>25.84846972401654</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-217730.144015262</v>
+        <v>25.924453488278</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>1257853.643088021</v>
+        <v>25.96919908959149</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-1460229.273437668</v>
+        <v>25.84701799716097</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>568485.3544690122</v>
+        <v>25.91363967575788</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>1061881.24078953</v>
+        <v>25.92933374068255</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1862074.444809064</v>
+        <v>25.8180791197818</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>478427.6570883326</v>
+        <v>25.91008079540358</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>1402226.773852008</v>
+        <v>25.94173983037097</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-2381799.137822161</v>
+        <v>25.81497816161411</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>2057139.991821852</v>
+        <v>25.9618548429333</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25166.49579888445</v>
+        <v>25.92120714472494</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-179569.3557290789</v>
+        <v>25.87049862413846</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>646138.1121143103</v>
+        <v>25.93976116383653</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>733525.8615872106</v>
+        <v>25.95736069215243</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-825306.1586308274</v>
+        <v>25.82493780121409</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-255204.6325476406</v>
+        <v>25.87861853687396</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>105515.1557964652</v>
+        <v>25.92006975464735</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-548180.5413523932</v>
+        <v>25.86248223691531</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>55202.70501842215</v>
+        <v>25.89103138829507</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>608305.8437708116</v>
+        <v>25.93136624152988</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1240384.875537679</v>
+        <v>25.78211216848358</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-829348.2031045265</v>
+        <v>25.83283439654303</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-456800.6688246901</v>
+        <v>25.85338492704435</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-1428001.819447588</v>
+        <v>25.77920744420008</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>-136111.0578351053</v>
+        <v>25.90214645866646</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>1009263.710472495</v>
+        <v>25.955973768602</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-98776.74576589538</v>
+        <v>25.90229588559384</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>707814.461331834</v>
+        <v>25.99278859631121</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>947670.9221322419</v>
+        <v>26.02810541349914</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-717630.8881227163</v>
+        <v>25.80291975499592</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>-141303.6594822554</v>
+        <v>25.88636552109758</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>403434.3502216999</v>
+        <v>25.9596171956426</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>2310055.488496657</v>
+        <v>26.02631009050743</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>1615327.348060071</v>
+        <v>26.05932131391482</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>1870732.250319602</v>
+        <v>26.0906605657301</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>1845784.253025926</v>
+        <v>26.09621813593684</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>84958.50068399469</v>
+        <v>25.92117779177824</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>1715287.308857331</v>
+        <v>26.09354814835245</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>1818743.685757712</v>
+        <v>26.10554641629812</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>245596.2955787722</v>
+        <v>25.88685647984642</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>944926.9252422779</v>
+        <v>25.96851942306238</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>1018016.123558968</v>
+        <v>25.97914238454041</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-986807.9441262895</v>
+        <v>25.79862901218036</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>941227.3226339306</v>
+        <v>25.97401924938335</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>935786.7364907129</v>
+        <v>25.97435883989057</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-1003514.645499476</v>
+        <v>25.81740970008439</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>2288507.309854869</v>
+        <v>26.06951404697853</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>2216241.002969002</v>
+        <v>26.08182657286287</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1893774.93270132</v>
+        <v>26.17114930096363</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1982895.513236676</v>
+        <v>26.20220264880682</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>2059076.505204224</v>
+        <v>26.21714701976482</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>462629.0128748557</v>
+        <v>25.95219730906798</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1874894.1408609</v>
+        <v>26.18796881110608</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>1877220.043778253</v>
+        <v>26.20540595037725</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>2592382.311475141</v>
+        <v>26.03408850850754</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>1225908.422014588</v>
+        <v>26.03682244516707</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>1591615.057527771</v>
+        <v>26.06199991861504</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>1927137.033532376</v>
+        <v>26.0867308225657</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-307798.1304208729</v>
+        <v>25.87210179266118</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>1528565.8146268</v>
+        <v>26.06620828887677</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>1790552.786666079</v>
+        <v>26.09052174369555</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-429304.9117687316</v>
+        <v>25.85958730984786</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>719700.9869992243</v>
+        <v>25.94878193231007</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>968794.2515546894</v>
+        <v>25.96579295211228</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-1093135.486261296</v>
+        <v>25.78447378741402</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>514569.170320557</v>
+        <v>25.9626988359861</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>797306.6356268153</v>
+        <v>25.97393650057758</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-1033852.677649888</v>
+        <v>25.80823258589055</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>2053655.979660405</v>
+        <v>26.06787888396208</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>2496854.654085506</v>
+        <v>26.08956588011842</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1762100.788189145</v>
+        <v>26.1677353904347</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>1952997.910419474</v>
+        <v>26.18841720990973</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>2224151.225241818</v>
+        <v>26.22132849356741</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-25104.22222424475</v>
+        <v>25.89870489243238</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>1835960.047683415</v>
+        <v>26.16953400604288</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>2002942.871425091</v>
+        <v>26.19824546668335</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>3285406.044731965</v>
+        <v>26.00096412787918</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>513223.3466132383</v>
+        <v>25.93987985455483</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>890167.6581026168</v>
+        <v>25.97218973222329</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>1589788.679796962</v>
+        <v>26.01340539138667</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-703011.0844834562</v>
+        <v>25.84606463025947</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>1771811.455985295</v>
+        <v>26.00843893379649</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>2311545.530109613</v>
+        <v>26.04126402595636</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-761222.3927053692</v>
+        <v>25.8557324171135</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>981757.8850932646</v>
+        <v>25.9377872863487</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>1557876.924627943</v>
+        <v>25.96708392694621</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1442466.737773016</v>
+        <v>25.81363189855261</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>1009596.956191238</v>
+        <v>25.95300278757173</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>1492297.916978443</v>
+        <v>25.97604291644025</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-1802687.819829078</v>
+        <v>25.81496880016378</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>2597126.135126227</v>
+        <v>26.02412945868664</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>3413115.036548671</v>
+        <v>26.06262203912191</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>2051949.364469988</v>
+        <v>26.07380505571706</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>2436788.945291962</v>
+        <v>26.11429750383792</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>2957768.516059762</v>
+        <v>26.16683169894665</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-300745.1744072844</v>
+        <v>25.86084799054823</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>2225752.703365283</v>
+        <v>26.09649517854608</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>2735103.711261259</v>
+        <v>26.14731134181354</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-2458575.413520392</v>
+        <v>25.84575492262001</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-2142797.207587007</v>
+        <v>25.84980993024925</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-1370986.499491904</v>
+        <v>25.86183183579114</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-2982542.829114468</v>
+        <v>25.81386460125283</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-2248878.99190541</v>
+        <v>25.83756801747645</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-2158198.69215984</v>
+        <v>25.8421767137837</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-2801968.675307044</v>
+        <v>25.8250012418203</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-889410.2248413579</v>
+        <v>25.86842283428562</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-616864.9784285579</v>
+        <v>25.87738563930644</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1347934.896229458</v>
+        <v>25.82743716118243</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-1081091.675701748</v>
+        <v>25.8575833807519</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-1110278.176694035</v>
+        <v>25.85840654593482</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-1706140.327379611</v>
+        <v>25.82880785631786</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-1611194.44946256</v>
+        <v>25.81921121848144</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-1030176.749922796</v>
+        <v>25.8407010092857</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-1408650.645331536</v>
+        <v>25.83343718756711</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-615765.3079007275</v>
+        <v>25.86096170364931</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-273396.3178205368</v>
+        <v>25.8740034234732</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1769875.364461508</v>
+        <v>25.79335961956477</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-1470620.957373407</v>
+        <v>25.80722023268191</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-1197621.374660281</v>
+        <v>25.82890436759278</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1899774.175478555</v>
+        <v>25.79795811306701</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-849363.2854667089</v>
+        <v>25.84564816535418</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-1439466.271362488</v>
+        <v>25.84696005594594</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-818202.1741096404</v>
+        <v>25.86689608726686</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-834792.3892592964</v>
+        <v>25.87225617361171</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-2674834.305802808</v>
+        <v>25.80455412688943</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-663126.4273130033</v>
+        <v>25.87385309288737</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-501258.0423135125</v>
+        <v>25.87621318051508</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-2690560.091682784</v>
+        <v>25.81869610443138</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>514468.9114335702</v>
+        <v>25.90940220598217</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>453675.944095029</v>
+        <v>25.90855107741865</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>182096.0709180406</v>
+        <v>25.90390784973911</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>758078.3247728386</v>
+        <v>25.92667933983427</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>768063.2486352719</v>
+        <v>25.92854939846526</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-1152631.474165662</v>
+        <v>25.84064254551641</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>346545.4189777449</v>
+        <v>25.88705748909961</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>500260.2559477814</v>
+        <v>25.89584333299053</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-1004023.786726624</v>
+        <v>25.82865924406516</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-165434.3663543042</v>
+        <v>25.88385438364939</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>82978.80014050135</v>
+        <v>25.89463555739014</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-1556997.343708053</v>
+        <v>25.78609172246562</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-193907.802135097</v>
+        <v>25.87633787927673</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>103362.6135873174</v>
+        <v>25.90107967609793</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-1684810.107513051</v>
+        <v>25.80101789612239</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>855843.0066504542</v>
+        <v>25.92691004763843</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-2744137.322108778</v>
+        <v>25.83285761528034</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-1573895.023448538</v>
+        <v>25.85234454003658</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-1064737.782341483</v>
+        <v>25.86403687655868</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-2758808.937966613</v>
+        <v>25.80359216673998</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-785557.5679686585</v>
+        <v>25.86889578159332</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-575970.9473989733</v>
+        <v>25.87839734198556</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-2468906.888280942</v>
+        <v>25.81811838930414</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>665926.8617359119</v>
+        <v>25.9072444038615</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>853664.3898502204</v>
+        <v>25.91592739533448</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>481437.3756755412</v>
+        <v>25.90649418307286</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>640193.1873206091</v>
+        <v>25.92375280454608</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>1193190.579590742</v>
+        <v>25.93825700104697</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-1808827.217669692</v>
+        <v>25.80954266001849</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-580257.1408872263</v>
+        <v>25.86625687941151</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-340539.5541251962</v>
+        <v>25.88430405643034</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-1416146.989939789</v>
+        <v>25.81556717836288</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-439729.8806079929</v>
+        <v>25.86865961799867</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>70103.80616845709</v>
+        <v>25.88949806436625</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-1624083.080921</v>
+        <v>25.78055743420613</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-532291.6927021896</v>
+        <v>25.86454433921944</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>123392.6212713942</v>
+        <v>25.90098973032281</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-1625635.403712405</v>
+        <v>25.79779867417629</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>289426.0367771541</v>
+        <v>25.92039091550752</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-4150874.792842353</v>
+        <v>25.83317182031243</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-2874701.478117379</v>
+        <v>25.85025333242473</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-1843202.372030539</v>
+        <v>25.86368269205939</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-4032043.222816433</v>
+        <v>25.8188780760571</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>-2208371.30330671</v>
+        <v>25.86634225421516</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-573851.0038474674</v>
+        <v>25.87883506509384</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-4277242.687059084</v>
+        <v>25.82238137236936</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>-271448.0279869331</v>
+        <v>25.8910851560284</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>924146.3484885497</v>
+        <v>25.90569069321721</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-110274.7773497648</v>
+        <v>25.88360848684682</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>219023.0744829011</v>
+        <v>25.89347731920603</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>934509.8706405167</v>
+        <v>25.90937474926642</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-2719489.273000916</v>
+        <v>25.8160869419882</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-865736.4631333748</v>
+        <v>25.86684370975996</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-25708.41902244566</v>
+        <v>25.88650078017869</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-2268462.784034735</v>
+        <v>25.81635050637366</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-912685.3547898019</v>
+        <v>25.86070462161579</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-339696.5510145637</v>
+        <v>25.88190801859716</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-2285843.114615058</v>
+        <v>25.79642813871297</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-982943.0646241853</v>
+        <v>25.8511729658718</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-135260.3003530911</v>
+        <v>25.88605652661502</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-2530101.753235806</v>
+        <v>25.79821864790196</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>-220050.3926426821</v>
+        <v>25.88648828877811</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-652219.5624545718</v>
+        <v>25.88200669939835</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-577459.5675460827</v>
+        <v>25.82731739684786</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>23205.20080944652</v>
+        <v>25.87759511549094</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>142403.452127846</v>
+        <v>25.8996907497573</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-1084136.335665104</v>
+        <v>25.7918922740352</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-771404.4926970137</v>
+        <v>25.81597977399084</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-472134.068957278</v>
+        <v>25.84547860686777</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-968952.2979101674</v>
+        <v>25.8415004187726</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-213822.9724237869</v>
+        <v>25.87034980459582</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>111458.583321505</v>
+        <v>25.90615241915676</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-1418252.246641721</v>
+        <v>25.7768156697391</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-1138180.904961539</v>
+        <v>25.80974512773599</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-854725.2004497376</v>
+        <v>25.83448630051429</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-1434831.749137212</v>
+        <v>25.78785749183609</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-405590.3302437181</v>
+        <v>25.87165160733205</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>415759.3162156705</v>
+        <v>25.92602132343157</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-246572.6427026235</v>
+        <v>25.87088050958055</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>287835.2399435752</v>
+        <v>25.9353551349686</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>471899.9938758083</v>
+        <v>25.98653238940877</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-833005.8351436078</v>
+        <v>25.78096893366907</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>-387081.6788352468</v>
+        <v>25.84115806334757</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>-3070.436732751934</v>
+        <v>25.90170807580717</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>1339981.063452654</v>
+        <v>25.96134056085712</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>542268.5150318256</v>
+        <v>25.95611434961096</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>980026.7376048832</v>
+        <v>25.97872658861076</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>1039158.681219117</v>
+        <v>25.99578216576829</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>-692105.9602651858</v>
+        <v>25.83539708424257</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>758133.2998922822</v>
+        <v>25.96415807657644</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>919013.7662100538</v>
+        <v>25.97941458439899</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>-258039.3212322541</v>
+        <v>25.85819058285253</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>361080.3628866312</v>
+        <v>25.92708682382535</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>700543.5245384156</v>
+        <v>25.94807430417721</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>-1160113.411866015</v>
+        <v>25.7887076649243</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>370480.8483709378</v>
+        <v>25.92628912632399</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>597656.4256635495</v>
+        <v>25.94545531183989</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>-966153.0774234257</v>
+        <v>25.81796611333345</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1531880.037932953</v>
+        <v>26.00669451850615</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1728709.446034434</v>
+        <v>26.03594735485017</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1329188.972035421</v>
+        <v>26.08486106557843</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1586173.050312064</v>
+        <v>26.10496544897832</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1746805.649331026</v>
+        <v>26.14375258994379</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>2460.456075883916</v>
+        <v>25.88614514449241</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1338646.801372282</v>
+        <v>26.08159781523153</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>1427050.606203825</v>
+        <v>26.10556621887094</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>1478889.25804587</v>
+        <v>25.96951636763868</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>231045.5601350416</v>
+        <v>25.93260585369924</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>524215.5231574413</v>
+        <v>25.94914597733363</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>943629.2091763739</v>
+        <v>25.98508707829486</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-902458.5245879857</v>
+        <v>25.79094025444195</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>439041.4102383643</v>
+        <v>25.93499278646457</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>765380.6828698425</v>
+        <v>25.96443161649382</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>-704639.1306195675</v>
+        <v>25.83780667372291</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>198302.3010750409</v>
+        <v>25.90993969853783</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>758958.6653504294</v>
+        <v>25.93899824459217</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-1284413.439168441</v>
+        <v>25.77836716314333</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>169353.7916795872</v>
+        <v>25.91540329861039</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>534798.8522208872</v>
+        <v>25.94554248280923</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-1065434.334921512</v>
+        <v>25.81130028834594</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1292071.244120165</v>
+        <v>26.00332952803091</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>2033563.941298054</v>
+        <v>26.04352113699193</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1166755.316222444</v>
+        <v>26.07738915595262</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1346050.233295608</v>
+        <v>26.08826527162661</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>1902025.683872241</v>
+        <v>26.14450804803199</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>-371807.1499839251</v>
+        <v>25.83635615385789</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1127490.468289452</v>
+        <v>26.05935663092642</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>1408646.489531315</v>
+        <v>26.09695961274804</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>1348482.392869961</v>
+        <v>25.93503148379762</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>-530707.2725711308</v>
+        <v>25.85929149911808</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>-196668.0948639914</v>
+        <v>25.87520411104372</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>235472.3928828254</v>
+        <v>25.92025834584773</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-1441623.404434351</v>
+        <v>25.78708134368723</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>-209664.490001317</v>
+        <v>25.89836952816176</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>626332.3118907473</v>
+        <v>25.92735631748661</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-1438626.360365947</v>
+        <v>25.8325669508309</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>211276.4179478325</v>
+        <v>25.90002205574994</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>963494.0699450403</v>
+        <v>25.93138676209582</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-1808903.452565062</v>
+        <v>25.79676797089997</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>156423.4361414542</v>
+        <v>25.9016584810473</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>743911.5395773588</v>
+        <v>25.93274923789781</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-1918650.84431812</v>
+        <v>25.80776853929943</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>1413020.037779045</v>
+        <v>25.96091120878252</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>2595635.959244893</v>
+        <v>26.00757525226363</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1179631.668392512</v>
+        <v>25.99889630890477</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>1464462.626099055</v>
+        <v>26.01871983933189</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>2353998.0070014</v>
+        <v>26.08618613957015</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-939464.523237795</v>
+        <v>25.81277235619158</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>1287207.261626978</v>
+        <v>26.00004307830931</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>1875057.940338369</v>
+        <v>26.04924792656291</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-1515293.295962054</v>
+        <v>25.87514644383629</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-3703366.772380021</v>
+        <v>25.88192190708054</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>2734657.667462361</v>
+        <v>25.89810762630977</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-5349139.237981419</v>
+        <v>25.87122547798315</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>2635762.630788528</v>
+        <v>25.90844394471299</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>3713701.763587152</v>
+        <v>25.91336531140502</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-4475770.081143423</v>
+        <v>25.8597908514839</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>8828938.559532726</v>
+        <v>25.91390980989955</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>9631577.132006561</v>
+        <v>25.92527309546099</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>-2209656.916154204</v>
+        <v>25.88755974938379</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-1508720.710807822</v>
+        <v>25.90906364492312</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-1525605.009360204</v>
+        <v>25.90897240689395</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>1271180.909235227</v>
+        <v>25.88344313916591</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-2351260.418697308</v>
+        <v>25.87449023785145</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>3100892.407826567</v>
+        <v>25.9147767273859</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-1834116.291554944</v>
+        <v>25.87562528670707</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>142429.2497605302</v>
+        <v>25.89101542679012</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>2156025.722781625</v>
+        <v>25.90028388712249</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>442376.782708265</v>
+        <v>25.87204807257934</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>1322605.286744063</v>
+        <v>25.88959427714439</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>1671912.311294285</v>
+        <v>25.90022772521376</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-4014113.979726567</v>
+        <v>25.83427536756078</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-932080.8634795869</v>
+        <v>25.88554983678702</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>1034696.704381004</v>
+        <v>25.87929989003132</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>1960507.613403479</v>
+        <v>25.90134230190728</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>2841031.850632809</v>
+        <v>25.9078823096419</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-4886451.10261407</v>
+        <v>25.86848032857904</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>6789384.040701269</v>
+        <v>25.94245959597312</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>6396635.829540958</v>
+        <v>25.94096779177769</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>-4763831.479587987</v>
+        <v>25.85916313160459</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>8641696.290720101</v>
+        <v>25.95318920393395</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>8229529.922138995</v>
+        <v>25.95271739786801</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>5413717.704768963</v>
+        <v>25.96222920564517</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>6015812.232394868</v>
+        <v>25.97370230138424</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>5935866.119847419</v>
+        <v>25.97145006847809</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>5527222.730931585</v>
+        <v>25.91296520520357</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>7056180.177903826</v>
+        <v>25.94469590345527</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>7650630.364349386</v>
+        <v>25.97088818456377</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>267717.4365403794</v>
+        <v>25.88139781816984</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>1796028.20888643</v>
+        <v>25.92011289230499</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>1675533.3065993</v>
+        <v>25.91981072587657</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>370223.1950266423</v>
+        <v>25.87544381184044</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>3416992.104959494</v>
+        <v>25.95023926532496</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>2938231.008149561</v>
+        <v>25.95523987883449</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-3296159.160983305</v>
+        <v>25.84478956914503</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>4411896.111889861</v>
+        <v>25.95824473602231</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-4197159.886933944</v>
+        <v>25.86495682641688</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-529160.9946664799</v>
+        <v>25.88835093945818</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>1449276.186637995</v>
+        <v>25.89824450665794</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-5710386.760704145</v>
+        <v>25.86414645762339</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>5644702.141514143</v>
+        <v>25.93627014428467</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>6556440.361869832</v>
+        <v>25.93970875800655</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>-5444765.372477542</v>
+        <v>25.85582424758442</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>8524955.008321654</v>
+        <v>25.950394474993</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>10261508.33753443</v>
+        <v>25.95558557530056</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>7983067.303659469</v>
+        <v>25.96372637010119</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>8019390.041902147</v>
+        <v>25.97187769419343</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>8398280.693401858</v>
+        <v>25.97765844455868</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-2836454.998118665</v>
+        <v>25.88872009966206</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>2277634.893592439</v>
+        <v>25.93021573193544</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>4854000.884331382</v>
+        <v>25.9610562738379</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-831577.6133813369</v>
+        <v>25.86888891674683</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>1351978.368267884</v>
+        <v>25.90871296869668</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>1616232.457148366</v>
+        <v>25.91413574069481</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>468486.9297750903</v>
+        <v>25.86884254981674</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>2702461.11579429</v>
+        <v>25.94136220137262</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>3585031.115792331</v>
+        <v>25.95439610322976</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-3207502.308353451</v>
+        <v>25.84147847204756</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>3923190.587973499</v>
+        <v>25.95550486726808</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-8902211.503553303</v>
+        <v>25.85934259267008</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-4278639.120046912</v>
+        <v>25.87992737379328</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>276336.4695445522</v>
+        <v>25.893392257478</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-7513442.418819239</v>
+        <v>25.87115034429434</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>9321879.582594035</v>
+        <v>25.92795803927586</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>9891563.102637725</v>
+        <v>25.93632949387545</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-9336387.291061537</v>
+        <v>25.85697890114796</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>12962551.82516243</v>
+        <v>25.93298364170559</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>13458769.90729094</v>
+        <v>25.94442846349342</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>9766570.37329033</v>
+        <v>25.9329103711019</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>9910975.621233696</v>
+        <v>25.94166639505361</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>11622333.87741541</v>
+        <v>25.95095678085594</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-4349539.615173961</v>
+        <v>25.87583153782342</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>-32997.52026016342</v>
+        <v>25.91685082270797</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>7880445.990707627</v>
+        <v>25.94996807826028</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-2889174.400816929</v>
+        <v>25.86473858051207</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1003954.898523246</v>
+        <v>25.89917604334137</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>2309912.320506756</v>
+        <v>25.91070913828997</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>565978.2270616959</v>
+        <v>25.87778563869304</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>4388070.578377653</v>
+        <v>25.93005161827052</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>5452843.027635016</v>
+        <v>25.94797668995153</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-5505543.744483126</v>
+        <v>25.84444121743794</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>5234678.302700734</v>
+        <v>25.93156153009551</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-189035.7143445266</v>
+        <v>25.90704182958481</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-582770.0789007122</v>
+        <v>25.87449833619851</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>1238743.272606393</v>
+        <v>25.91267986959958</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>1710995.170261241</v>
+        <v>25.92386557475568</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-2025462.092653423</v>
+        <v>25.85140301240939</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-1317111.648079484</v>
+        <v>25.86697958669933</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-163787.546192183</v>
+        <v>25.89754240629372</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-2012878.449149023</v>
+        <v>25.87638285672147</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-726802.4990419502</v>
+        <v>25.88425424135282</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>1261922.247055667</v>
+        <v>25.91249351630555</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>293165.9665022658</v>
+        <v>25.86801549189826</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>906671.1424785653</v>
+        <v>25.8943940810735</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>1478272.690834625</v>
+        <v>25.90368002030035</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-3292288.001959565</v>
+        <v>25.82814525863964</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-213315.9842307752</v>
+        <v>25.89903982743106</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>2933021.092773074</v>
+        <v>25.9341487074089</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-207623.4906850426</v>
+        <v>25.90642425996482</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>2027860.079237055</v>
+        <v>25.95611536832419</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>2833882.878596936</v>
+        <v>25.98132463624315</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-1843612.131861252</v>
+        <v>25.84778624856382</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>-410396.9959480436</v>
+        <v>25.87976967121253</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>1004108.687810505</v>
+        <v>25.93338599983975</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>4690640.605230561</v>
+        <v>25.97027132258561</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>3493678.511854052</v>
+        <v>25.99229838763314</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>3879254.217413993</v>
+        <v>26.0045456906746</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>3551537.496244298</v>
+        <v>26.00704972501915</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>680691.0376077567</v>
+        <v>25.91335982770012</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>3428825.64651757</v>
+        <v>26.00059851345486</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>3863249.268235599</v>
+        <v>26.01181121450828</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>838371.0276826714</v>
+        <v>25.88947351352199</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>1566782.475992735</v>
+        <v>25.93026465229081</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>1883848.309002448</v>
+        <v>25.93887182344706</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>445108.1290572153</v>
+        <v>25.87843000732041</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>3716678.883569412</v>
+        <v>25.98277082296769</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>2990545.238942261</v>
+        <v>25.97889366908215</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>-2485353.797194334</v>
+        <v>25.85004168615496</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>5143108.395209611</v>
+        <v>26.00285193184059</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>4808814.879906828</v>
+        <v>26.01098926223101</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>4676607.353349236</v>
+        <v>26.07650634398197</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>4693905.13114235</v>
+        <v>26.08547394893381</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>4777797.458328229</v>
+        <v>26.09733762257423</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1415933.225668589</v>
+        <v>25.94455805165214</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>4246086.277634591</v>
+        <v>26.06887647918296</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>4349978.617494362</v>
+        <v>26.08633117044526</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>6030993.049778732</v>
+        <v>25.97645631635364</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>2786177.810164484</v>
+        <v>25.97880130888213</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>3275917.025614092</v>
+        <v>25.9872914871179</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>3697009.866461194</v>
+        <v>26.00212100871344</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-72815.38541797356</v>
+        <v>25.88298285558962</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>3089573.521616883</v>
+        <v>25.98441455315137</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>3850098.379944919</v>
+        <v>26.00335773037036</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-283281.3927304127</v>
+        <v>25.873079080034</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>1435001.972678029</v>
+        <v>25.9189011243228</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>2124777.85780772</v>
+        <v>25.93157972059754</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>576195.1344625235</v>
+        <v>25.86925622255846</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>3455124.819604939</v>
+        <v>25.97524087899258</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>3644844.663335423</v>
+        <v>25.97912296930822</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-2105526.607670567</v>
+        <v>25.84539974611973</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>5309300.395303264</v>
+        <v>26.0034268480398</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>6086372.690873181</v>
+        <v>26.01766224440427</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>4909177.836939611</v>
+        <v>26.0755459137881</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>4769561.981960541</v>
+        <v>26.07801221074041</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>5361623.068914694</v>
+        <v>26.10145344907504</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>410109.084504716</v>
+        <v>25.91170818418462</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>4171912.107608807</v>
+        <v>26.05862418558794</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>4823135.74859426</v>
+        <v>26.08305678432614</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>7385744.180089852</v>
+        <v>25.95772279762876</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>655025.8632548738</v>
+        <v>25.91816027813559</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>1494907.582800523</v>
+        <v>25.93389209191008</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>2885691.840873088</v>
+        <v>25.96021193535645</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-1574237.306265584</v>
+        <v>25.86453315026865</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>4157819.896461753</v>
+        <v>25.9516271749967</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>5094102.399883701</v>
+        <v>25.97587252240973</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-1627411.204277331</v>
+        <v>25.87016810424072</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1877620.724856922</v>
+        <v>25.9130659398025</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>3273375.6319389</v>
+        <v>25.93367847074423</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>850062.1309384463</v>
+        <v>25.88204716108966</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>5090839.776693701</v>
+        <v>25.9646525912112</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>5782681.657210968</v>
+        <v>25.97677945475631</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-4346199.13722097</v>
+        <v>25.84955598743424</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>7108749.266174032</v>
+        <v>25.97667333235417</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>8016799.524672659</v>
+        <v>26.0017649147911</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>6266988.015713906</v>
+        <v>26.01442262534405</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>6386304.97443828</v>
+        <v>26.03340401681193</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>7718861.432833514</v>
+        <v>26.06961033983507</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-510110.6480003892</v>
+        <v>25.88357356651338</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>5483129.766372616</v>
+        <v>26.01470617637225</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>6741931.421324801</v>
+        <v>26.05261373956976</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.569</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.473</v>
+        <v>15.117</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.028</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.69</v>
+        <v>21.019</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.926</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.396</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>25.86045821433676</v>
+        <v>17.16022030346879</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.86970441480089</v>
+        <v>16.91651695905529</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.88782366403457</v>
+        <v>32.11001872716017</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.82899568226766</v>
+        <v>2.896192898549973</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.86958464308214</v>
+        <v>24.3925043510894</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.87686940796408</v>
+        <v>29.60331287477102</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.83941648100304</v>
+        <v>7.23782627744751</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.89942957830351</v>
+        <v>47.12171514839113</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.9137591250049</v>
+        <v>48.48085601886194</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.86355852022186</v>
+        <v>16.27686176814118</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.89507415155958</v>
+        <v>19.57033078350492</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>25.89613495471392</v>
+        <v>20.47933826966722</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25.85814105127746</v>
+        <v>19.5702175931548</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.85447427183869</v>
+        <v>22.10640212992968</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.89982143014353</v>
+        <v>54.09991151149337</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25.85544975132058</v>
+        <v>16.99631938437702</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.8870815675507</v>
+        <v>27.70187443807525</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.90207471718732</v>
+        <v>35.13135812653032</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>25.80705976465006</v>
+        <v>5.237260389238031</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25.83017932354648</v>
+        <v>12.78831655064471</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.85559736716194</v>
+        <v>15.56302438166239</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25.80325319633716</v>
+        <v>3.057424405170213</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.86589061477924</v>
+        <v>17.47054782820975</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25.86207685355227</v>
+        <v>25.95984403316407</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.89218631587374</v>
+        <v>30.69004710521307</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.89776705737528</v>
+        <v>31.91865277274617</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>25.82110289947283</v>
+        <v>1.607226392237958</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.91143784047043</v>
+        <v>36.76817877943851</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.91130358343878</v>
+        <v>35.60060572203328</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>25.83633183538062</v>
+        <v>7.684525118021579</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.94987417904177</v>
+        <v>49.85081004322969</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25.94879146922563</v>
+        <v>48.4976611244399</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>25.96114223403623</v>
+        <v>45.8952303495084</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>25.98084610407265</v>
+        <v>48.99500115182701</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>25.97933496647139</v>
+        <v>51.86729048063717</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.8924646831004</v>
+        <v>43.39420889640439</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>25.94627901984175</v>
+        <v>57.09314446594951</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>25.97297436431424</v>
+        <v>60.91840841083555</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>25.86023119688652</v>
+        <v>24.33174157356251</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>25.9257801794785</v>
+        <v>38.21716448034599</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>25.92930588527435</v>
+        <v>37.71071844012211</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>25.80886543985767</v>
+        <v>4.782411920998701</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.91200832589881</v>
+        <v>36.00409867622182</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>25.93261984364753</v>
+        <v>36.97221735643874</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>25.81849469917783</v>
+        <v>4.836104549336937</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>25.96693260333374</v>
+        <v>54.05005808554348</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.8414303256857</v>
+        <v>6.604672649859751</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25.87285558661853</v>
+        <v>21.48213556109821</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>25.88377069344447</v>
+        <v>26.04977637654252</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.81477278166334</v>
+        <v>1.620874398484411</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.90222076070262</v>
+        <v>32.81353046855347</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.90949866799262</v>
+        <v>37.00466979811061</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25.83054651791073</v>
+        <v>7.648224830414662</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>25.94460471795196</v>
+        <v>48.16448155999</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>25.95198250225241</v>
+        <v>52.89545631117211</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>25.96102362120273</v>
+        <v>59.63861862913403</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>25.97618935415986</v>
+        <v>59.39529741563719</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>25.98605280031427</v>
+        <v>64.26477151643145</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>25.85737697394494</v>
+        <v>11.52191714191322</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25.92383502784867</v>
+        <v>34.89996391061663</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>25.95803003514197</v>
+        <v>46.71436103397525</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>25.84091486027083</v>
+        <v>13.04184351052214</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>25.90700356082954</v>
+        <v>32.52153432163371</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>25.91944797051266</v>
+        <v>35.37203770408237</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.79876554464551</v>
+        <v>4.634122099346115</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.89790444523247</v>
+        <v>26.19213796741848</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>25.93048347137092</v>
+        <v>37.34219139979092</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>25.81146499224743</v>
+        <v>4.536514575806056</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>25.96002735004796</v>
+        <v>46.25758987175557</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>25.83714894255425</v>
+        <v>3.631364113593072</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>25.86399662067712</v>
+        <v>16.28172419448275</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.88062239762503</v>
+        <v>23.83362178787398</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.82945415952083</v>
+        <v>0.8312556343881781</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.89658599298163</v>
+        <v>32.23841557056732</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>25.91066573014308</v>
+        <v>38.29530369801841</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.83300663692451</v>
+        <v>1.411163130016305</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>25.92316502714373</v>
+        <v>46.27717129693062</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>25.93974886424509</v>
+        <v>51.73900761363599</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>25.92166021063169</v>
+        <v>50.15948038782238</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>25.93564346815998</v>
+        <v>51.61789383962614</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>25.95018382709865</v>
+        <v>59.86549257549563</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.8445361333525</v>
+        <v>9.446504172798733</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25.90719125475185</v>
+        <v>24.37639638442461</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>25.94586090571358</v>
+        <v>51.46471180205563</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.83869824626721</v>
+        <v>9.014730355532691</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25.89382263939251</v>
+        <v>27.88180083123097</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>25.91489016824031</v>
+        <v>36.20816523504485</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>25.81812061722198</v>
+        <v>4.99745790006083</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.88735391954651</v>
+        <v>27.8586360772143</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>25.92535433247529</v>
+        <v>41.59473933761567</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>25.814637821688</v>
+        <v>0.9550935603668655</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.9255769542812</v>
+        <v>41.64548590446977</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>25.90146081517171</v>
+        <v>23.00070887593254</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>25.85082144712653</v>
+        <v>19.50378039684914</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>25.90601856374727</v>
+        <v>33.2938459565069</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>25.92745150011561</v>
+        <v>36.50157875657338</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>25.80843222161599</v>
+        <v>6.794854697315973</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.8481269748303</v>
+        <v>14.22080614926147</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>25.8902740974037</v>
+        <v>22.27219052700963</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.85167226260123</v>
+        <v>13.54686732428153</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>25.87692977395945</v>
+        <v>22.74688428829567</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>25.91796328392098</v>
+        <v>34.09482817273557</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>25.78937675482672</v>
+        <v>3.7690625970939</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.82849014190049</v>
+        <v>10.25811124550107</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>25.85456228326736</v>
+        <v>17.45724169372294</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.78800702846008</v>
+        <v>2.381624268835111</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>25.88037972870823</v>
+        <v>19.7389917101875</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>25.93434030204135</v>
+        <v>39.42916578694989</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>25.88714063844796</v>
+        <v>21.6869064713393</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>25.96191710331152</v>
+        <v>41.63307528550781</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>26.00220545693234</v>
+        <v>49.4708357170115</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>25.79680926433097</v>
+        <v>4.752802133474432</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.86123809572743</v>
+        <v>19.124818586911</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>25.93497171539828</v>
+        <v>32.27637328321639</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>25.99144676472486</v>
+        <v>59.13416358045306</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>26.01279750317088</v>
+        <v>60.5046050391895</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>26.03566803384711</v>
+        <v>65.44844673900542</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>26.04590215725571</v>
+        <v>63.92039824592798</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>25.88937910330266</v>
+        <v>26.31362922850533</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>26.03288931098115</v>
+        <v>62.67210902841461</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26.05047985098533</v>
+        <v>65.06109619634856</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>25.87059932575082</v>
+        <v>30.57672671071786</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>25.94362009843897</v>
+        <v>41.80011655688158</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>25.959558352774</v>
+        <v>44.78881232580743</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>25.80445078167156</v>
+        <v>6.302925812243767</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>25.95294947321496</v>
+        <v>46.43274588265515</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>25.96429918823432</v>
+        <v>46.57818163499712</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>25.82330917540164</v>
+        <v>8.34876466790654</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>26.0293225899193</v>
+        <v>69.43892702379159</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>26.04820333801919</v>
+        <v>67.7780380633633</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>26.12668815426041</v>
+        <v>82.08856643498308</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>26.1493967274481</v>
+        <v>84.16510041840195</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.1718916573659</v>
+        <v>85.81385556715539</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>25.93098896695547</v>
+        <v>37.97424589489187</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>26.12818642226506</v>
+        <v>79.65226668448339</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>26.1546696616402</v>
+        <v>80.27406083752808</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.99782075718086</v>
+        <v>61.31166190598537</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.99000389003803</v>
+        <v>48.04923263746132</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>26.00796790583983</v>
+        <v>55.47219776458401</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>26.03558328293314</v>
+        <v>63.22721284602068</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.84398051809838</v>
+        <v>11.92476130420005</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>26.00604757744939</v>
+        <v>53.62169074742274</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>26.03574671432264</v>
+        <v>61.71898860392808</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.84632450675052</v>
+        <v>15.37921942239159</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.92528002182584</v>
+        <v>36.50615651521115</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>25.94797600261199</v>
+        <v>43.35637357478831</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.79145349302615</v>
+        <v>5.122240231300271</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>25.94140966420824</v>
+        <v>38.45615794180485</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>25.96435848787729</v>
+        <v>47.29398156804217</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.81493545548672</v>
+        <v>7.739266620330948</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>26.0275191684308</v>
+        <v>63.18501867512192</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>26.05593818282411</v>
+        <v>73.08401595290145</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>26.12191615273989</v>
+        <v>77.46122640494998</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>26.13589608148514</v>
+        <v>80.12894837617198</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>26.17481965244743</v>
+        <v>89.49111931703861</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.88272501040428</v>
+        <v>16.82972363747562</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>26.11017292586423</v>
+        <v>72.47655203638125</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.14791251713098</v>
+        <v>82.65402096367851</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>25.97046052417718</v>
+        <v>59.73490249963881</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.90532939594999</v>
+        <v>28.99104613937463</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>25.9300548520788</v>
+        <v>33.70109143532085</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>25.97292365214567</v>
+        <v>45.36027411765072</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>25.82279856100944</v>
+        <v>8.513829182635707</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>25.9578946781458</v>
+        <v>49.91754105682975</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>25.99509872769157</v>
+        <v>60.22866173182439</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>25.84338605112229</v>
+        <v>12.19980158242641</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.91402901408853</v>
+        <v>35.31539269801116</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>25.94780548546534</v>
+        <v>45.77589660949769</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>25.81464887697446</v>
+        <v>5.629868949348367</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>25.92965748472281</v>
+        <v>39.53885744913917</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.96210104812409</v>
+        <v>50.54691408793065</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>25.81707254991693</v>
+        <v>1.615675476674397</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>25.98592003187668</v>
+        <v>57.98782801925192</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>26.02933426396769</v>
+        <v>72.73586398444569</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>26.03320716696195</v>
+        <v>64.84250059414921</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>26.06581118517115</v>
+        <v>71.9514905397008</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>26.12220382492529</v>
+        <v>88.8326816427203</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>25.84476768074211</v>
+        <v>11.10283008893772</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>26.04283474224307</v>
+        <v>64.18852249279614</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>26.0992743783151</v>
+        <v>80.92287683643066</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.84242175889304</v>
+        <v>10.86016508803937</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>25.85124008530283</v>
+        <v>11.51187162127258</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.87466416499305</v>
+        <v>24.01450739696752</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.80886535046882</v>
+        <v>0.639405099956587</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.85708525436664</v>
+        <v>18.7565742137256</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>25.86362119503571</v>
+        <v>20.81882624517976</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>25.82556632423731</v>
+        <v>5.333076031046478</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.89642881679584</v>
+        <v>36.49399221722425</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>25.90801798802172</v>
+        <v>37.89962590449068</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.84739499329189</v>
+        <v>13.90398339355626</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>25.88601328297836</v>
+        <v>16.92456036424964</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25.88352804889645</v>
+        <v>16.0438341153444</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.83750045371231</v>
+        <v>14.9480749607479</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.83042569893119</v>
+        <v>12.19406821501693</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>25.87025491914633</v>
+        <v>33.24288955275497</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25.83498860256649</v>
+        <v>7.970000912660318</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.86915436595554</v>
+        <v>23.9231559826881</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>25.88235582822457</v>
+        <v>27.32985281275393</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.78272166287769</v>
+        <v>-0.9789006095985897</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.8171226396489</v>
+        <v>8.293273041992908</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>25.83469978842408</v>
+        <v>13.19066790044008</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>25.79113603201703</v>
+        <v>0.9723944234948831</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.87012874586178</v>
+        <v>23.55576688447189</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>25.84254232980314</v>
+        <v>19.10765576914583</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.86814618412459</v>
+        <v>23.02051609982254</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.88359516691888</v>
+        <v>26.297666378539</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>25.79766111292577</v>
+        <v>0.2261130507425584</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.89641067894717</v>
+        <v>28.61727564460027</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.89807056743968</v>
+        <v>29.97490043801719</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>25.8178616850421</v>
+        <v>4.975243117409189</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.94050013392869</v>
+        <v>44.7594513238674</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>25.93994382625706</v>
+        <v>43.84978219542185</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>25.93179075240112</v>
+        <v>38.15761388626117</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>25.96100293647326</v>
+        <v>47.29756393014286</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>25.95797052613325</v>
+        <v>46.2953912180938</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.85099414243333</v>
+        <v>23.78968663877981</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>25.9038333105431</v>
+        <v>40.63769701437226</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>25.92892410367626</v>
+        <v>43.9515067282661</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>25.82862023381741</v>
+        <v>18.2710962804738</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>25.89182510587315</v>
+        <v>29.08835018943548</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>25.90001407942953</v>
+        <v>32.12261570970775</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>25.77228873826936</v>
+        <v>-0.6241813164929795</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.89013324238211</v>
+        <v>27.76127590450006</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>25.9063844913195</v>
+        <v>32.53321933785445</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>25.79149356838707</v>
+        <v>1.453546516547668</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>25.95551899471089</v>
+        <v>47.45753954060055</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>25.82659648628926</v>
+        <v>4.049287286847033</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>25.85273841504554</v>
+        <v>15.93924851748726</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.87393264890112</v>
+        <v>24.6181511114601</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>25.79684535342234</v>
+        <v>-0.2122646714809164</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.89230081728648</v>
+        <v>29.14391655954923</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>25.90036559855574</v>
+        <v>30.06514038295136</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>25.81710312894336</v>
+        <v>5.026518008164452</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>25.93847109991444</v>
+        <v>45.02202930336674</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>25.94722219826198</v>
+        <v>47.75253143094324</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>25.93656157840133</v>
+        <v>46.98986376021538</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>25.95961324303773</v>
+        <v>50.53027430402869</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>25.9695378015751</v>
+        <v>57.28359223590173</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>25.81730745593447</v>
+        <v>1.824297523717426</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.88318883691827</v>
+        <v>23.44841759906736</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>25.91697810171106</v>
+        <v>31.87571735013459</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>25.81479438279183</v>
+        <v>10.28550911530387</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.87736607710387</v>
+        <v>26.63327366601764</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>25.89500465318655</v>
+        <v>31.63050437228576</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>25.76800680739981</v>
+        <v>-0.7294700696564433</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.88114447286554</v>
+        <v>26.15343600925613</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>25.90796311622357</v>
+        <v>33.49891757229032</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>25.78937457479644</v>
+        <v>2.636107592919899</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>25.95086593422199</v>
+        <v>43.7276279985198</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>25.82601540814869</v>
+        <v>1.630634999506061</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>25.85115642337334</v>
+        <v>10.3061367779284</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.87281205969656</v>
+        <v>22.21295937345656</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>25.81251054249752</v>
+        <v>-1.228010390560524</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.88730893781096</v>
+        <v>24.757604194997</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>25.89871272225097</v>
+        <v>33.05761592438978</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>25.8204730798291</v>
+        <v>-0.5599525654424511</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>25.91853637017331</v>
+        <v>40.37676266968875</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>25.93332075141396</v>
+        <v>46.7331399377984</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.90812730054544</v>
+        <v>42.65930966059993</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>25.92432166955416</v>
+        <v>46.72245038616466</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>25.93663588312764</v>
+        <v>52.60306719811585</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>25.8200229979083</v>
+        <v>-1.080236803869873</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>25.88171654789884</v>
+        <v>19.88736714296133</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>25.9157675397606</v>
+        <v>36.81651568710296</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>25.81468008511569</v>
+        <v>5.422517478677726</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>25.87061059828635</v>
+        <v>24.45045673854762</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>25.88927787248618</v>
+        <v>28.97589097256207</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>25.78575878098201</v>
+        <v>-1.50689954011489</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>25.86733010334997</v>
+        <v>22.40175802138545</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>25.89421736146956</v>
+        <v>29.79202318494711</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>25.79092747668903</v>
+        <v>-0.6237000573611731</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.91458702299847</v>
+        <v>36.49990535633721</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.89779133688136</v>
+        <v>26.08486362812871</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>25.84061170558761</v>
+        <v>19.63755891596311</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>25.89853904379909</v>
+        <v>34.46809758853918</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>25.91652112683606</v>
+        <v>37.30132241895203</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>25.79709309005925</v>
+        <v>7.946244254768178</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.83350909209859</v>
+        <v>17.1698462830005</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.86234764406446</v>
+        <v>25.06613454424435</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.84039254812065</v>
+        <v>12.05945212371614</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>25.87571448716352</v>
+        <v>26.36952411601007</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.91703569869806</v>
+        <v>34.74747736053509</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.76842567019253</v>
+        <v>-0.8429662883420477</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.8247095754329</v>
+        <v>8.310494048928486</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>25.84709854192766</v>
+        <v>17.11344539965616</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>25.78036625757828</v>
+        <v>2.697666117685856</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.89899401121124</v>
+        <v>27.93168773085416</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>25.94905683664291</v>
+        <v>47.34252735211067</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.89115468940587</v>
+        <v>26.24150475550697</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.96550892298462</v>
+        <v>42.84734600160498</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>26.00636937468122</v>
+        <v>49.03839040187209</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.78302407623192</v>
+        <v>7.779246955465364</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>25.86228397971344</v>
+        <v>22.80087213407391</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>25.92834551412705</v>
+        <v>36.12849253805335</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>25.97733133670692</v>
+        <v>54.75238336984292</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>25.97866628510933</v>
+        <v>47.31988093632145</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>26.00391274398028</v>
+        <v>56.86328575438412</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>26.01440935885802</v>
+        <v>57.78079286572097</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>25.84311326920119</v>
+        <v>19.42285705343608</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>25.99103226284094</v>
+        <v>53.30880362277546</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>26.00035477202214</v>
+        <v>55.73577949660938</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.8517686321911</v>
+        <v>26.79163749253318</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>25.92936970322631</v>
+        <v>36.40510034441382</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>25.95189373588087</v>
+        <v>42.98429222841536</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>25.77332716948907</v>
+        <v>0.8297269683173525</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>25.94334077216653</v>
+        <v>39.40179072731548</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>25.95440507462989</v>
+        <v>43.4866780581919</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>25.80338924617291</v>
+        <v>7.110895493329263</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>26.03561687117348</v>
+        <v>63.27890757855675</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>26.05472798953297</v>
+        <v>67.13984680994093</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>26.11209819295295</v>
+        <v>70.49829973315494</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>26.13592397885208</v>
+        <v>77.17053868956791</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>26.16058406611597</v>
+        <v>81.08570196445021</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>25.88651455211933</v>
+        <v>31.91385087843929</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>26.11036779141394</v>
+        <v>71.60577207177852</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>26.13320565966141</v>
+        <v>74.89430850654827</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>25.98714747810815</v>
+        <v>55.27523963724077</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>25.95803513318469</v>
+        <v>41.99504329485583</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>25.97648485093788</v>
+        <v>47.77512059652776</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>26.00622447232695</v>
+        <v>55.45591076260678</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.79670948822576</v>
+        <v>9.592696324509888</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>25.96374003024939</v>
+        <v>46.58303028882452</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>25.98677649771203</v>
+        <v>51.72787489440614</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>25.83081934928332</v>
+        <v>15.34025552465971</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>25.91364206666136</v>
+        <v>33.8479592318322</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>25.94304875594738</v>
+        <v>42.10398219924836</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>25.76469428839311</v>
+        <v>-0.3756728134519527</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>25.93626618415171</v>
+        <v>38.88428859425227</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>25.95669731931722</v>
+        <v>41.93652015422353</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>25.79839739120449</v>
+        <v>6.093937459481253</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>26.03521955436867</v>
+        <v>61.98983785223054</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>26.06433182027746</v>
+        <v>70.36796970463234</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>26.10970927080995</v>
+        <v>69.50790959784477</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>26.12333849382354</v>
+        <v>73.74520364527061</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>26.16567215424334</v>
+        <v>84.82910074198419</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>25.83550511680161</v>
+        <v>15.46274822011845</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>26.09185782332877</v>
+        <v>68.64357511290231</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>26.12734602127828</v>
+        <v>74.81447736639913</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.95236347910831</v>
+        <v>49.77564414355066</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>25.87876253608471</v>
+        <v>24.9746031267888</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>25.89936108024454</v>
+        <v>32.33325819536564</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>25.93984448292741</v>
+        <v>38.92515901958591</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>25.7893149027667</v>
+        <v>5.574166257119831</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.92453686041313</v>
+        <v>37.87594664003751</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>25.94925738305136</v>
+        <v>46.70683678161624</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>25.82709084176233</v>
+        <v>8.832856760222871</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>25.90786052406833</v>
+        <v>34.01288714259385</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>25.93981717470249</v>
+        <v>42.59842658379951</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.7870234237716</v>
+        <v>-0.6385168039824052</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.92395203354107</v>
+        <v>37.27601435246741</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>25.94705217362639</v>
+        <v>42.40796750935531</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>25.79896802954342</v>
+        <v>0.9275181413599611</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>25.99317692960634</v>
+        <v>58.3229404320683</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>26.03074164159445</v>
+        <v>68.70401610917985</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>26.02943656117302</v>
+        <v>62.53915278492691</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>26.05536809497369</v>
+        <v>69.21087699436328</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>26.11145887076217</v>
+        <v>80.94296328309289</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>25.81226064929653</v>
+        <v>7.819267510846217</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>26.03320565109097</v>
+        <v>65.69811315390156</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>26.08212753277416</v>
+        <v>74.34909333679369</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>25.85060514903127</v>
+        <v>12.07706275043088</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.86529195049657</v>
+        <v>12.20124426920503</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.89020628515452</v>
+        <v>27.34660892442104</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.81508302992899</v>
+        <v>2.937785472325135</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.8694350950263</v>
+        <v>18.14547753836751</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.88022480127332</v>
+        <v>21.47449086425802</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>25.82649290434836</v>
+        <v>7.579475284761532</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.91305162933812</v>
+        <v>42.18577216800944</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>25.93079720158914</v>
+        <v>44.90812699417629</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>25.86368587721252</v>
+        <v>14.62940536793587</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.90488562224137</v>
+        <v>17.68827576404603</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>25.90509937638919</v>
+        <v>18.20422029922459</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.85252813070475</v>
+        <v>25.64599654495021</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.85189872597759</v>
+        <v>23.71289978069706</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.9059962609464</v>
+        <v>37.7783868376795</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.85985966027625</v>
+        <v>16.99016819656308</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.89789520689968</v>
+        <v>29.396930209131</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>25.90920409311996</v>
+        <v>34.02583430110293</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.80048214896168</v>
+        <v>6.025636908384126</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.83797637469868</v>
+        <v>15.65642851979149</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>25.85987705648894</v>
+        <v>20.27199089570284</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>25.79715128982016</v>
+        <v>3.771908755032964</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.88996918253077</v>
+        <v>25.41680818546552</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>25.86054955661845</v>
+        <v>25.14543097074969</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>25.89945404038609</v>
+        <v>35.07686481485052</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>25.91010712872497</v>
+        <v>35.09673990565521</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.81268168862887</v>
+        <v>2.830230522695974</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.92517195982435</v>
+        <v>39.49701056407255</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.92620936304377</v>
+        <v>40.2846274632083</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>25.82972276484117</v>
+        <v>6.942982186466558</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.97867128827056</v>
+        <v>57.87856883371592</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>25.97841312206891</v>
+        <v>53.56721828813732</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>25.9824403331139</v>
+        <v>47.63095659324392</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>26.01013691658385</v>
+        <v>56.02019787254513</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>26.00785328629256</v>
+        <v>57.5941502459546</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>25.89759896809774</v>
+        <v>37.01657691502007</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>25.96359390824962</v>
+        <v>43.30995798846654</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>25.99633285309651</v>
+        <v>44.89333487962787</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>25.87280344283766</v>
+        <v>26.89495129775863</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>25.94902744651054</v>
+        <v>42.77680191193146</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>25.94608572176355</v>
+        <v>41.36969749187298</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>25.80672609732158</v>
+        <v>6.115655016115479</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>25.93672120918539</v>
+        <v>41.02926279586253</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>25.94988999830719</v>
+        <v>42.57167432885159</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>25.81825300781483</v>
+        <v>6.06270146406008</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.00960045259049</v>
+        <v>62.77659812719553</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>25.83888621135086</v>
+        <v>7.827608589942297</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.87977548992673</v>
+        <v>24.59327103638435</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>25.89574075330869</v>
+        <v>29.23589236856262</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>25.80735687566852</v>
+        <v>1.883472023660961</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>25.91732337531505</v>
+        <v>33.88938617653021</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.92547265718013</v>
+        <v>38.27642695539615</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.82496632498491</v>
+        <v>6.999709478761911</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.97444315973893</v>
+        <v>54.3458388886519</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>25.98301758229472</v>
+        <v>57.06733940731098</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>25.98549459308491</v>
+        <v>58.21196146568121</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>26.00773097739145</v>
+        <v>64.4953531368165</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>26.01801507181654</v>
+        <v>69.12554857779847</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>25.8603979251797</v>
+        <v>16.33990155284739</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.94150127345371</v>
+        <v>31.89182043347265</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.98190790010306</v>
+        <v>37.28514938225465</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.85267491571852</v>
+        <v>17.05289428690825</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.93034367454144</v>
+        <v>37.87691970640732</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>25.93640887985723</v>
+        <v>39.48166462398667</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.79713233656557</v>
+        <v>6.042113297236451</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.92375002659573</v>
+        <v>32.44195294092818</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>25.94842013290037</v>
+        <v>40.21955018688051</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>25.81189765471948</v>
+        <v>4.970469135691967</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>26.00349248355801</v>
+        <v>55.28150468438689</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.83436006415772</v>
+        <v>5.284379503843528</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>25.8701846591652</v>
+        <v>21.77658344917715</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>25.89167814660026</v>
+        <v>29.84357744722947</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.82508661286704</v>
+        <v>2.378571356044063</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>25.91118936496129</v>
+        <v>35.93942076041509</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.92682495200447</v>
+        <v>42.01782936287937</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>25.82901435869275</v>
+        <v>3.718403840622081</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>25.94897854107624</v>
+        <v>54.52128475378885</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>25.96749031600842</v>
+        <v>58.03430117870684</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>25.94260912246189</v>
+        <v>53.63292468975946</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.96254815817552</v>
+        <v>57.98958973610783</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>25.9775436247016</v>
+        <v>65.42617677963939</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.84846972401654</v>
+        <v>16.50733450595021</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>25.924453488278</v>
+        <v>26.0207612494431</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.96919908959149</v>
+        <v>39.92790628106019</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>25.84701799716097</v>
+        <v>13.20678463277999</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.91363967575788</v>
+        <v>33.86034123855004</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.92933374068255</v>
+        <v>38.88341334884001</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.8180791197818</v>
+        <v>5.962297982863468</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.91008079540358</v>
+        <v>33.75366491845546</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>25.94173983037097</v>
+        <v>44.72295232389864</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.81497816161411</v>
+        <v>2.235818032024298</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>25.9618548429333</v>
+        <v>50.38797338028138</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.92120714472494</v>
+        <v>28.41973134296738</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.87049862413846</v>
+        <v>24.41636647738334</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>25.93976116383653</v>
+        <v>41.22835926749681</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>25.95736069215243</v>
+        <v>43.00763615585977</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>25.82493780121409</v>
+        <v>10.98625818692849</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.87861853687396</v>
+        <v>22.789032365115</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.92006975464735</v>
+        <v>30.25699027899595</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.86248223691531</v>
+        <v>19.31367496384544</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>25.89103138829507</v>
+        <v>28.95469314555568</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.93136624152988</v>
+        <v>37.79232237895941</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>25.78211216848358</v>
+        <v>4.956552914714425</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>25.83283439654303</v>
+        <v>12.61670178396206</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>25.85338492704435</v>
+        <v>19.55956057211282</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.77920744420008</v>
+        <v>3.760598881256232</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25.90214645866646</v>
+        <v>25.75530179726812</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>25.955973768602</v>
+        <v>45.25554013396582</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.90229588559384</v>
+        <v>25.58921402988099</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>25.99278859631121</v>
+        <v>45.86635376554332</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>26.02810541349914</v>
+        <v>51.89617770777498</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>25.80291975499592</v>
+        <v>9.728414209824923</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.88636552109758</v>
+        <v>24.46039896410697</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>25.9596171956426</v>
+        <v>38.38490513912701</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>26.02631009050743</v>
+        <v>64.46402889874587</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>26.05932131391482</v>
+        <v>65.64731438797661</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>26.0906605657301</v>
+        <v>71.58840478877721</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>26.09621813593684</v>
+        <v>71.00807799814261</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>25.92117779177824</v>
+        <v>30.08190953729278</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>26.09354814835245</v>
+        <v>68.64315444725906</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>26.10554641629812</v>
+        <v>71.09014959765653</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>25.88685647984642</v>
+        <v>32.55586109942035</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>25.96851942306238</v>
+        <v>45.32189971863056</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>25.97914238454041</v>
+        <v>46.65611773909249</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>25.79862901218036</v>
+        <v>7.062153476626694</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>25.97401924938335</v>
+        <v>48.1123803409647</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>25.97435883989057</v>
+        <v>47.99654361364727</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>25.81740970008439</v>
+        <v>8.55344391934241</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>26.06951404697853</v>
+        <v>72.58572596511615</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>26.08182657286287</v>
+        <v>71.18009240383392</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>26.17114930096363</v>
+        <v>82.46310153636877</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.20220264880682</v>
+        <v>85.02271960224036</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>26.21714701976482</v>
+        <v>87.21070179608171</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>25.95219730906798</v>
+        <v>41.58270104462973</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>26.18796881110608</v>
+        <v>82.82589657583668</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>26.20540595037725</v>
+        <v>82.8938212642724</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>26.03408850850754</v>
+        <v>67.05752189564402</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>26.03682244516707</v>
+        <v>55.29420366574152</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>26.06199991861504</v>
+        <v>63.4148484817299</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>26.0867308225657</v>
+        <v>70.86523228805163</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.87210179266118</v>
+        <v>21.12282023358692</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>26.06620828887677</v>
+        <v>62.5853068297007</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>26.09052174369555</v>
+        <v>68.50060011664979</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.85958730984786</v>
+        <v>20.59159951761026</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.94878193231007</v>
+        <v>40.61402128118839</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>25.96579295211228</v>
+        <v>44.95468690069826</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>25.78447378741402</v>
+        <v>5.855020681649894</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>25.9626988359861</v>
+        <v>38.53092389484781</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.97393650057758</v>
+        <v>44.27744083953012</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>25.80823258589055</v>
+        <v>8.876359647676793</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>26.06787888396208</v>
+        <v>66.20414757878542</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>26.08956588011842</v>
+        <v>74.43330656709573</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>26.1677353904347</v>
+        <v>76.38362012941977</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>26.18841720990973</v>
+        <v>81.61742207965932</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.22132849356741</v>
+        <v>89.05159778304561</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>25.89870489243238</v>
+        <v>27.37246779745801</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>26.16953400604288</v>
+        <v>79.25464422562735</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>26.19824546668335</v>
+        <v>83.90973994796356</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>26.00096412787918</v>
+        <v>63.71180055190163</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>25.93987985455483</v>
+        <v>36.29325481130017</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>25.97218973222329</v>
+        <v>42.3309980250188</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>26.01340539138667</v>
+        <v>53.53724772068217</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>25.84606463025947</v>
+        <v>16.62282439540273</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>26.00843893379649</v>
+        <v>56.92981919434951</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>26.04126402595636</v>
+        <v>65.72037211796298</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>25.8557324171135</v>
+        <v>18.50420541019898</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>25.9377872863487</v>
+        <v>40.41340893178148</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>25.96708392694621</v>
+        <v>47.6552058990805</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>25.81363189855261</v>
+        <v>6.924803152323999</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.95300278757173</v>
+        <v>42.87430262166642</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>25.97604291644025</v>
+        <v>49.95114078716123</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.81496880016378</v>
+        <v>3.92827344235193</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>26.02412945868664</v>
+        <v>62.85754635650483</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>26.06262203912191</v>
+        <v>73.78656134648733</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>26.07380505571706</v>
+        <v>68.65368946992001</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>26.11429750383792</v>
+        <v>76.26461382915842</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>26.16683169894665</v>
+        <v>86.56796177833047</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.86084799054823</v>
+        <v>22.02476385291506</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>26.09649517854608</v>
+        <v>72.83082449778438</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>26.14731134181354</v>
+        <v>83.07350802598194</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.84575492262001</v>
+        <v>10.89293184200699</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.84980993024925</v>
+        <v>13.09951868483687</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.86183183579114</v>
+        <v>18.49275774199045</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>25.81386460125283</v>
+        <v>3.764683744296949</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>25.83756801747645</v>
+        <v>9.744157560502611</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>25.8421767137837</v>
+        <v>10.4832160372527</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.8250012418203</v>
+        <v>7.210463595274963</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>25.86842283428562</v>
+        <v>21.45066858678474</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>25.87738563930644</v>
+        <v>23.47993999411607</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.82743716118243</v>
+        <v>13.25336485020969</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.8575833807519</v>
+        <v>16.18708444065896</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.85840654593482</v>
+        <v>15.86620310228947</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>25.82880785631786</v>
+        <v>8.99991265225081</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.81921121848144</v>
+        <v>10.06130866951302</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.8407010092857</v>
+        <v>16.55648134872227</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>25.83343718756711</v>
+        <v>11.06275512859726</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.86096170364931</v>
+        <v>20.63715375997926</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.8740034234732</v>
+        <v>24.77139238857203</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>25.79335961956477</v>
+        <v>3.145658403032343</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.80722023268191</v>
+        <v>7.360377722606703</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.82890436759278</v>
+        <v>11.20532231905517</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.79795811306701</v>
+        <v>3.629104136706207</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.84564816535418</v>
+        <v>17.14432002959802</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.84696005594594</v>
+        <v>16.58117317225191</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.86689608726686</v>
+        <v>21.54091507466465</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.87225617361171</v>
+        <v>21.40847029697404</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>25.80455412688943</v>
+        <v>3.166681628544392</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.87385309288737</v>
+        <v>21.89827500173205</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.87621318051508</v>
+        <v>23.40547830903404</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.81869610443138</v>
+        <v>5.185896263078792</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.90940220598217</v>
+        <v>32.44913443490759</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.90855107741865</v>
+        <v>31.93200552714685</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>25.90390784973911</v>
+        <v>30.35996036877079</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>25.92667933983427</v>
+        <v>37.59457628619607</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>25.92854939846526</v>
+        <v>37.71999176319393</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>25.84064254551641</v>
+        <v>13.35179218422164</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.88705748909961</v>
+        <v>32.498678916807</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.89584333299053</v>
+        <v>34.46186323884655</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.82865924406516</v>
+        <v>14.22145763977695</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.88385438364939</v>
+        <v>25.79042103747855</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.89463555739014</v>
+        <v>29.21746502452263</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>25.78609172246562</v>
+        <v>3.019635771862593</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.87633787927673</v>
+        <v>24.95255493067257</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>25.90107967609793</v>
+        <v>29.73581222778424</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>25.80101789612239</v>
+        <v>3.306525171677372</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.92691004763843</v>
+        <v>40.65329922784653</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.83285761528034</v>
+        <v>7.160218097520797</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.85234454003658</v>
+        <v>16.0784622046291</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.86403687655868</v>
+        <v>19.95867450792171</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.80359216673998</v>
+        <v>3.55105845748006</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.86889578159332</v>
+        <v>21.09038691097664</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.87839734198556</v>
+        <v>22.95330647283316</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>25.81811838930414</v>
+        <v>8.024876010181174</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>25.9072444038615</v>
+        <v>33.48032319019428</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>25.91592739533448</v>
+        <v>35.00478767913064</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>25.90649418307286</v>
+        <v>33.8453012101658</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>25.92375280454608</v>
+        <v>35.74881817877078</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>25.93825700104697</v>
+        <v>42.37937808629628</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>25.80954266001849</v>
+        <v>6.019987554251603</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.86625687941151</v>
+        <v>20.99840620317783</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.88430405643034</v>
+        <v>23.92098297750042</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.81556717836288</v>
+        <v>9.422929935994595</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.86865961799867</v>
+        <v>22.28175215731804</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.88949806436625</v>
+        <v>28.9959531663383</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>25.78055743420613</v>
+        <v>3.126660110487446</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.86454433921944</v>
+        <v>19.89663683817174</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>25.90098973032281</v>
+        <v>29.96798453764747</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>25.79779867417629</v>
+        <v>5.261321408498855</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>25.92039091550752</v>
+        <v>32.13401352231665</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>25.83317182031243</v>
+        <v>5.254660607824476</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.85025333242473</v>
+        <v>12.27006955852952</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>25.86368269205939</v>
+        <v>17.94044988852849</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>25.8188780760571</v>
+        <v>2.220837862482817</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.86634225421516</v>
+        <v>13.91359767382625</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.87883506509384</v>
+        <v>24.39358207446312</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>25.82238137236936</v>
+        <v>3.019348763823672</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.8910851560284</v>
+        <v>26.48295002900874</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>25.90569069321721</v>
+        <v>33.48604232705931</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>25.88360848684682</v>
+        <v>27.11908665101828</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.89347731920603</v>
+        <v>29.96719027992314</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>25.90937474926642</v>
+        <v>36.1554497211222</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>25.8160869419882</v>
+        <v>4.156597620168647</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.86684370975996</v>
+        <v>20.4592258005513</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.88650078017869</v>
+        <v>27.84676139393671</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>25.81635050637366</v>
+        <v>6.523329434426486</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.86070462161579</v>
+        <v>19.40268047306778</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.88190801859716</v>
+        <v>24.84584819798162</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>25.79642813871297</v>
+        <v>2.746065038436846</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.8511729658718</v>
+        <v>17.18195842108044</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.88605652661502</v>
+        <v>26.5741278414502</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.79821864790196</v>
+        <v>2.463011977335867</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.88648828877811</v>
+        <v>25.84545420314432</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.88200669939835</v>
+        <v>19.68088929384787</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.82731739684786</v>
+        <v>17.10156379211931</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.87759511549094</v>
+        <v>28.51343428172016</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.8996907497573</v>
+        <v>30.77805021775479</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.7918922740352</v>
+        <v>7.129141421730779</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.81597977399084</v>
+        <v>13.17051498515058</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.84547860686777</v>
+        <v>18.95183999873142</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>25.8415004187726</v>
+        <v>13.62614297543234</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>25.87034980459582</v>
+        <v>24.88469874070012</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.90615241915676</v>
+        <v>29.73446474920832</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.7768156697391</v>
+        <v>3.409842363176143</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.80974512773599</v>
+        <v>8.280156822154861</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>25.83448630051429</v>
+        <v>13.20932382611122</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25.78785749183609</v>
+        <v>5.278419485621516</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.87165160733205</v>
+        <v>21.62930413916902</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>25.92602132343157</v>
+        <v>34.67754829546023</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.87088050958055</v>
+        <v>22.2884195640233</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.9353551349686</v>
+        <v>34.82438420380194</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.98653238940877</v>
+        <v>39.14211476439624</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>25.78096893366907</v>
+        <v>8.203618516234705</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>25.84115806334757</v>
+        <v>18.83977734452574</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>25.90170807580717</v>
+        <v>27.99919269592733</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>25.96134056085712</v>
+        <v>47.76997112555215</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>25.95611434961096</v>
+        <v>39.8426663783395</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>25.97872658861076</v>
+        <v>49.34440187147504</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>25.99578216576829</v>
+        <v>50.6278868146363</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>25.83539708424257</v>
+        <v>12.79751707482559</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>25.96415807657644</v>
+        <v>44.80468097557318</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>25.97941458439899</v>
+        <v>48.35535540242789</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>25.85819058285253</v>
+        <v>23.67729304070269</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>25.92708682382535</v>
+        <v>34.22310220505949</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>25.94807430417721</v>
+        <v>40.00536662490902</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>25.7887076649243</v>
+        <v>5.024567911495005</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>25.92628912632399</v>
+        <v>35.43288327661178</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>25.94545531183989</v>
+        <v>39.94618035149868</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>25.81796611333345</v>
+        <v>10.53726079120874</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>26.00669451850615</v>
+        <v>55.87565565701888</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>26.03594735485017</v>
+        <v>59.44803801290133</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>26.08486106557843</v>
+        <v>63.69412292129935</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>26.10496544897832</v>
+        <v>70.58120199242157</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.14375258994379</v>
+        <v>74.88609674801222</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>25.88614514449241</v>
+        <v>28.13938081265077</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>26.08159781523153</v>
+        <v>64.5505641311951</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.10556621887094</v>
+        <v>66.95957478686377</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>25.96951636763868</v>
+        <v>48.82490304160675</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>25.93260585369924</v>
+        <v>32.85977628763609</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>25.94914597733363</v>
+        <v>38.93425255547254</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>25.98508707829486</v>
+        <v>47.62449645311648</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>25.79094025444195</v>
+        <v>9.059292979625148</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>25.93499278646457</v>
+        <v>37.32233700565337</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>25.96443161649382</v>
+        <v>44.19773147296624</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>25.83780667372291</v>
+        <v>16.61506439610616</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>25.90993969853783</v>
+        <v>31.29707794636641</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>25.93899824459217</v>
+        <v>40.41346584085264</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>25.77836716314333</v>
+        <v>3.713655000434517</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>25.91540329861039</v>
+        <v>31.28436174315279</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>25.94554248280923</v>
+        <v>38.2150301341865</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>25.81130028834594</v>
+        <v>9.61330530364479</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>26.00332952803091</v>
+        <v>50.45854243007135</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>26.04352113699193</v>
+        <v>63.30536040284413</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>26.07738915595262</v>
+        <v>57.92135235719613</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>26.08826527162661</v>
+        <v>62.50823441398261</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>26.14450804803199</v>
+        <v>76.73169294751669</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>25.83635615385789</v>
+        <v>18.40059159486668</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>26.05935663092642</v>
+        <v>57.40164688099208</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26.09695961274804</v>
+        <v>64.71532589630947</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>25.93503148379762</v>
+        <v>41.7222125567416</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>25.85929149911808</v>
+        <v>20.14065174195477</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>25.87520411104372</v>
+        <v>25.13324910434255</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>25.92025834584773</v>
+        <v>31.59208268822008</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>25.78708134368723</v>
+        <v>6.163806861337537</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>25.89836952816176</v>
+        <v>24.88632556664092</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>25.92735631748661</v>
+        <v>37.5912669227418</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>25.8325669508309</v>
+        <v>11.19893295450009</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>25.90002205574994</v>
+        <v>30.55085753576794</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>25.93138676209582</v>
+        <v>39.37371634992509</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>25.79676797089997</v>
+        <v>3.326533381167803</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>25.9016584810473</v>
+        <v>30.21261973731962</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>25.93274923789781</v>
+        <v>38.24958090289203</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>25.80776853929943</v>
+        <v>4.094114861875369</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>25.96091120878252</v>
+        <v>45.73218144691354</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>26.00757525226363</v>
+        <v>60.51210486225581</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>25.99889630890477</v>
+        <v>49.84144523109947</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>26.01871983933189</v>
+        <v>55.09770179192243</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>26.08618613957015</v>
+        <v>71.51314419888696</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.81277235619158</v>
+        <v>10.44434331922423</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>26.00004307830931</v>
+        <v>52.2258871165546</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.04924792656291</v>
+        <v>63.25638970154253</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.87514644383629</v>
+        <v>23.40949036736124</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.88192190708054</v>
+        <v>16.67539634762749</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>25.89810762630977</v>
+        <v>36.48929306841691</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>25.87122547798315</v>
+        <v>8.871806715221776</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.90844394471299</v>
+        <v>37.53429177513814</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>25.91336531140502</v>
+        <v>41.40364606365868</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>25.8597908514839</v>
+        <v>13.39565459456281</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>25.91390980989955</v>
+        <v>57.0256628804905</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.92527309546099</v>
+        <v>59.65774814544488</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.88755974938379</v>
+        <v>17.37340817551016</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>25.90906364492312</v>
+        <v>20.76746667246702</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.90897240689395</v>
+        <v>20.68570987843979</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.88344313916591</v>
+        <v>34.33170274890813</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.87449023785145</v>
+        <v>16.49637470310735</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.9147767273859</v>
+        <v>43.34040761181703</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.87562528670707</v>
+        <v>18.31841795657755</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.89101542679012</v>
+        <v>28.8304420280011</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>25.90028388712249</v>
+        <v>39.53951710473552</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>25.87204807257934</v>
+        <v>30.81701707993765</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.88959427714439</v>
+        <v>36.27713388811741</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.90022772521376</v>
+        <v>38.44390893257167</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.83427536756078</v>
+        <v>5.325533333791352</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.88554983678702</v>
+        <v>22.79097109399746</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.87929989003132</v>
+        <v>31.71109660055399</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>25.90134230190728</v>
+        <v>34.96634037488263</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>25.9078823096419</v>
+        <v>38.0623516807033</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>25.86848032857904</v>
+        <v>8.033719155340719</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>25.94245959597312</v>
+        <v>55.91614687206129</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>25.94096779177769</v>
+        <v>54.30549225070608</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.85916313160459</v>
+        <v>10.22537483556026</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>25.95318920393395</v>
+        <v>60.44896945385989</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>25.95271739786801</v>
+        <v>58.90479476968504</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>25.96222920564517</v>
+        <v>58.02180906097273</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>25.97370230138424</v>
+        <v>61.35261598839827</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>25.97145006847809</v>
+        <v>60.91035143810626</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>25.91296520520357</v>
+        <v>59.16365147599602</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>25.94469590345527</v>
+        <v>67.7640601693934</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>25.97088818456377</v>
+        <v>71.10785143148634</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>25.88139781816984</v>
+        <v>29.69960012444905</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>25.92011289230499</v>
+        <v>38.98573837034056</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>25.91981072587657</v>
+        <v>38.25360172587699</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>25.87544381184044</v>
+        <v>30.69659865623012</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.95023926532496</v>
+        <v>52.28845440638307</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>25.95523987883449</v>
+        <v>48.89556809084933</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>25.84478956914503</v>
+        <v>6.732922187499486</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.95824473602231</v>
+        <v>56.63641505279493</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.86495682641688</v>
+        <v>13.98538877332311</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>25.88835093945818</v>
+        <v>26.29689424014898</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.89824450665794</v>
+        <v>32.93744700169693</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>25.86414645762339</v>
+        <v>5.717998568949</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.93627014428467</v>
+        <v>50.17083622468422</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>25.93970875800655</v>
+        <v>53.74010384055319</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>25.85582424758442</v>
+        <v>8.600404665451286</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>25.950394474993</v>
+        <v>58.56154391580432</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>25.95558557530056</v>
+        <v>64.77213226914789</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>25.96372637010119</v>
+        <v>70.23049503571178</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>25.97187769419343</v>
+        <v>70.42231071475213</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>25.97765844455868</v>
+        <v>72.4231832016735</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>25.88872009966206</v>
+        <v>12.84223102933759</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>25.93021573193544</v>
+        <v>40.30300615302565</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>25.9610562738379</v>
+        <v>54.13714059455637</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>25.86888891674683</v>
+        <v>23.24960505506224</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>25.90871296869668</v>
+        <v>35.91470276511032</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>25.91413574069481</v>
+        <v>37.44743372510317</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>25.86884254981674</v>
+        <v>31.24224714033043</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.94136220137262</v>
+        <v>46.35520072802208</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>25.95439610322976</v>
+        <v>52.32583348257005</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>25.84147847204756</v>
+        <v>8.249720942654314</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>25.95550486726808</v>
+        <v>52.3192693085646</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>25.85934259267008</v>
+        <v>6.51943887546485</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>25.87992737379328</v>
+        <v>17.7138021687982</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.893392257478</v>
+        <v>28.74208231945553</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>25.87115034429434</v>
+        <v>6.855837839623085</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>25.92795803927586</v>
+        <v>54.3970387107965</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>25.93632949387545</v>
+        <v>56.00576580595509</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>25.85697890114796</v>
+        <v>3.98710529482663</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>25.93298364170559</v>
+        <v>61.51368996940401</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>25.94442846349342</v>
+        <v>62.79382851634767</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>25.9329103711019</v>
+        <v>65.27679765939669</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>25.94166639505361</v>
+        <v>65.82688071662739</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>25.95095678085594</v>
+        <v>72.34595945500612</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>25.87583153782342</v>
+        <v>11.22579864295379</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>25.91685082270797</v>
+        <v>27.94517925020725</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.94996807826028</v>
+        <v>58.59653653217829</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>25.86473858051207</v>
+        <v>15.98488914561522</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.89917604334137</v>
+        <v>32.27345362359581</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>25.91070913828997</v>
+        <v>37.73748269580752</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>25.87778563869304</v>
+        <v>30.83487862918026</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>25.93005161827052</v>
+        <v>49.4863090409115</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>25.94797668995153</v>
+        <v>54.68229265831837</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.84444121743794</v>
+        <v>3.528887577535251</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.93156153009551</v>
+        <v>51.40952207423867</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>25.90704182958481</v>
+        <v>27.00170093230793</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>25.87449833619851</v>
+        <v>23.19645204309218</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.91267986959958</v>
+        <v>38.43822318959594</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.92386557475568</v>
+        <v>42.38985787929069</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.85140301240939</v>
+        <v>10.83965216572317</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.86697958669933</v>
+        <v>16.86649907687485</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.89754240629372</v>
+        <v>26.67930833571164</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>25.87638285672147</v>
+        <v>14.85517095590989</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>25.88425424135282</v>
+        <v>23.30030148295228</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>25.91249351630555</v>
+        <v>36.35943695761462</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.86801549189826</v>
+        <v>30.31821372619564</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.8943940810735</v>
+        <v>35.01699213872025</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>25.90368002030035</v>
+        <v>39.39483461039481</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>25.82814525863964</v>
+        <v>5.037264988661978</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.89903982743106</v>
+        <v>26.58036237009604</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>25.9341487074089</v>
+        <v>48.59480279190605</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.90642425996482</v>
+        <v>25.92774642106702</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>25.95611536832419</v>
+        <v>49.02364096553649</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>25.98132463624315</v>
+        <v>57.35106408996734</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>25.84778624856382</v>
+        <v>8.705383098984054</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>25.87976967121253</v>
+        <v>23.7615216742449</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>25.93338599983975</v>
+        <v>38.62111466660647</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>25.97027132258561</v>
+        <v>58.44106270284787</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>25.99229838763314</v>
+        <v>61.47156077914607</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>26.0045456906746</v>
+        <v>65.157572303552</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>26.00704972501915</v>
+        <v>62.02467883139278</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.91335982770012</v>
+        <v>34.68944191272544</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>26.00059851345486</v>
+        <v>61.40252038430674</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>26.01181121450828</v>
+        <v>65.62530927508261</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.88947351352199</v>
+        <v>34.36244317153675</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>25.93026465229081</v>
+        <v>39.82706939137606</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>25.93887182344706</v>
+        <v>42.20573363189536</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>25.87843000732041</v>
+        <v>31.96757225751755</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>25.98277082296769</v>
+        <v>60.59398970872616</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>25.97889366908215</v>
+        <v>54.24028184292651</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>25.85004168615496</v>
+        <v>8.205769450680876</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>26.00285193184059</v>
+        <v>69.18519797330593</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>26.01098926223101</v>
+        <v>66.5129650896877</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>26.07650634398197</v>
+        <v>83.27265056381125</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>26.08547394893381</v>
+        <v>83.47682321525515</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>26.09733762257423</v>
+        <v>84.46703820599926</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>25.94455805165214</v>
+        <v>45.06650008211076</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>26.06887647918296</v>
+        <v>79.03341386595581</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>26.08633117044526</v>
+        <v>80.28030832220033</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>25.97645631635364</v>
+        <v>65.34604018298519</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>25.97880130888213</v>
+        <v>53.49875748469936</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>25.9872914871179</v>
+        <v>57.96798692784492</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>26.00212100871344</v>
+        <v>61.81076786766388</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.88298285558962</v>
+        <v>27.39717516215367</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>25.98441455315137</v>
+        <v>56.7413539230986</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>26.00335773037036</v>
+        <v>63.79835356829601</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.873079080034</v>
+        <v>26.04417536278971</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.9189011243228</v>
+        <v>38.34967431340314</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>25.93157972059754</v>
+        <v>43.28950938455571</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.86925622255846</v>
+        <v>32.88569913959408</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.97524087899258</v>
+        <v>56.93278666175218</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>25.97912296930822</v>
+        <v>58.51747617689465</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>25.84539974611973</v>
+        <v>12.00614162156071</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>26.0034268480398</v>
+        <v>68.58681581041606</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>26.01766224440427</v>
+        <v>74.51645845200338</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>26.0755459137881</v>
+        <v>83.3869980911567</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>26.07801221074041</v>
+        <v>81.81387488262045</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>26.10145344907504</v>
+        <v>88.48492980613294</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>25.91170818418462</v>
+        <v>32.77135302401766</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>26.05862418558794</v>
+        <v>75.86993297906656</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.08305678432614</v>
+        <v>83.33093345869041</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>25.95772279762876</v>
+        <v>60.99911888156029</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.91816027813559</v>
+        <v>32.38478665396201</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>25.93389209191008</v>
+        <v>37.91352030802199</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>25.96021193535645</v>
+        <v>47.06870913306515</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.86453315026865</v>
+        <v>17.5359182536054</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>25.9516271749967</v>
+        <v>55.90284095403955</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.97587252240973</v>
+        <v>62.16974952875982</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.87016810424072</v>
+        <v>19.6659441450075</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>25.9130659398025</v>
+        <v>37.77251423438108</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.93367847074423</v>
+        <v>44.98281490028947</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>25.88204716108966</v>
+        <v>33.19472018703323</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>25.9646525912112</v>
+        <v>58.74623767918914</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.97677945475631</v>
+        <v>62.91472077085446</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>25.84955598743424</v>
+        <v>4.14989707396677</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>25.97667333235417</v>
+        <v>67.2020618839324</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>26.0017649147911</v>
+        <v>72.20029780244811</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>26.01442262534405</v>
+        <v>79.00908054863989</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>26.03340401681193</v>
+        <v>79.9788532232641</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>26.06961033983507</v>
+        <v>90.8094749099165</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>25.88357356651338</v>
+        <v>23.85715287485414</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>26.01470617637225</v>
+        <v>73.38715867577703</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>26.05261373956976</v>
+        <v>83.79028769467453</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test1/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.16022030346879</v>
+        <v>17.1602203034688</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.91651695905529</v>
+        <v>16.91651695905526</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.11001872716017</v>
+        <v>32.11001872716022</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.896192898549973</v>
+        <v>2.896192898549867</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.3925043510894</v>
+        <v>24.39250435108968</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.60331287477102</v>
+        <v>29.6033128747709</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.23782627744751</v>
+        <v>7.237826277447446</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>47.12171514839113</v>
+        <v>47.12171514839116</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>48.48085601886194</v>
+        <v>48.48085601886208</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16.27686176814118</v>
+        <v>16.2768617681411</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19.57033078350492</v>
+        <v>19.57033078350481</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.47933826966722</v>
+        <v>20.47933826966721</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.5702175931548</v>
+        <v>19.57021759315487</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22.10640212992968</v>
+        <v>22.10640212992983</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>54.09991151149337</v>
+        <v>54.09991151149353</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.99631938437702</v>
+        <v>16.99631938437699</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.70187443807525</v>
+        <v>27.70187443807529</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.13135812653032</v>
+        <v>35.13135812653041</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.237260389238031</v>
+        <v>5.237260389238049</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12.78831655064471</v>
+        <v>12.78831655064456</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15.56302438166239</v>
+        <v>15.56302438166248</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.057424405170213</v>
+        <v>3.057424405169957</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17.47054782820975</v>
+        <v>17.47054782820941</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25.95984403316407</v>
+        <v>25.95984403316413</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.69004710521307</v>
+        <v>30.69004710521309</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.91865277274617</v>
+        <v>31.91865277274612</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.607226392237958</v>
+        <v>1.607226392237742</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>36.76817877943851</v>
+        <v>36.76817877943839</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>35.60060572203328</v>
+        <v>35.60060572203312</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.684525118021579</v>
+        <v>7.684525118021476</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>49.85081004322969</v>
+        <v>49.85081004322987</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>48.4976611244399</v>
+        <v>48.49766112444007</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>45.8952303495084</v>
+        <v>45.89523034950855</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>48.99500115182701</v>
+        <v>48.99500115182734</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>51.86729048063717</v>
+        <v>51.86729048063725</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>43.39420889640439</v>
+        <v>43.39420889640453</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>57.09314446594951</v>
+        <v>57.09314446594965</v>
       </c>
     </row>
     <row r="39">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>24.33174157356251</v>
+        <v>24.33174157356249</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.21716448034599</v>
+        <v>38.21716448034604</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>37.71071844012211</v>
+        <v>37.71071844012201</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4.782411920998701</v>
+        <v>4.782411920998953</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.00409867622182</v>
+        <v>36.00409867622155</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.97221735643874</v>
+        <v>36.9722173564389</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4.836104549336937</v>
+        <v>4.836104549337033</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>54.05005808554348</v>
+        <v>54.05005808554318</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6.604672649859751</v>
+        <v>6.604672649859868</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>21.48213556109821</v>
+        <v>21.48213556109799</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26.04977637654252</v>
+        <v>26.04977637654242</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.620874398484411</v>
+        <v>1.620874398484503</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.81353046855347</v>
+        <v>32.8135304685533</v>
       </c>
     </row>
     <row r="53">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>7.648224830414662</v>
+        <v>7.648224830414325</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>48.16448155999</v>
+        <v>48.16448155999005</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>52.89545631117211</v>
+        <v>52.89545631117201</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>59.63861862913403</v>
+        <v>59.63861862913444</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>59.39529741563719</v>
+        <v>59.39529741563707</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>64.26477151643145</v>
+        <v>64.26477151643124</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>11.52191714191322</v>
+        <v>11.52191714191318</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>34.89996391061663</v>
+        <v>34.89996391061673</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>46.71436103397525</v>
+        <v>46.71436103397552</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>13.04184351052214</v>
+        <v>13.04184351052204</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.52153432163371</v>
+        <v>32.52153432163375</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.37203770408237</v>
+        <v>35.37203770408243</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4.634122099346115</v>
+        <v>4.634122099346044</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.19213796741848</v>
+        <v>26.19213796741871</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>37.34219139979092</v>
+        <v>37.34219139979079</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.536514575806056</v>
+        <v>4.536514575805985</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>46.25758987175557</v>
+        <v>46.25758987175524</v>
       </c>
     </row>
     <row r="71">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>16.28172419448275</v>
+        <v>16.28172419448283</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>23.83362178787398</v>
+        <v>23.83362178787399</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.8312556343881781</v>
+        <v>0.8312556343881141</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>32.23841557056732</v>
+        <v>32.23841557056748</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>38.29530369801841</v>
+        <v>38.2953036980184</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1.411163130016305</v>
+        <v>1.411163130016295</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>46.27717129693062</v>
+        <v>46.27717129693064</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>51.73900761363599</v>
+        <v>51.73900761363613</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>50.15948038782238</v>
+        <v>50.1594803878222</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>51.61789383962614</v>
+        <v>51.61789383962585</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>59.86549257549563</v>
+        <v>59.86549257549565</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>9.446504172798733</v>
+        <v>9.446504172798544</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>24.37639638442461</v>
+        <v>24.37639638442434</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>51.46471180205563</v>
+        <v>51.46471180205541</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>9.014730355532691</v>
+        <v>9.014730355532752</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.88180083123097</v>
+        <v>27.88180083123092</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.20816523504485</v>
+        <v>36.20816523504497</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4.99745790006083</v>
+        <v>4.997457900060802</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>27.8586360772143</v>
+        <v>27.85863607721421</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>41.59473933761567</v>
+        <v>41.59473933761569</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.9550935603668655</v>
+        <v>0.9550935603669082</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>41.64548590446977</v>
+        <v>41.64548590446968</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>23.00070887593254</v>
+        <v>23.00070887593258</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>19.50378039684914</v>
+        <v>19.50378039684909</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.2938459565069</v>
+        <v>33.29384595650673</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.50157875657338</v>
+        <v>36.50157875657333</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.794854697315973</v>
+        <v>6.794854697315888</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>14.22080614926147</v>
+        <v>14.22080614926162</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>22.27219052700963</v>
+        <v>22.27219052700964</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>13.54686732428153</v>
+        <v>13.54686732428147</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>22.74688428829567</v>
+        <v>22.74688428829573</v>
       </c>
     </row>
     <row r="103">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3.7690625970939</v>
+        <v>3.76906259709375</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>10.25811124550107</v>
+        <v>10.25811124550118</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>17.45724169372294</v>
+        <v>17.45724169372289</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2.381624268835111</v>
+        <v>2.381624268835125</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>19.7389917101875</v>
+        <v>19.73899171018761</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.42916578694989</v>
+        <v>39.42916578695002</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>21.6869064713393</v>
+        <v>21.68690647133924</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.63307528550781</v>
+        <v>41.63307528550773</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>49.4708357170115</v>
+        <v>49.47083571701165</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4.752802133474432</v>
+        <v>4.752802133474574</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>19.124818586911</v>
+        <v>19.12481858691099</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>32.27637328321639</v>
+        <v>32.27637328321651</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>59.13416358045306</v>
+        <v>59.13416358045339</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>60.5046050391895</v>
+        <v>60.50460503918931</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>65.44844673900542</v>
+        <v>65.44844673900539</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>63.92039824592798</v>
+        <v>63.92039824592835</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>26.31362922850533</v>
+        <v>26.31362922850532</v>
       </c>
     </row>
     <row r="121">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>65.06109619634856</v>
+        <v>65.06109619634806</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>30.57672671071786</v>
+        <v>30.57672671071798</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.80011655688158</v>
+        <v>41.80011655688166</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>44.78881232580743</v>
+        <v>44.78881232580746</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6.302925812243767</v>
+        <v>6.3029258122437</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>46.43274588265515</v>
+        <v>46.43274588265503</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>46.57818163499712</v>
+        <v>46.57818163499697</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>8.34876466790654</v>
+        <v>8.348764667906554</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>69.43892702379159</v>
+        <v>69.43892702379158</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.7780380633633</v>
+        <v>67.77803806336338</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>82.08856643498308</v>
+        <v>82.08856643498316</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>84.16510041840195</v>
+        <v>84.16510041840223</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>85.81385556715539</v>
+        <v>85.81385556715531</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>37.97424589489187</v>
+        <v>37.97424589489185</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>79.65226668448339</v>
+        <v>79.65226668448324</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>80.27406083752808</v>
+        <v>80.27406083752831</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>61.31166190598537</v>
+        <v>61.31166190598533</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>48.04923263746132</v>
+        <v>48.04923263746112</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>55.47219776458401</v>
+        <v>55.47219776458397</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>63.22721284602068</v>
+        <v>63.22721284602055</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>11.92476130420005</v>
+        <v>11.92476130419982</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>53.62169074742274</v>
+        <v>53.62169074742278</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>61.71898860392808</v>
+        <v>61.71898860392794</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>15.37921942239159</v>
+        <v>15.37921942239143</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.50615651521115</v>
+        <v>36.50615651521121</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>43.35637357478831</v>
+        <v>43.35637357478836</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>5.122240231300271</v>
+        <v>5.122240231300449</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.45615794180485</v>
+        <v>38.45615794180478</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>47.29398156804217</v>
+        <v>47.29398156804226</v>
       </c>
     </row>
     <row r="151">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>63.18501867512192</v>
+        <v>63.18501867512225</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>73.08401595290145</v>
+        <v>73.08401595290134</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>77.46122640494998</v>
+        <v>77.46122640495025</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>80.12894837617198</v>
+        <v>80.12894837617185</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>89.49111931703861</v>
+        <v>89.49111931703858</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>16.82972363747562</v>
+        <v>16.82972363747563</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>72.47655203638125</v>
+        <v>72.47655203638121</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>82.65402096367851</v>
+        <v>82.65402096367843</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>59.73490249963881</v>
+        <v>59.73490249963876</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.99104613937463</v>
+        <v>28.99104613937466</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.70109143532085</v>
+        <v>33.70109143532084</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.36027411765072</v>
+        <v>45.36027411765073</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>8.513829182635707</v>
+        <v>8.51382918263575</v>
       </c>
     </row>
     <row r="165">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>60.22866173182439</v>
+        <v>60.22866173182449</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>12.19980158242641</v>
+        <v>12.19980158242646</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.31539269801116</v>
+        <v>35.31539269801115</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.77589660949769</v>
+        <v>45.77589660949791</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>5.629868949348367</v>
+        <v>5.629868949348463</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>39.53885744913917</v>
+        <v>39.53885744913909</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50.54691408793065</v>
+        <v>50.54691408793055</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1.615675476674397</v>
+        <v>1.615675476674447</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>57.98782801925192</v>
+        <v>57.98782801925196</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>72.73586398444569</v>
+        <v>72.73586398444557</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>64.84250059414921</v>
+        <v>64.84250059414909</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>71.9514905397008</v>
+        <v>71.95149053970087</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>88.8326816427203</v>
+        <v>88.83268164272019</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>11.10283008893772</v>
+        <v>11.10283008893766</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>64.18852249279614</v>
+        <v>64.18852249279593</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>80.92287683643066</v>
+        <v>80.92287683643043</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>10.86016508803937</v>
+        <v>10.8601650880393</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>11.51187162127258</v>
+        <v>11.51187162127255</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.01450739696752</v>
+        <v>24.01450739696743</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.639405099956587</v>
+        <v>0.6394050999566225</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>18.7565742137256</v>
+        <v>18.75657421372557</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>20.81882624517976</v>
+        <v>20.81882624517979</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>5.333076031046478</v>
+        <v>5.333076031046541</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36.49399221722425</v>
+        <v>36.49399221722419</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>37.89962590449068</v>
+        <v>37.89962590449056</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>13.90398339355626</v>
+        <v>13.90398339355636</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>16.92456036424964</v>
+        <v>16.92456036424969</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>16.0438341153444</v>
+        <v>16.04383411534443</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>14.9480749607479</v>
+        <v>14.94807496074804</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>12.19406821501693</v>
+        <v>12.19406821501707</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>33.24288955275497</v>
+        <v>33.24288955275495</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>7.970000912660318</v>
+        <v>7.970000912660304</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>23.9231559826881</v>
+        <v>23.92315598268822</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>27.32985281275393</v>
+        <v>27.32985281275395</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-0.9789006095985897</v>
+        <v>-0.9789006095986394</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>8.293273041992908</v>
+        <v>8.29327304199305</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.19066790044008</v>
+        <v>13.19066790044013</v>
       </c>
     </row>
     <row r="203">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>23.55576688447189</v>
+        <v>23.55576688447169</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>19.10765576914583</v>
+        <v>19.1076557691457</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.02051609982254</v>
+        <v>23.02051609982226</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26.297666378539</v>
+        <v>26.29766637853884</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.2261130507425584</v>
+        <v>0.2261130507425833</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.61727564460027</v>
+        <v>28.61727564460046</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.97490043801719</v>
+        <v>29.97490043801701</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>4.975243117409189</v>
+        <v>4.975243117409182</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>44.7594513238674</v>
+        <v>44.75945132386746</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>43.84978219542185</v>
+        <v>43.8497821954219</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>38.15761388626117</v>
+        <v>38.15761388626105</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>47.29756393014286</v>
+        <v>47.29756393014277</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>46.2953912180938</v>
+        <v>46.29539121809369</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>23.78968663877981</v>
+        <v>23.78968663877967</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>40.63769701437226</v>
+        <v>40.63769701437212</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>43.9515067282661</v>
+        <v>43.95150672826605</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>18.2710962804738</v>
+        <v>18.27109628047384</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.08835018943548</v>
+        <v>29.08835018943537</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.12261570970775</v>
+        <v>32.12261570970771</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-0.6241813164929795</v>
+        <v>-0.6241813164928942</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>27.76127590450006</v>
+        <v>27.7612759044999</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>32.53321933785445</v>
+        <v>32.53321933785444</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1.453546516547668</v>
+        <v>1.453546516547569</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>47.45753954060055</v>
+        <v>47.45753954060045</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>4.049287286847033</v>
+        <v>4.049287286846916</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>15.93924851748726</v>
+        <v>15.93924851748724</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>24.6181511114601</v>
+        <v>24.61815111146003</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-0.2122646714809164</v>
+        <v>-0.2122646714808418</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.14391655954923</v>
+        <v>29.14391655954926</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>30.06514038295136</v>
+        <v>30.06514038295153</v>
       </c>
     </row>
     <row r="234">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>45.02202930336674</v>
+        <v>45.02202930336689</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>47.75253143094324</v>
+        <v>47.75253143094316</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>46.98986376021538</v>
+        <v>46.98986376021558</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>50.53027430402869</v>
+        <v>50.53027430402844</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>57.28359223590173</v>
+        <v>57.28359223590194</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>1.824297523717426</v>
+        <v>1.824297523717508</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>23.44841759906736</v>
+        <v>23.4484175990675</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>31.87571735013459</v>
+        <v>31.87571735013453</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>10.28550911530387</v>
+        <v>10.2855091153038</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>26.63327366601764</v>
+        <v>26.63327366601777</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.63050437228576</v>
+        <v>31.63050437228573</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-0.7294700696564433</v>
+        <v>-0.7294700696564966</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>26.15343600925613</v>
+        <v>26.15343600925621</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>33.49891757229032</v>
+        <v>33.49891757229028</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>2.636107592919899</v>
+        <v>2.636107592919849</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>43.7276279985198</v>
+        <v>43.72762799851971</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>1.630634999506061</v>
+        <v>1.630634999506015</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>10.3061367779284</v>
+        <v>10.30613677792837</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.21295937345656</v>
+        <v>22.21295937345657</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-1.228010390560524</v>
+        <v>-1.228010390560588</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>24.757604194997</v>
+        <v>24.75760419499705</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>33.05761592438978</v>
+        <v>33.05761592438979</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-0.5599525654424511</v>
+        <v>-0.5599525654425115</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>40.37676266968875</v>
+        <v>40.37676266968861</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>46.7331399377984</v>
+        <v>46.73313993779832</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>42.65930966059993</v>
+        <v>42.65930966059965</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>46.72245038616466</v>
+        <v>46.72245038616478</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>52.60306719811585</v>
+        <v>52.60306719811591</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-1.080236803869873</v>
+        <v>-1.080236803869951</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>19.88736714296133</v>
+        <v>19.88736714296124</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>36.81651568710296</v>
+        <v>36.81651568710294</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>5.422517478677726</v>
+        <v>5.422517478677694</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.45045673854762</v>
+        <v>24.4504567385477</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.97589097256207</v>
+        <v>28.97589097256208</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-1.50689954011489</v>
+        <v>-1.506899540115029</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>22.40175802138545</v>
+        <v>22.40175802138542</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.79202318494711</v>
+        <v>29.79202318494707</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-0.6237000573611731</v>
+        <v>-0.6237000573612299</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.49990535633721</v>
+        <v>36.49990535633724</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.08486362812871</v>
+        <v>26.08486362812862</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.63755891596311</v>
+        <v>19.63755891596313</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>34.46809758853918</v>
+        <v>34.46809758853902</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.30132241895203</v>
+        <v>37.30132241895206</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>7.946244254768178</v>
+        <v>7.946244254768139</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>17.1698462830005</v>
+        <v>17.16984628300033</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.06613454424435</v>
+        <v>25.06613454424421</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>12.05945212371614</v>
+        <v>12.05945212371624</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.36952411601007</v>
+        <v>26.36952411601017</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.74747736053509</v>
+        <v>34.74747736053506</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-0.8429662883420477</v>
+        <v>-0.84296628834214</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>8.310494048928486</v>
+        <v>8.31049404892843</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>17.11344539965616</v>
+        <v>17.1134453996562</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>2.697666117685856</v>
+        <v>2.697666117685817</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.93168773085416</v>
+        <v>27.93168773085415</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>47.34252735211067</v>
+        <v>47.34252735211084</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.24150475550697</v>
+        <v>26.24150475550691</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>42.84734600160498</v>
+        <v>42.84734600160491</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>49.03839040187209</v>
+        <v>49.03839040187211</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>7.779246955465364</v>
+        <v>7.779246955465442</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.80087213407391</v>
+        <v>22.80087213407396</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>36.12849253805335</v>
+        <v>36.12849253805355</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>54.75238336984292</v>
+        <v>54.75238336984302</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>47.31988093632145</v>
+        <v>47.31988093632155</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>56.86328575438412</v>
+        <v>56.86328575438428</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>57.78079286572097</v>
+        <v>57.78079286572098</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.42285705343608</v>
+        <v>19.4228570534361</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>53.30880362277546</v>
+        <v>53.30880362277535</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>55.73577949660938</v>
+        <v>55.73577949660927</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>26.79163749253318</v>
+        <v>26.79163749253313</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.40510034441382</v>
+        <v>36.40510034441377</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>42.98429222841536</v>
+        <v>42.98429222841528</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.8297269683173525</v>
+        <v>0.8297269683173276</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>39.40179072731548</v>
+        <v>39.40179072731546</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>43.4866780581919</v>
+        <v>43.48667805819183</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>7.110895493329263</v>
+        <v>7.110895493329146</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>63.27890757855675</v>
+        <v>63.27890757855663</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>67.13984680994093</v>
+        <v>67.13984680994091</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>70.49829973315494</v>
+        <v>70.49829973315489</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>77.17053868956791</v>
+        <v>77.17053868956778</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>81.08570196445021</v>
+        <v>81.08570196445025</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>31.91385087843929</v>
+        <v>31.91385087843913</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>71.60577207177852</v>
+        <v>71.60577207177853</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>74.89430850654827</v>
+        <v>74.89430850654831</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>55.27523963724077</v>
+        <v>55.27523963724096</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>41.99504329485583</v>
+        <v>41.99504329485595</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>47.77512059652776</v>
+        <v>47.77512059652791</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>55.45591076260678</v>
+        <v>55.45591076260688</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>9.592696324509888</v>
+        <v>9.592696324509863</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>46.58303028882452</v>
+        <v>46.58303028882447</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>51.72787489440614</v>
+        <v>51.7278748944062</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>15.34025552465971</v>
+        <v>15.3402555246597</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.8479592318322</v>
+        <v>33.84795923183224</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.10398219924836</v>
+        <v>42.10398219924839</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-0.3756728134519527</v>
+        <v>-0.3756728134519669</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>38.88428859425227</v>
+        <v>38.88428859425228</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>41.93652015422353</v>
+        <v>41.93652015422347</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>6.093937459481253</v>
+        <v>6.093937459481126</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>61.98983785223054</v>
+        <v>61.98983785223044</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>70.36796970463234</v>
+        <v>70.3679697046324</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>69.50790959784477</v>
+        <v>69.50790959784476</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>73.74520364527061</v>
+        <v>73.74520364527051</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>84.82910074198419</v>
+        <v>84.82910074198405</v>
       </c>
     </row>
     <row r="337">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>74.81447736639913</v>
+        <v>74.8144773663992</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>49.77564414355066</v>
+        <v>49.77564414355061</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>24.9746031267888</v>
+        <v>24.97460312678876</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>32.33325819536564</v>
+        <v>32.33325819536567</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>38.92515901958591</v>
+        <v>38.92515901958571</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.574166257119831</v>
+        <v>5.574166257119924</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>37.87594664003751</v>
+        <v>37.87594664003758</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>46.70683678161624</v>
+        <v>46.70683678161623</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>8.832856760222871</v>
+        <v>8.832856760222821</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.01288714259385</v>
+        <v>34.01288714259393</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42.59842658379951</v>
+        <v>42.59842658379949</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-0.6385168039824052</v>
+        <v>-0.6385168039824727</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>37.27601435246741</v>
+        <v>37.27601435246727</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>42.40796750935531</v>
+        <v>42.40796750935534</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.9275181413599611</v>
+        <v>0.9275181413599114</v>
       </c>
     </row>
     <row r="354">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>68.70401610917985</v>
+        <v>68.7040161091797</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>62.53915278492691</v>
+        <v>62.53915278492701</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>69.21087699436328</v>
+        <v>69.21087699436325</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>80.94296328309289</v>
+        <v>80.94296328309287</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>7.819267510846217</v>
+        <v>7.819267510846359</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>65.69811315390156</v>
+        <v>65.69811315390152</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>74.34909333679369</v>
+        <v>74.34909333679379</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>12.07706275043088</v>
+        <v>12.07706275043087</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>12.20124426920503</v>
+        <v>12.20124426920514</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>27.34660892442104</v>
+        <v>27.34660892442098</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>2.937785472325135</v>
+        <v>2.937785472325228</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>18.14547753836751</v>
+        <v>18.14547753836738</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>21.47449086425802</v>
+        <v>21.47449086425835</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.579475284761532</v>
+        <v>7.5794752847615</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>42.18577216800944</v>
+        <v>42.18577216800941</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>44.90812699417629</v>
+        <v>44.90812699417648</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>14.62940536793587</v>
+        <v>14.62940536793586</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>17.68827576404603</v>
+        <v>17.68827576404587</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>18.20422029922459</v>
+        <v>18.20422029922475</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.64599654495021</v>
+        <v>25.64599654495012</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>23.71289978069706</v>
+        <v>23.71289978069691</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>37.7783868376795</v>
+        <v>37.77838683767931</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>16.99016819656308</v>
+        <v>16.99016819656315</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.396930209131</v>
+        <v>29.39693020913097</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>34.02583430110293</v>
+        <v>34.02583430110273</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>6.025636908384126</v>
+        <v>6.025636908384154</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>15.65642851979149</v>
+        <v>15.65642851979129</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>20.27199089570284</v>
+        <v>20.27199089570269</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>3.771908755032964</v>
+        <v>3.771908755032992</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.41680818546552</v>
+        <v>25.41680818546555</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>25.14543097074969</v>
+        <v>25.14543097074962</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>35.07686481485052</v>
+        <v>35.0768648148505</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>35.09673990565521</v>
+        <v>35.09673990565514</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>2.830230522695974</v>
+        <v>2.83023052269581</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>39.49701056407255</v>
+        <v>39.49701056407253</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>40.2846274632083</v>
+        <v>40.28462746320832</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>6.942982186466558</v>
+        <v>6.94298218646653</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>57.87856883371592</v>
+        <v>57.87856883371596</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>53.56721828813732</v>
+        <v>53.5672182881375</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>47.63095659324392</v>
+        <v>47.63095659324386</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>56.02019787254513</v>
+        <v>56.02019787254502</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>57.5941502459546</v>
+        <v>57.59415024595435</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>37.01657691502007</v>
+        <v>37.01657691502025</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>43.30995798846654</v>
+        <v>43.30995798846646</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>44.89333487962787</v>
+        <v>44.89333487962797</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.89495129775863</v>
+        <v>26.89495129775867</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>42.77680191193146</v>
+        <v>42.77680191193129</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>41.36969749187298</v>
+        <v>41.36969749187289</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>6.115655016115479</v>
+        <v>6.1156550161155</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>41.02926279586253</v>
+        <v>41.02926279586245</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>42.57167432885159</v>
+        <v>42.57167432885145</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.06270146406008</v>
+        <v>6.06270146406009</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>62.77659812719553</v>
+        <v>62.77659812719564</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>7.827608589942297</v>
+        <v>7.827608589942436</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>24.59327103638435</v>
+        <v>24.59327103638418</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.23589236856262</v>
+        <v>29.23589236856258</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>1.883472023660961</v>
+        <v>1.883472023661049</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>33.88938617653021</v>
+        <v>33.88938617653044</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>38.27642695539615</v>
+        <v>38.27642695539601</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>6.999709478761911</v>
+        <v>6.99970947876194</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>54.3458388886519</v>
+        <v>54.34583888865198</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>57.06733940731098</v>
+        <v>57.06733940731067</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>58.21196146568121</v>
+        <v>58.21196146568117</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>64.4953531368165</v>
+        <v>64.4953531368168</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>69.12554857779847</v>
+        <v>69.12554857779853</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>16.33990155284739</v>
+        <v>16.33990155284746</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>31.89182043347265</v>
+        <v>31.89182043347262</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>37.28514938225465</v>
+        <v>37.28514938225439</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>17.05289428690825</v>
+        <v>17.05289428690833</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>37.87691970640732</v>
+        <v>37.87691970640721</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>39.48166462398667</v>
+        <v>39.48166462398682</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>6.042113297236451</v>
+        <v>6.042113297236593</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.44195294092818</v>
+        <v>32.4419529409281</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>40.21955018688051</v>
+        <v>40.2195501868805</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>4.970469135691967</v>
+        <v>4.970469135692095</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>55.28150468438689</v>
+        <v>55.28150468438685</v>
       </c>
     </row>
     <row r="431">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>21.77658344917715</v>
+        <v>21.77658344917719</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.84357744722947</v>
+        <v>29.84357744722952</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>2.378571356044063</v>
+        <v>2.378571356044169</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.93942076041509</v>
+        <v>35.93942076041508</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>42.01782936287937</v>
+        <v>42.01782936287923</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>3.718403840622081</v>
+        <v>3.718403840621956</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>54.52128475378885</v>
+        <v>54.52128475378848</v>
       </c>
     </row>
     <row r="439">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>53.63292468975946</v>
+        <v>53.63292468975929</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>57.98958973610783</v>
+        <v>57.98958973610761</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>65.42617677963939</v>
+        <v>65.42617677963949</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>16.50733450595021</v>
+        <v>16.50733450595045</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>26.0207612494431</v>
+        <v>26.02076124944342</v>
       </c>
     </row>
     <row r="445">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>13.20678463277999</v>
+        <v>13.20678463278002</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>33.86034123855004</v>
+        <v>33.86034123854989</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>38.88341334884001</v>
+        <v>38.88341334884009</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>5.962297982863468</v>
+        <v>5.962297982863248</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>33.75366491845546</v>
+        <v>33.75366491845551</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>44.72295232389864</v>
+        <v>44.72295232389861</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.235818032024298</v>
+        <v>2.235818032024277</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>50.38797338028138</v>
+        <v>50.38797338028126</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.41973134296738</v>
+        <v>28.41973134296746</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.41636647738334</v>
+        <v>24.41636647738324</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>41.22835926749681</v>
+        <v>41.22835926749709</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>43.00763615585977</v>
+        <v>43.00763615585984</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>10.98625818692849</v>
+        <v>10.98625818692856</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>22.789032365115</v>
+        <v>22.78903236511509</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>30.25699027899595</v>
+        <v>30.25699027899593</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>19.31367496384544</v>
+        <v>19.3136749638455</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.95469314555568</v>
+        <v>28.95469314555579</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>37.79232237895941</v>
+        <v>37.79232237895928</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>4.956552914714425</v>
+        <v>4.956552914714468</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>12.61670178396206</v>
+        <v>12.61670178396222</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.55956057211282</v>
+        <v>19.55956057211286</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>3.760598881256232</v>
+        <v>3.760598881256097</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25.75530179726812</v>
+        <v>25.75530179726811</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>45.25554013396582</v>
+        <v>45.25554013396592</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.58921402988099</v>
+        <v>25.58921402988101</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>45.86635376554332</v>
+        <v>45.86635376554337</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>51.89617770777498</v>
+        <v>51.89617770777512</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>9.728414209824923</v>
+        <v>9.728414209824873</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.46039896410697</v>
+        <v>24.46039896410694</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>38.38490513912701</v>
+        <v>38.38490513912713</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>64.46402889874587</v>
+        <v>64.46402889874581</v>
       </c>
     </row>
     <row r="477">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>71.58840478877721</v>
+        <v>71.58840478877744</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>71.00807799814261</v>
+        <v>71.00807799814204</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>30.08190953729278</v>
+        <v>30.08190953729266</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>68.64315444725906</v>
+        <v>68.64315444725892</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>71.09014959765653</v>
+        <v>71.09014959765656</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.55586109942035</v>
+        <v>32.55586109942027</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>45.32189971863056</v>
+        <v>45.3218997186305</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>46.65611773909249</v>
+        <v>46.65611773909252</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>7.062153476626694</v>
+        <v>7.062153476626687</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>48.1123803409647</v>
+        <v>48.1123803409646</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>47.99654361364727</v>
+        <v>47.99654361364711</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>8.55344391934241</v>
+        <v>8.553443919342413</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>72.58572596511615</v>
+        <v>72.58572596511611</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>71.18009240383392</v>
+        <v>71.18009240383404</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>82.46310153636877</v>
+        <v>82.46310153636885</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>85.02271960224036</v>
+        <v>85.0227196022401</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>87.21070179608171</v>
+        <v>87.21070179608135</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>41.58270104462973</v>
+        <v>41.58270104462974</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>82.82589657583668</v>
+        <v>82.82589657583691</v>
       </c>
     </row>
     <row r="497">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>67.05752189564402</v>
+        <v>67.05752189564389</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>55.29420366574152</v>
+        <v>55.29420366574136</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>63.4148484817299</v>
+        <v>63.41484848172962</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>70.86523228805163</v>
+        <v>70.86523228805149</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.12282023358692</v>
+        <v>21.12282023358691</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>62.5853068297007</v>
+        <v>62.58530682970088</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>68.50060011664979</v>
+        <v>68.50060011664968</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>20.59159951761026</v>
+        <v>20.59159951761028</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>40.61402128118839</v>
+        <v>40.6140212811886</v>
       </c>
     </row>
     <row r="507">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>5.855020681649894</v>
+        <v>5.855020681649879</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>38.53092389484781</v>
+        <v>38.53092389484797</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>44.27744083953012</v>
+        <v>44.27744083953018</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>8.876359647676793</v>
+        <v>8.876359647676594</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>66.20414757878542</v>
+        <v>66.20414757878535</v>
       </c>
     </row>
     <row r="513">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>76.38362012941977</v>
+        <v>76.38362012941995</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>81.61742207965932</v>
+        <v>81.61742207965924</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>89.05159778304561</v>
+        <v>89.05159778304574</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.37246779745801</v>
+        <v>27.37246779745806</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>79.25464422562735</v>
+        <v>79.25464422562733</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>83.90973994796356</v>
+        <v>83.90973994796339</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>63.71180055190163</v>
+        <v>63.7118005519017</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>36.29325481130017</v>
+        <v>36.29325481130007</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>42.3309980250188</v>
+        <v>42.33099802501892</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>53.53724772068217</v>
+        <v>53.53724772068207</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>16.62282439540273</v>
+        <v>16.62282439540267</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>56.92981919434951</v>
+        <v>56.92981919434941</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>65.72037211796298</v>
+        <v>65.72037211796305</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>18.50420541019898</v>
+        <v>18.50420541019894</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>40.41340893178148</v>
+        <v>40.41340893178152</v>
       </c>
     </row>
     <row r="529">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>6.924803152323999</v>
+        <v>6.924803152324017</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>42.87430262166642</v>
+        <v>42.87430262166636</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>49.95114078716123</v>
+        <v>49.95114078716124</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>3.92827344235193</v>
+        <v>3.928273442351774</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>62.85754635650483</v>
+        <v>62.85754635650454</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>73.78656134648733</v>
+        <v>73.78656134648739</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>68.65368946992001</v>
+        <v>68.65368946991995</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>76.26461382915842</v>
+        <v>76.26461382915844</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>86.56796177833047</v>
+        <v>86.56796177833053</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>22.02476385291506</v>
+        <v>22.02476385291516</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>72.83082449778438</v>
+        <v>72.83082449778439</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>83.07350802598194</v>
+        <v>83.07350802598199</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.89293184200699</v>
+        <v>10.89293184200686</v>
       </c>
     </row>
     <row r="543">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>18.49275774199045</v>
+        <v>18.49275774199042</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>3.764683744296949</v>
+        <v>3.764683744296903</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>9.744157560502611</v>
+        <v>9.744157560502472</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>10.4832160372527</v>
+        <v>10.48321603725261</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>7.210463595274963</v>
+        <v>7.210463595275147</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.45066858678474</v>
+        <v>21.4506685867847</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>23.47993999411607</v>
+        <v>23.47993999411604</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>13.25336485020969</v>
+        <v>13.25336485020965</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>16.18708444065896</v>
+        <v>16.18708444065895</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>15.86620310228947</v>
+        <v>15.8662031022895</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>8.99991265225081</v>
+        <v>8.999912652250678</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>10.06130866951302</v>
+        <v>10.06130866951288</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>16.55648134872227</v>
+        <v>16.55648134872223</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>11.06275512859726</v>
+        <v>11.0627551285972</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.63715375997926</v>
+        <v>20.63715375997917</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>24.77139238857203</v>
+        <v>24.77139238857204</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.145658403032343</v>
+        <v>3.145658403032357</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>7.360377722606703</v>
+        <v>7.360377722606717</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>11.20532231905517</v>
+        <v>11.20532231905524</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>3.629104136706207</v>
+        <v>3.629104136706214</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>17.14432002959802</v>
+        <v>17.14432002959796</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.58117317225191</v>
+        <v>16.58117317225189</v>
       </c>
     </row>
     <row r="566">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>21.40847029697404</v>
+        <v>21.40847029697395</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.166681628544392</v>
+        <v>3.166681628544485</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.89827500173205</v>
+        <v>21.89827500173197</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>23.40547830903404</v>
+        <v>23.40547830903399</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>5.185896263078792</v>
+        <v>5.185896263078881</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>32.44913443490759</v>
+        <v>32.44913443490762</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.93200552714685</v>
+        <v>31.93200552714688</v>
       </c>
     </row>
     <row r="574">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.59457628619607</v>
+        <v>37.59457628619621</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>37.71999176319393</v>
+        <v>37.71999176319414</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>13.35179218422164</v>
+        <v>13.35179218422166</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>32.498678916807</v>
+        <v>32.49867891680731</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.46186323884655</v>
+        <v>34.46186323884653</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>14.22145763977695</v>
+        <v>14.22145763977697</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.79042103747855</v>
+        <v>25.79042103747862</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.21746502452263</v>
+        <v>29.21746502452261</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>3.019635771862593</v>
+        <v>3.019635771862646</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.95255493067257</v>
+        <v>24.95255493067259</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.73581222778424</v>
+        <v>29.73581222778427</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>3.306525171677372</v>
+        <v>3.3065251716774</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>40.65329922784653</v>
+        <v>40.65329922784667</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>7.160218097520797</v>
+        <v>7.160218097520872</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>16.0784622046291</v>
+        <v>16.07846220462919</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>19.95867450792171</v>
+        <v>19.95867450792155</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>3.55105845748006</v>
+        <v>3.551058457480163</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.09038691097664</v>
+        <v>21.0903869109767</v>
       </c>
     </row>
     <row r="593">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>8.024876010181174</v>
+        <v>8.024876010181089</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>33.48032319019428</v>
+        <v>33.48032319019425</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.00478767913064</v>
+        <v>35.00478767913067</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>33.8453012101658</v>
+        <v>33.84530121016582</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>35.74881817877078</v>
+        <v>35.7488181787707</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>42.37937808629628</v>
+        <v>42.37937808629615</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>6.019987554251603</v>
+        <v>6.019987554251699</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>20.99840620317783</v>
+        <v>20.99840620317786</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>23.92098297750042</v>
+        <v>23.92098297750056</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>9.422929935994595</v>
+        <v>9.422929935994652</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>22.28175215731804</v>
+        <v>22.28175215731816</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.9959531663383</v>
+        <v>28.99595316633833</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>3.126660110487446</v>
+        <v>3.126660110487396</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>19.89663683817174</v>
+        <v>19.8966368381719</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.96798453764747</v>
+        <v>29.96798453764748</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>5.261321408498855</v>
+        <v>5.261321408498841</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>32.13401352231665</v>
+        <v>32.13401352231653</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>5.254660607824476</v>
+        <v>5.254660607824434</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>12.27006955852952</v>
+        <v>12.27006955852959</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>17.94044988852849</v>
+        <v>17.94044988852861</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>2.220837862482817</v>
+        <v>2.220837862482806</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>13.91359767382625</v>
+        <v>13.91359767382621</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>24.39358207446312</v>
+        <v>24.39358207446321</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>3.019348763823672</v>
+        <v>3.019348763823587</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.48295002900874</v>
+        <v>26.48295002900896</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.48604232705931</v>
+        <v>33.48604232705934</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>27.11908665101828</v>
+        <v>27.11908665101829</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.96719027992314</v>
+        <v>29.96719027992291</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.1554497211222</v>
+        <v>36.15544972112215</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>4.156597620168647</v>
+        <v>4.156597620168977</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>20.4592258005513</v>
+        <v>20.45922580055151</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>27.84676139393671</v>
+        <v>27.84676139393682</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>6.523329434426486</v>
+        <v>6.523329434426451</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>19.40268047306778</v>
+        <v>19.40268047306785</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.84584819798162</v>
+        <v>24.84584819798159</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>2.746065038436846</v>
+        <v>2.746065038436896</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>17.18195842108044</v>
+        <v>17.18195842108053</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.5741278414502</v>
+        <v>26.57412784145023</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>2.463011977335867</v>
+        <v>2.463011977335885</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.84545420314432</v>
+        <v>25.84545420314429</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>19.68088929384787</v>
+        <v>19.68088929384778</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>17.10156379211931</v>
+        <v>17.10156379211933</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.51343428172016</v>
+        <v>28.5134342817201</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>30.77805021775479</v>
+        <v>30.77805021775478</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>7.129141421730779</v>
+        <v>7.129141421730893</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>13.17051498515058</v>
+        <v>13.17051498515059</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>18.95183999873142</v>
+        <v>18.95183999873148</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>13.62614297543234</v>
+        <v>13.6261429754323</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>24.88469874070012</v>
+        <v>24.88469874070009</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.73446474920832</v>
+        <v>29.73446474920835</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>3.409842363176143</v>
+        <v>3.409842363176171</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>8.280156822154861</v>
+        <v>8.280156822154829</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>13.20932382611122</v>
+        <v>13.20932382611139</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>5.278419485621516</v>
+        <v>5.278419485621416</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>21.62930413916902</v>
+        <v>21.62930413916909</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.67754829546023</v>
+        <v>34.67754829546032</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>22.2884195640233</v>
+        <v>22.28841956402327</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>34.82438420380194</v>
+        <v>34.8243842038019</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>39.14211476439624</v>
+        <v>39.14211476439627</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>8.203618516234705</v>
+        <v>8.203618516234741</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>18.83977734452574</v>
+        <v>18.83977734452581</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>27.99919269592733</v>
+        <v>27.99919269592744</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>47.76997112555215</v>
+        <v>47.7699711255523</v>
       </c>
     </row>
     <row r="657">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>49.34440187147504</v>
+        <v>49.344401871475</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>50.6278868146363</v>
+        <v>50.62788681463622</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>12.79751707482559</v>
+        <v>12.79751707482566</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>44.80468097557318</v>
+        <v>44.8046809755734</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>48.35535540242789</v>
+        <v>48.35535540242782</v>
       </c>
     </row>
     <row r="663">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>34.22310220505949</v>
+        <v>34.22310220505962</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>40.00536662490902</v>
+        <v>40.00536662490899</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>5.024567911495005</v>
+        <v>5.02456791149497</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>35.43288327661178</v>
+        <v>35.4328832766118</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>39.94618035149868</v>
+        <v>39.94618035149875</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>10.53726079120874</v>
+        <v>10.53726079120873</v>
       </c>
     </row>
     <row r="670">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>59.44803801290133</v>
+        <v>59.44803801290156</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>63.69412292129935</v>
+        <v>63.69412292129954</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>70.58120199242157</v>
+        <v>70.58120199242171</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>74.88609674801222</v>
+        <v>74.88609674801221</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.13938081265077</v>
+        <v>28.1393808126508</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>64.5505641311951</v>
+        <v>64.55056413119499</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>66.95957478686377</v>
+        <v>66.95957478686367</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>48.82490304160675</v>
+        <v>48.82490304160666</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>32.85977628763609</v>
+        <v>32.85977628763608</v>
       </c>
     </row>
     <row r="680">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>47.62449645311648</v>
+        <v>47.62449645311665</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>9.059292979625148</v>
+        <v>9.059292979625109</v>
       </c>
     </row>
     <row r="683">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>44.19773147296624</v>
+        <v>44.1977314729662</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>16.61506439610616</v>
+        <v>16.61506439610622</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.29707794636641</v>
+        <v>31.29707794636643</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>40.41346584085264</v>
+        <v>40.4134658408526</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>3.713655000434517</v>
+        <v>3.713655000434528</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.28436174315279</v>
+        <v>31.28436174315291</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>38.2150301341865</v>
+        <v>38.21503013418649</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>9.61330530364479</v>
+        <v>9.613305303644768</v>
       </c>
     </row>
     <row r="692">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>63.30536040284413</v>
+        <v>63.30536040284422</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>57.92135235719613</v>
+        <v>57.92135235719611</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>62.50823441398261</v>
+        <v>62.50823441398256</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>76.73169294751669</v>
+        <v>76.73169294751692</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>18.40059159486668</v>
+        <v>18.40059159486671</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>57.40164688099208</v>
+        <v>57.40164688099198</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>64.71532589630947</v>
+        <v>64.71532589630949</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.7222125567416</v>
+        <v>41.72221255674156</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>20.14065174195477</v>
+        <v>20.14065174195482</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>25.13324910434255</v>
+        <v>25.13324910434261</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>31.59208268822008</v>
+        <v>31.59208268822017</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>6.163806861337537</v>
+        <v>6.163806861337509</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>24.88632556664092</v>
+        <v>24.88632556664079</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>37.5912669227418</v>
+        <v>37.59126692274172</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>11.19893295450009</v>
+        <v>11.19893295450006</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.55085753576794</v>
+        <v>30.55085753576791</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>39.37371634992509</v>
+        <v>39.37371634992513</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>3.326533381167803</v>
+        <v>3.326533381167859</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.21261973731962</v>
+        <v>30.21261973731953</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.24958090289203</v>
+        <v>38.24958090289204</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>4.094114861875369</v>
+        <v>4.094114861875322</v>
       </c>
     </row>
     <row r="714">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>60.51210486225581</v>
+        <v>60.51210486225568</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>49.84144523109947</v>
+        <v>49.8414452310994</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.09770179192243</v>
+        <v>55.0977017919224</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>71.51314419888696</v>
+        <v>71.51314419888701</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>10.44434331922423</v>
+        <v>10.44434331922427</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>52.2258871165546</v>
+        <v>52.22588711655463</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>63.25638970154253</v>
+        <v>63.25638970154255</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>23.40949036736124</v>
+        <v>23.40949036736144</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>16.67539634762749</v>
+        <v>16.67539634762752</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.48929306841691</v>
+        <v>36.48929306841693</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>8.871806715221776</v>
+        <v>8.871806715221648</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>37.53429177513814</v>
+        <v>37.53429177513817</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>41.40364606365868</v>
+        <v>41.40364606365861</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>13.39565459456281</v>
+        <v>13.39565459456263</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>57.0256628804905</v>
+        <v>57.02566288049047</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>59.65774814544488</v>
+        <v>59.65774814544482</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>17.37340817551016</v>
+        <v>17.37340817551009</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>20.76746667246702</v>
+        <v>20.7674666724669</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>20.68570987843979</v>
+        <v>20.68570987843988</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.33170274890813</v>
+        <v>34.33170274890826</v>
       </c>
     </row>
     <row r="735">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>43.34040761181703</v>
+        <v>43.34040761181691</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>18.31841795657755</v>
+        <v>18.31841795657754</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.8304420280011</v>
+        <v>28.83044202800111</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.53951710473552</v>
+        <v>39.53951710473541</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>30.81701707993765</v>
+        <v>30.81701707993772</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>36.27713388811741</v>
+        <v>36.27713388811768</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>38.44390893257167</v>
+        <v>38.44390893257183</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>5.325533333791352</v>
+        <v>5.325533333791117</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>22.79097109399746</v>
+        <v>22.79097109399732</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>31.71109660055399</v>
+        <v>31.71109660055401</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>34.96634037488263</v>
+        <v>34.9663403748824</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>38.0623516807033</v>
+        <v>38.0623516807031</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>8.033719155340719</v>
+        <v>8.033719155340872</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>55.91614687206129</v>
+        <v>55.91614687206116</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>54.30549225070608</v>
+        <v>54.30549225070604</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>10.22537483556026</v>
+        <v>10.22537483556054</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>60.44896945385989</v>
+        <v>60.44896945385955</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>58.90479476968504</v>
+        <v>58.90479476968494</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>58.02180906097273</v>
+        <v>58.02180906097262</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>61.35261598839827</v>
+        <v>61.3526159883983</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>60.91035143810626</v>
+        <v>60.91035143810613</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>59.16365147599602</v>
+        <v>59.16365147599601</v>
       </c>
     </row>
     <row r="758">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>71.10785143148634</v>
+        <v>71.1078514314863</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.69960012444905</v>
+        <v>29.69960012444895</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>38.98573837034056</v>
+        <v>38.98573837034067</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>38.25360172587699</v>
+        <v>38.25360172587681</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.69659865623012</v>
+        <v>30.69659865623016</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>52.28845440638307</v>
+        <v>52.28845440638324</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>48.89556809084933</v>
+        <v>48.89556809084908</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>6.732922187499486</v>
+        <v>6.732922187499465</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>56.63641505279493</v>
+        <v>56.63641505279503</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>13.98538877332311</v>
+        <v>13.98538877332324</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.29689424014898</v>
+        <v>26.29689424014864</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.93744700169693</v>
+        <v>32.937447001697</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>5.717998568949</v>
+        <v>5.717998568949142</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>50.17083622468422</v>
+        <v>50.17083622468419</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>53.74010384055319</v>
+        <v>53.74010384055298</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>8.600404665451286</v>
+        <v>8.60040466545113</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>58.56154391580432</v>
+        <v>58.56154391580436</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>64.77213226914789</v>
+        <v>64.77213226914799</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>70.23049503571178</v>
+        <v>70.23049503571194</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>70.42231071475213</v>
+        <v>70.42231071475227</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>72.4231832016735</v>
+        <v>72.42318320167333</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>12.84223102933759</v>
+        <v>12.84223102933736</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>40.30300615302565</v>
+        <v>40.30300615302581</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>54.13714059455637</v>
+        <v>54.13714059455643</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>23.24960505506224</v>
+        <v>23.24960505506223</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.91470276511032</v>
+        <v>35.91470276511042</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>37.44743372510317</v>
+        <v>37.44743372510322</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>31.24224714033043</v>
+        <v>31.24224714033044</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>46.35520072802208</v>
+        <v>46.35520072802212</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>52.32583348257005</v>
+        <v>52.32583348256982</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>8.249720942654314</v>
+        <v>8.249720942654431</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>52.3192693085646</v>
+        <v>52.31926930856457</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>6.51943887546485</v>
+        <v>6.519438875464985</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>17.7138021687982</v>
+        <v>17.71380216879819</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.74208231945553</v>
+        <v>28.74208231945563</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>6.855837839623085</v>
+        <v>6.855837839623021</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>54.3970387107965</v>
+        <v>54.39703871079656</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>56.00576580595509</v>
+        <v>56.00576580595503</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>3.98710529482663</v>
+        <v>3.987105294826403</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>61.51368996940401</v>
+        <v>61.51368996940403</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>62.79382851634767</v>
+        <v>62.7938285163475</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>65.27679765939669</v>
+        <v>65.27679765939651</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>65.82688071662739</v>
+        <v>65.82688071662727</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>72.34595945500612</v>
+        <v>72.34595945500628</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>11.22579864295379</v>
+        <v>11.22579864295388</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>27.94517925020725</v>
+        <v>27.9451792502074</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>58.59653653217829</v>
+        <v>58.5965365321786</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>15.98488914561522</v>
+        <v>15.9848891456153</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>32.27345362359581</v>
+        <v>32.27345362359589</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>37.73748269580752</v>
+        <v>37.73748269580764</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>30.83487862918026</v>
+        <v>30.83487862918023</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>49.4863090409115</v>
+        <v>49.48630904091131</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>54.68229265831837</v>
+        <v>54.68229265831823</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>3.528887577535251</v>
+        <v>3.528887577535286</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>51.40952207423867</v>
+        <v>51.40952207423866</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.00170093230793</v>
+        <v>27.00170093230791</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.19645204309218</v>
+        <v>23.19645204309209</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>38.43822318959594</v>
+        <v>38.43822318959599</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>42.38985787929069</v>
+        <v>42.38985787929076</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>10.83965216572317</v>
+        <v>10.8396521657232</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>16.86649907687485</v>
+        <v>16.8664990768749</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.67930833571164</v>
+        <v>26.67930833571168</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>14.85517095590989</v>
+        <v>14.85517095591005</v>
       </c>
     </row>
     <row r="822">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.35943695761462</v>
+        <v>36.35943695761465</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>30.31821372619564</v>
+        <v>30.31821372619573</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>35.01699213872025</v>
+        <v>35.01699213872015</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>39.39483461039481</v>
+        <v>39.39483461039472</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>5.037264988661978</v>
+        <v>5.037264988661899</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.58036237009604</v>
+        <v>26.58036237009609</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>48.59480279190605</v>
+        <v>48.59480279190613</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.92774642106702</v>
+        <v>25.92774642106706</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>49.02364096553649</v>
+        <v>49.02364096553644</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>57.35106408996734</v>
+        <v>57.35106408996725</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>8.705383098984054</v>
+        <v>8.705383098983994</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>23.7615216742449</v>
+        <v>23.76152167424494</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>38.62111466660647</v>
+        <v>38.62111466660652</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>58.44106270284787</v>
+        <v>58.44106270284777</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>61.47156077914607</v>
+        <v>61.47156077914626</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>65.157572303552</v>
+        <v>65.15757230355248</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>62.02467883139278</v>
+        <v>62.02467883139269</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>34.68944191272544</v>
+        <v>34.68944191272535</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>61.40252038430674</v>
+        <v>61.4025203843064</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>65.62530927508261</v>
+        <v>65.62530927508254</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.36244317153675</v>
+        <v>34.36244317153681</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>39.82706939137606</v>
+        <v>39.8270693913759</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.20573363189536</v>
+        <v>42.20573363189556</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.96757225751755</v>
+        <v>31.96757225751766</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>60.59398970872616</v>
+        <v>60.59398970872633</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>54.24028184292651</v>
+        <v>54.24028184292654</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>8.205769450680876</v>
+        <v>8.205769450680691</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>69.18519797330593</v>
+        <v>69.18519797330589</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>66.5129650896877</v>
+        <v>66.51296508968748</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>83.27265056381125</v>
+        <v>83.27265056381123</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>83.47682321525515</v>
+        <v>83.47682321525468</v>
       </c>
     </row>
     <row r="854">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>45.06650008211076</v>
+        <v>45.06650008211062</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>79.03341386595581</v>
+        <v>79.03341386595591</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>80.28030832220033</v>
+        <v>80.28030832220013</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>65.34604018298519</v>
+        <v>65.34604018298518</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>53.49875748469936</v>
+        <v>53.49875748469933</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>57.96798692784492</v>
+        <v>57.96798692784488</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>61.81076786766388</v>
+        <v>61.81076786766403</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.39717516215367</v>
+        <v>27.39717516215379</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>56.7413539230986</v>
+        <v>56.74135392309854</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>63.79835356829601</v>
+        <v>63.79835356829592</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.04417536278971</v>
+        <v>26.04417536278966</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.34967431340314</v>
+        <v>38.34967431340309</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>43.28950938455571</v>
+        <v>43.28950938455579</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>32.88569913959408</v>
+        <v>32.88569913959425</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>56.93278666175218</v>
+        <v>56.9327866617521</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>58.51747617689465</v>
+        <v>58.51747617689449</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>12.00614162156071</v>
+        <v>12.00614162156074</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>68.58681581041606</v>
+        <v>68.58681581041613</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>74.51645845200338</v>
+        <v>74.51645845200341</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>83.3869980911567</v>
+        <v>83.38699809115658</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>81.81387488262045</v>
+        <v>81.81387488262047</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>88.48492980613294</v>
+        <v>88.48492980613308</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>32.77135302401766</v>
+        <v>32.77135302401774</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>75.86993297906656</v>
+        <v>75.86993297906649</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>83.33093345869041</v>
+        <v>83.33093345869034</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>60.99911888156029</v>
+        <v>60.99911888156005</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>32.38478665396201</v>
+        <v>32.38478665396199</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>37.91352030802199</v>
+        <v>37.91352030802208</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>47.06870913306515</v>
+        <v>47.0687091330651</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>17.5359182536054</v>
+        <v>17.5359182536053</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>55.90284095403955</v>
+        <v>55.90284095403949</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>62.16974952875982</v>
+        <v>62.16974952875988</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>19.6659441450075</v>
+        <v>19.66594414500771</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>37.77251423438108</v>
+        <v>37.77251423438113</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>44.98281490028947</v>
+        <v>44.98281490028945</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>33.19472018703323</v>
+        <v>33.19472018703333</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>58.74623767918914</v>
+        <v>58.74623767918921</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>62.91472077085446</v>
+        <v>62.9147207708543</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>4.14989707396677</v>
+        <v>4.149897073966692</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>67.2020618839324</v>
+        <v>67.20206188393263</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>72.20029780244811</v>
+        <v>72.20029780244803</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>79.00908054863989</v>
+        <v>79.00908054863991</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>79.9788532232641</v>
+        <v>79.97885322326407</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>90.8094749099165</v>
+        <v>90.80947490991659</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>23.85715287485414</v>
+        <v>23.85715287485431</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>73.38715867577703</v>
+        <v>73.38715867577712</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>83.79028769467453</v>
+        <v>83.79028769467467</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test1/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.594</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.117</v>
+        <v>16.346</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.408</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.019</v>
+        <v>20.233</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.947</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.1602203034688</v>
+        <v>17.29019628110522</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.91651695905526</v>
+        <v>16.99902878387442</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.11001872716022</v>
+        <v>32.57009975222312</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.896192898549867</v>
+        <v>3.774692219040638</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.39250435108968</v>
+        <v>25.25372362066935</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.6033128747709</v>
+        <v>30.3812746277602</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.237826277447446</v>
+        <v>8.098956737285896</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>47.12171514839116</v>
+        <v>47.3710007646024</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>48.48085601886208</v>
+        <v>49.13618913620887</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16.2768617681411</v>
+        <v>18.06739034972026</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19.57033078350481</v>
+        <v>21.26691760084944</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.47933826966721</v>
+        <v>21.09701895687515</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.57021759315487</v>
+        <v>22.7832860921602</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22.10640212992983</v>
+        <v>23.41693466745285</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>54.09991151149353</v>
+        <v>52.78114583102053</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.99631938437699</v>
+        <v>16.67131480305342</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.70187443807529</v>
+        <v>28.13226373821109</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.13135812653041</v>
+        <v>34.55699721246005</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.237260389238049</v>
+        <v>6.191813707993912</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12.78831655064456</v>
+        <v>14.3298883796792</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15.56302438166248</v>
+        <v>17.11360022307818</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.057424405169957</v>
+        <v>3.822645865604304</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17.47054782820941</v>
+        <v>19.7113221092753</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25.95984403316413</v>
+        <v>25.94572570791026</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.69004710521309</v>
+        <v>31.5885909391341</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.91865277274612</v>
+        <v>33.42456170986576</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.607226392237742</v>
+        <v>3.021719949460106</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>36.76817877943839</v>
+        <v>38.38720381221246</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>35.60060572203312</v>
+        <v>37.3678702098664</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.684525118021476</v>
+        <v>8.899952999883169</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>49.85081004322987</v>
+        <v>52.34940348640813</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>48.49766112444007</v>
+        <v>51.34646539534305</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>45.89523034950855</v>
+        <v>47.47475183173128</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>48.99500115182734</v>
+        <v>51.5724966199477</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>51.86729048063725</v>
+        <v>53.71850808218866</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>43.39420889640453</v>
+        <v>43.9346626154878</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>57.09314446594965</v>
+        <v>57.11089608276999</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>60.91840841083555</v>
+        <v>60.69745007475649</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>24.33174157356249</v>
+        <v>25.03617850948844</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.21716448034604</v>
+        <v>38.48829585225852</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>37.71071844012201</v>
+        <v>37.99074544946902</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4.782411920998953</v>
+        <v>6.744587657195567</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.00409867622155</v>
+        <v>37.15214381712096</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.9722173564389</v>
+        <v>37.31228448401308</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4.836104549337033</v>
+        <v>6.383348188567101</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>54.05005808554318</v>
+        <v>54.25278105755515</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6.604672649859868</v>
+        <v>8.028136166849119</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>21.48213556109799</v>
+        <v>22.83520858023083</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26.04977637654242</v>
+        <v>28.36938281939215</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.620874398484503</v>
+        <v>2.347320391443724</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.8135304685533</v>
+        <v>34.80151278861358</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>37.00466979811061</v>
+        <v>38.34503424048371</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>7.648224830414325</v>
+        <v>8.553491108938104</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>48.16448155999005</v>
+        <v>50.75517221570643</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>52.89545631117201</v>
+        <v>54.9016590811493</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>59.63861862913444</v>
+        <v>60.53384050531082</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>59.39529741563707</v>
+        <v>61.32114670679671</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>64.26477151643124</v>
+        <v>65.64637215270648</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>11.52191714191318</v>
+        <v>13.44654638400804</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>34.89996391061673</v>
+        <v>36.52974819225295</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>46.71436103397552</v>
+        <v>48.00577704102201</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>13.04184351052204</v>
+        <v>14.77087299370976</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.52153432163375</v>
+        <v>32.97957719689378</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.37203770408243</v>
+        <v>35.63890400054301</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4.634122099346044</v>
+        <v>6.294923731444104</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.19213796741871</v>
+        <v>28.15974479896241</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>37.34219139979079</v>
+        <v>37.77121839603205</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.536514575805985</v>
+        <v>5.597464000326653</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>46.25758987175524</v>
+        <v>47.80169002727603</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3.631364113593072</v>
+        <v>5.639639389443783</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>16.28172419448283</v>
+        <v>17.59268369403286</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>23.83362178787399</v>
+        <v>26.32826212088151</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.8312556343881141</v>
+        <v>2.313936027209554</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>32.23841557056748</v>
+        <v>34.07557574136717</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>38.2953036980184</v>
+        <v>40.20003712964905</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1.411163130016295</v>
+        <v>3.648118542112826</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>46.27717129693064</v>
+        <v>48.70485145260967</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>51.73900761363613</v>
+        <v>53.95420048592171</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>50.1594803878222</v>
+        <v>51.9577794440593</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>51.61789383962585</v>
+        <v>53.87224892153259</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>59.86549257549565</v>
+        <v>61.5082051666049</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>9.446504172798544</v>
+        <v>12.21878568773254</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>24.37639638442434</v>
+        <v>26.82865915536252</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>51.46471180205541</v>
+        <v>52.01192168179067</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>9.014730355532752</v>
+        <v>10.51451754698494</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.88180083123092</v>
+        <v>28.39802702126179</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.20816523504497</v>
+        <v>36.15275151385217</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4.997457900060802</v>
+        <v>6.579204772701075</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>27.85863607721421</v>
+        <v>29.02727245411291</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>41.59473933761569</v>
+        <v>41.50036804037811</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.9550935603669082</v>
+        <v>2.450069171152947</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>41.64548590446968</v>
+        <v>42.57805327260458</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>23.00070887593258</v>
+        <v>23.67028571137663</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>19.50378039684909</v>
+        <v>20.86713379230837</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.29384595650673</v>
+        <v>34.17353728697926</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.50157875657333</v>
+        <v>36.9559631843639</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.794854697315888</v>
+        <v>8.375570296308769</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>14.22080614926162</v>
+        <v>17.1470937421958</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>22.27219052700964</v>
+        <v>24.00118013239801</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>13.54686732428147</v>
+        <v>14.66794558577981</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>22.74688428829573</v>
+        <v>24.21439072832549</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.09482817273557</v>
+        <v>34.79484570558533</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3.76906259709375</v>
+        <v>5.479913777665612</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>10.25811124550118</v>
+        <v>12.08463844985613</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>17.45724169372289</v>
+        <v>18.70392328199172</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2.381624268835125</v>
+        <v>3.808445232787722</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>19.73899171018761</v>
+        <v>21.86937130374163</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.42916578695002</v>
+        <v>41.223694736697</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>21.68690647133924</v>
+        <v>23.40232334936339</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.63307528550773</v>
+        <v>42.22877513951961</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>49.47083571701165</v>
+        <v>49.54868717851842</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4.752802133474574</v>
+        <v>6.551270066876569</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>19.12481858691099</v>
+        <v>20.93436283077072</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>32.27637328321651</v>
+        <v>33.75717333048304</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>59.13416358045339</v>
+        <v>58.39798928426223</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>60.50460503918931</v>
+        <v>59.79018357282379</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>65.44844673900539</v>
+        <v>64.93926947178878</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>63.92039824592835</v>
+        <v>63.77091263111468</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>26.31362922850532</v>
+        <v>27.2648734296448</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>62.67210902841461</v>
+        <v>61.23751160109266</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>65.06109619634806</v>
+        <v>64.11995215533017</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>30.57672671071798</v>
+        <v>30.78819359776388</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.80011655688166</v>
+        <v>41.76898687275941</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>44.78881232580746</v>
+        <v>44.57524455827706</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6.3029258122437</v>
+        <v>8.134265789745196</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>46.43274588265503</v>
+        <v>46.28835183959678</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>46.57818163499697</v>
+        <v>46.15516640413573</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>8.348764667906554</v>
+        <v>9.358826277299652</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>69.43892702379158</v>
+        <v>68.59209745217308</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.77803806336338</v>
+        <v>67.91196121734163</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>82.08856643498316</v>
+        <v>80.19121800904077</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>84.16510041840223</v>
+        <v>82.77451300611965</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>85.81385556715531</v>
+        <v>83.71770522979062</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>37.97424589489185</v>
+        <v>37.93952330676079</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>79.65226668448324</v>
+        <v>77.98740146975791</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>80.27406083752831</v>
+        <v>78.70663782740823</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>61.31166190598533</v>
+        <v>60.72810722333372</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>48.04923263746112</v>
+        <v>47.82794116048547</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>55.47219776458397</v>
+        <v>55.38152590920066</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>63.22721284602055</v>
+        <v>62.77901273206308</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>11.92476130419982</v>
+        <v>14.32801305824401</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>53.62169074742278</v>
+        <v>54.85608585664614</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>61.71898860392794</v>
+        <v>61.53195591681829</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>15.37921942239143</v>
+        <v>17.02774363566947</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.50615651521121</v>
+        <v>37.09297776599337</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>43.35637357478836</v>
+        <v>43.23826173392769</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>5.122240231300449</v>
+        <v>6.695069404626189</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.45615794180478</v>
+        <v>39.45572412729894</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>47.29398156804226</v>
+        <v>46.53214263907933</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>7.739266620330948</v>
+        <v>8.783123129455593</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>63.18501867512225</v>
+        <v>63.26335929146079</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>73.08401595290134</v>
+        <v>72.01715563766611</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>77.46122640495025</v>
+        <v>76.06578225425335</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>80.12894837617185</v>
+        <v>78.8128265571346</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>89.49111931703858</v>
+        <v>87.25409044268345</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>16.82972363747563</v>
+        <v>19.20859368119817</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>72.47655203638121</v>
+        <v>72.32974003294828</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>82.65402096367843</v>
+        <v>80.77636937654731</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>59.73490249963876</v>
+        <v>58.83995979353872</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.99104613937466</v>
+        <v>30.38930116987536</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.70109143532084</v>
+        <v>35.10162330192792</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.36027411765073</v>
+        <v>46.14776112227787</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>8.51382918263575</v>
+        <v>10.79241325057509</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>49.91754105682975</v>
+        <v>49.96165798029047</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>60.22866173182449</v>
+        <v>59.08876215372177</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>12.19980158242646</v>
+        <v>13.63968231806375</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.31539269801115</v>
+        <v>35.59704108276451</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.77589660949791</v>
+        <v>45.37394287204228</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>5.629868949348463</v>
+        <v>7.294706221951728</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>39.53885744913909</v>
+        <v>40.24591972970918</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50.54691408793055</v>
+        <v>49.66619811288164</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1.615675476674447</v>
+        <v>3.139270876887963</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>57.98782801925196</v>
+        <v>57.68895518852756</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>72.73586398444557</v>
+        <v>71.29228799833216</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>64.84250059414909</v>
+        <v>63.5458350293102</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>71.95149053970087</v>
+        <v>71.2333485045544</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>88.83268164272019</v>
+        <v>85.99065778193886</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>11.10283008893766</v>
+        <v>13.42822969332991</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>64.18852249279593</v>
+        <v>64.15927758179475</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>80.92287683643043</v>
+        <v>79.07212771452475</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>10.8601650880393</v>
+        <v>13.11972339486146</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>11.51187162127255</v>
+        <v>14.4943917461548</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.01450739696743</v>
+        <v>24.68878323272992</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.6394050999566225</v>
+        <v>3.724321229263911</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>18.75657421372557</v>
+        <v>17.6358554959954</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>20.81882624517979</v>
+        <v>19.50553937432507</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>5.333076031046541</v>
+        <v>7.750388653723014</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36.49399221722419</v>
+        <v>34.49931862823441</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>37.89962590449056</v>
+        <v>35.91149244432335</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>13.90398339355636</v>
+        <v>15.90437245941532</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>16.92456036424969</v>
+        <v>19.27957724125851</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>16.04383411534443</v>
+        <v>18.47730659075746</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>14.94807496074804</v>
+        <v>16.71393869334078</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>12.19406821501707</v>
+        <v>15.22644758006241</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>33.24288955275495</v>
+        <v>30.63844080274204</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>7.970000912660304</v>
+        <v>11.66835102171702</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>23.92315598268822</v>
+        <v>25.29705107183188</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>27.32985281275395</v>
+        <v>28.47704624553604</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-0.9789006095986394</v>
+        <v>2.520332592875555</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>8.29327304199305</v>
+        <v>11.27057526167511</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.19066790044013</v>
+        <v>15.49433924657565</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.9723944234948831</v>
+        <v>4.130058869116674</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>23.55576688447169</v>
+        <v>24.66301343400409</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>19.1076557691457</v>
+        <v>20.71305937236628</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.02051609982226</v>
+        <v>25.33396880698855</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26.29766637853884</v>
+        <v>27.80799757111634</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.2261130507425833</v>
+        <v>3.590289398440238</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.61727564460046</v>
+        <v>29.33310454418332</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.97490043801701</v>
+        <v>30.56871186259028</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>4.975243117409182</v>
+        <v>7.341537772312645</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>44.75945132386746</v>
+        <v>44.18063234535585</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>43.8497821954219</v>
+        <v>43.26713777873326</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>38.15761388626105</v>
+        <v>38.94688418341759</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>47.29756393014277</v>
+        <v>47.04601927911778</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>46.29539121809369</v>
+        <v>46.77605934758861</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>23.78968663877967</v>
+        <v>24.18144930785972</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>40.63769701437212</v>
+        <v>40.13528434239954</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>43.95150672826605</v>
+        <v>42.63110622182184</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>18.27109628047384</v>
+        <v>19.35870776921772</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.08835018943537</v>
+        <v>31.37244423523613</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.12261570970771</v>
+        <v>33.78087478707364</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-0.6241813164928942</v>
+        <v>3.097730545311084</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>27.7612759044999</v>
+        <v>29.49088638341862</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>32.53321933785444</v>
+        <v>33.44028799363528</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1.453546516547569</v>
+        <v>4.954279591865987</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>47.45753954060045</v>
+        <v>47.59776374072108</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>4.049287286846916</v>
+        <v>7.394419327671184</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>15.93924851748724</v>
+        <v>18.44571354359411</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>24.61815111146003</v>
+        <v>25.02335746225496</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-0.2122646714808418</v>
+        <v>3.231201439697276</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.14391655954926</v>
+        <v>28.77640907645618</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>30.06514038295153</v>
+        <v>29.94940399632916</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>5.026518008164452</v>
+        <v>7.752110389729811</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>45.02202930336689</v>
+        <v>43.65507214444882</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>47.75253143094316</v>
+        <v>45.78503286522631</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>46.98986376021558</v>
+        <v>45.34621344880942</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>50.53027430402844</v>
+        <v>49.68884905190238</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>57.28359223590194</v>
+        <v>54.92986121890803</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>1.824297523717508</v>
+        <v>6.477065177862702</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>23.4484175990675</v>
+        <v>25.83789212356583</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>31.87571735013453</v>
+        <v>31.88066103215759</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>10.2855091153038</v>
+        <v>12.59654175960442</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>26.63327366601777</v>
+        <v>28.65839372403555</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.63050437228573</v>
+        <v>32.70077448850066</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-0.7294700696564966</v>
+        <v>2.79517050186309</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>26.15343600925621</v>
+        <v>26.60395182496357</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>33.49891757229028</v>
+        <v>34.05337707646089</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>2.636107592919849</v>
+        <v>5.627146879374198</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>43.72762799851971</v>
+        <v>43.1447079300806</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>1.630634999506015</v>
+        <v>5.531928752309955</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>10.30613677792837</v>
+        <v>13.94385199214492</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.21295937345657</v>
+        <v>23.64217082662675</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-1.228010390560588</v>
+        <v>2.636706253964409</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>24.75760419499705</v>
+        <v>24.89486448316307</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>33.05761592438979</v>
+        <v>32.79938129114507</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-0.5599525654425115</v>
+        <v>3.555229424121187</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>40.37676266968861</v>
+        <v>39.79418311856404</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>46.73313993779832</v>
+        <v>44.98262488781195</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>42.65930966059965</v>
+        <v>40.94266119157074</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>46.72245038616478</v>
+        <v>45.19901773764622</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>52.60306719811591</v>
+        <v>50.60207370002186</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-1.080236803869951</v>
+        <v>4.655354412075329</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>19.88736714296124</v>
+        <v>22.8797718940102</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>36.81651568710294</v>
+        <v>35.39071193275385</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>5.422517478677694</v>
+        <v>8.546453915031702</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.4504567385477</v>
+        <v>25.60921195089656</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.97589097256208</v>
+        <v>30.71398662278653</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-1.506899540115029</v>
+        <v>2.617101405067604</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>22.40175802138542</v>
+        <v>23.46782412039919</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.79202318494707</v>
+        <v>31.22720582417092</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-0.6237000573612299</v>
+        <v>3.362201810369751</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.49990535633724</v>
+        <v>37.00611987962883</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.08486362812862</v>
+        <v>26.60520372872604</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.63755891596313</v>
+        <v>21.87890439402292</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>34.46809758853902</v>
+        <v>34.90325073377744</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.30132241895206</v>
+        <v>37.36206987185459</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>7.946244254768139</v>
+        <v>10.19783832340781</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>17.16984628300033</v>
+        <v>19.84581531323347</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.06613454424421</v>
+        <v>26.61324010831878</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>12.05945212371624</v>
+        <v>15.26790528517428</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.36952411601017</v>
+        <v>27.28328961622554</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.74747736053506</v>
+        <v>34.61594775759477</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-0.84296628834214</v>
+        <v>2.353803377251566</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>8.31049404892843</v>
+        <v>10.42562287316668</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>17.1134453996562</v>
+        <v>17.85171094387238</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>2.697666117685817</v>
+        <v>5.340219878791949</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.93168773085415</v>
+        <v>27.2821733437593</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>47.34252735211084</v>
+        <v>44.35162835341619</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.24150475550691</v>
+        <v>26.86286647581084</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>42.84734600160491</v>
+        <v>42.23313775263811</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>49.03839040187211</v>
+        <v>47.18340957287387</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>7.779246955465442</v>
+        <v>10.09742067402554</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.80087213407396</v>
+        <v>23.95900560243747</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>36.12849253805355</v>
+        <v>35.24958694571914</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>54.75238336984302</v>
+        <v>53.79591409330827</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>47.31988093632155</v>
+        <v>47.89317826757863</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>56.86328575438428</v>
+        <v>56.46406957428364</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>57.78079286572098</v>
+        <v>56.97769027298571</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.4228570534361</v>
+        <v>20.46063185231322</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>53.30880362277535</v>
+        <v>52.40110110598104</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>55.73577949660927</v>
+        <v>54.94183323080098</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>26.79163749253313</v>
+        <v>26.95280009716661</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.40510034441377</v>
+        <v>37.38296769219673</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>42.98429222841528</v>
+        <v>42.7842260155256</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.8297269683173276</v>
+        <v>4.531678791273766</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>39.40179072731546</v>
+        <v>39.51121221114695</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>43.48667805819183</v>
+        <v>42.80768798978589</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>7.110895493329146</v>
+        <v>9.559491541013426</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>63.27890757855663</v>
+        <v>61.13424196330152</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>67.13984680994091</v>
+        <v>64.38445761365807</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>70.49829973315489</v>
+        <v>68.04344867975395</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>77.17053868956778</v>
+        <v>73.97625926673788</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>81.08570196445025</v>
+        <v>76.94567725876534</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>31.91385087843913</v>
+        <v>32.11775507295923</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>71.60577207177853</v>
+        <v>69.17864551682965</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>74.89430850654831</v>
+        <v>71.87211459396286</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>55.27523963724096</v>
+        <v>54.5508062367736</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>41.99504329485595</v>
+        <v>42.46001191249094</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>47.77512059652791</v>
+        <v>48.69828579269524</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>55.45591076260688</v>
+        <v>55.34476143137096</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>9.592696324509863</v>
+        <v>12.5552023178331</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>46.58303028882447</v>
+        <v>46.81767483524104</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>51.7278748944062</v>
+        <v>52.0261770064963</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>15.3402555246597</v>
+        <v>17.27942845871835</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.84795923183224</v>
+        <v>34.84510108366823</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.10398219924839</v>
+        <v>41.61005050016915</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-0.3756728134519669</v>
+        <v>3.447020835963571</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>38.88428859425228</v>
+        <v>37.79287935720806</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>41.93652015422347</v>
+        <v>41.17155996360857</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>6.093937459481126</v>
+        <v>8.465816482720729</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>61.98983785223044</v>
+        <v>59.11450663739423</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>70.3679697046324</v>
+        <v>66.98093742389109</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>69.50790959784476</v>
+        <v>66.55841886152452</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>73.74520364527051</v>
+        <v>70.86079074356275</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>84.82910074198405</v>
+        <v>80.08775160957278</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>15.46274822011845</v>
+        <v>18.00084828705094</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>68.64357511290231</v>
+        <v>66.27305316739188</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>74.8144773663992</v>
+        <v>72.04462055990314</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>49.77564414355061</v>
+        <v>49.90508664300703</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>24.97460312678876</v>
+        <v>27.14134600725609</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>32.33325819536567</v>
+        <v>33.72845895452278</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>38.92515901958571</v>
+        <v>40.79113230380557</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.574166257119924</v>
+        <v>8.783022669987066</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>37.87594664003758</v>
+        <v>38.50708842065958</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>46.70683678161623</v>
+        <v>47.86275668334179</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>8.832856760222821</v>
+        <v>12.51979730874697</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.01288714259393</v>
+        <v>34.32295320855629</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42.59842658379949</v>
+        <v>42.01717850900482</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-0.6385168039824727</v>
+        <v>3.232604068264479</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>37.27601435246727</v>
+        <v>36.28908837539165</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>42.40796750935534</v>
+        <v>41.77557592229272</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.9275181413599114</v>
+        <v>4.56475659450814</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>58.3229404320683</v>
+        <v>55.61203544961808</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>68.7040161091797</v>
+        <v>65.52602783784064</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>62.53915278492701</v>
+        <v>59.40618221425954</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>69.21087699436325</v>
+        <v>66.1450523065503</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>80.94296328309287</v>
+        <v>76.49267372503766</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>7.819267510846359</v>
+        <v>11.41612310607584</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>65.69811315390152</v>
+        <v>62.72408793948593</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>74.34909333679379</v>
+        <v>71.32150576347578</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>12.07706275043087</v>
+        <v>14.76115852608606</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>12.20124426920514</v>
+        <v>14.96494740519756</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>27.34660892442098</v>
+        <v>28.32629742510397</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>2.937785472325228</v>
+        <v>5.51217971165643</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>18.14547753836738</v>
+        <v>20.24052036904006</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>21.47449086425835</v>
+        <v>23.57232951696174</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.5794752847615</v>
+        <v>9.761343892186929</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>42.18577216800941</v>
+        <v>41.22615986245269</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>44.90812699417648</v>
+        <v>43.44138734152938</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>14.62940536793586</v>
+        <v>16.90103743139532</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>17.68827576404587</v>
+        <v>19.87835354987233</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>18.20422029922475</v>
+        <v>20.00130525976004</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.64599654495012</v>
+        <v>25.75750945685138</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>23.71289978069691</v>
+        <v>23.90374696636835</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>37.77838683767931</v>
+        <v>38.06210338401204</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>16.99016819656315</v>
+        <v>17.89800963020955</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.39693020913097</v>
+        <v>29.61333946124478</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>34.02583430110273</v>
+        <v>33.78816957571885</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>6.025636908384154</v>
+        <v>8.087520962506265</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>15.65642851979129</v>
+        <v>16.95986787050987</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>20.27199089570269</v>
+        <v>20.98423672092967</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>3.771908755032992</v>
+        <v>6.0250209425019</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.41680818546555</v>
+        <v>25.55573724947286</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>25.14543097074962</v>
+        <v>25.36424642042129</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>35.0768648148505</v>
+        <v>33.77747297365886</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>35.09673990565514</v>
+        <v>34.13940867951602</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>2.83023052269581</v>
+        <v>5.500305716949406</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>39.49701056407253</v>
+        <v>38.26867410789249</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>40.28462746320832</v>
+        <v>38.75293498453242</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>6.94298218646653</v>
+        <v>9.304742427213515</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>57.87856883371596</v>
+        <v>54.2563505899541</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>53.5672182881375</v>
+        <v>51.0410011538233</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>47.63095659324386</v>
+        <v>46.30544754617988</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>56.02019787254502</v>
+        <v>53.62120047137466</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>57.59415024595435</v>
+        <v>54.92911418826733</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>37.01657691502025</v>
+        <v>37.09124099881052</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>43.30995798846646</v>
+        <v>44.79889578607076</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>44.89333487962797</v>
+        <v>46.49202268190267</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.89495129775867</v>
+        <v>26.38660727659424</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>42.77680191193129</v>
+        <v>40.66380164244197</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>41.36969749187289</v>
+        <v>40.17013518575509</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>6.1156550161155</v>
+        <v>8.861297115756912</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>41.02926279586245</v>
+        <v>39.45196178881627</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>42.57167432885145</v>
+        <v>40.87582582287963</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.06270146406009</v>
+        <v>9.031169305882134</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>62.77659812719564</v>
+        <v>58.27057446294396</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>7.827608589942436</v>
+        <v>10.33487241853886</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>24.59327103638418</v>
+        <v>24.73927014956896</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.23589236856258</v>
+        <v>29.36457971949462</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>1.883472023661049</v>
+        <v>4.550573897424258</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>33.88938617653044</v>
+        <v>33.83706067536328</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>38.27642695539601</v>
+        <v>37.06025528872397</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>6.99970947876194</v>
+        <v>9.485618575260041</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>54.34583888865198</v>
+        <v>51.56697331602874</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>57.06733940731067</v>
+        <v>54.20425627115112</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>58.21196146568117</v>
+        <v>55.25287793088523</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>64.4953531368168</v>
+        <v>60.52733993141221</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>69.12554857779853</v>
+        <v>64.55696527478787</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>16.33990155284746</v>
+        <v>17.373941379914</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>31.89182043347262</v>
+        <v>33.02392387904267</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>37.28514938225439</v>
+        <v>38.77264742503246</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>17.05289428690833</v>
+        <v>18.00383812037701</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>37.87691970640721</v>
+        <v>36.08961506098714</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>39.48166462398682</v>
+        <v>38.1703969861128</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>6.042113297236593</v>
+        <v>8.573680293132959</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.4419529409281</v>
+        <v>31.68825462772129</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>40.2195501868805</v>
+        <v>39.30753642554934</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>4.970469135692095</v>
+        <v>7.340668336096169</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>55.28150468438685</v>
+        <v>51.55851819207552</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>5.284379503843528</v>
+        <v>7.955347911776112</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>21.77658344917719</v>
+        <v>21.51842664589675</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.84357744722952</v>
+        <v>29.47024417390319</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>2.378571356044169</v>
+        <v>4.984760950479831</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.93942076041508</v>
+        <v>34.80887612752058</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>42.01782936287923</v>
+        <v>40.58134123665388</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>3.718403840621956</v>
+        <v>6.231875849517508</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>54.52128475378848</v>
+        <v>50.9370249652266</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>58.03430117870684</v>
+        <v>54.67007768918768</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>53.63292468975929</v>
+        <v>50.66218270463018</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>57.98958973610761</v>
+        <v>54.43838008609505</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>65.42617677963949</v>
+        <v>61.20275357435851</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>16.50733450595045</v>
+        <v>17.1331926966709</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>26.02076124944342</v>
+        <v>27.38839309211998</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>39.92790628106019</v>
+        <v>41.07048095861378</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>13.20678463278002</v>
+        <v>14.33753662623459</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>33.86034123854989</v>
+        <v>32.00655620179838</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>38.88341334884009</v>
+        <v>37.40614039818162</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>5.962297982863248</v>
+        <v>8.748109295783433</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>33.75366491845551</v>
+        <v>32.20328464729734</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>44.72295232389861</v>
+        <v>42.58213327298898</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.235818032024277</v>
+        <v>4.99459292150236</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>50.38797338028126</v>
+        <v>46.82420266063855</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.41973134296746</v>
+        <v>27.83402736640379</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.41636647738324</v>
+        <v>24.51343332696026</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>41.22835926749709</v>
+        <v>39.08881144704483</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>43.00763615585984</v>
+        <v>41.04357503974948</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>10.98625818692856</v>
+        <v>12.22838832381172</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>22.78903236511509</v>
+        <v>23.03008508593911</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>30.25699027899593</v>
+        <v>29.33254458092081</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>19.3136749638455</v>
+        <v>19.43373322733986</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.95469314555579</v>
+        <v>28.67907440596342</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>37.79232237895928</v>
+        <v>36.4671739466789</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>4.956552914714468</v>
+        <v>7.431244066197895</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>12.61670178396222</v>
+        <v>14.66596125228553</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.55956057211286</v>
+        <v>20.54089638199159</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>3.760598881256097</v>
+        <v>6.053872329266401</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25.75530179726811</v>
+        <v>25.85579856104442</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>45.25554013396592</v>
+        <v>43.43539173622911</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.58921402988101</v>
+        <v>26.48195949470126</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>45.86635376554337</v>
+        <v>44.07525460469302</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>51.89617770777512</v>
+        <v>49.57488367332709</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>9.728414209824873</v>
+        <v>11.14633361386535</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.46039896410694</v>
+        <v>24.78460918299445</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>38.38490513912713</v>
+        <v>36.87242735210026</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>64.46402889874581</v>
+        <v>60.49404179217546</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>65.64731438797661</v>
+        <v>60.96147250527454</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>71.58840478877744</v>
+        <v>66.82105107817861</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>71.00807799814204</v>
+        <v>66.50186870855379</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>30.08190953729266</v>
+        <v>29.04800415130632</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>68.64315444725892</v>
+        <v>63.55231721766479</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>71.09014959765656</v>
+        <v>66.17038767294298</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.55586109942027</v>
+        <v>31.66751580147697</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>45.3218997186305</v>
+        <v>43.51381435368943</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>46.65611773909252</v>
+        <v>45.27481943332549</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>7.062153476626687</v>
+        <v>9.991211587258679</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>48.1123803409646</v>
+        <v>46.32710211866625</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>47.99654361364711</v>
+        <v>46.39837968167762</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>8.553443919342413</v>
+        <v>10.82740625836113</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>72.58572596511611</v>
+        <v>68.12245494684969</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>71.18009240383404</v>
+        <v>67.61805734063351</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>82.46310153636885</v>
+        <v>77.17142441861645</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>85.0227196022401</v>
+        <v>79.89368354226912</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>87.21070179608135</v>
+        <v>81.78809132891962</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>41.58270104462974</v>
+        <v>39.55534218558287</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>82.82589657583691</v>
+        <v>77.4933276727439</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>82.8938212642724</v>
+        <v>77.76849033598826</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>67.05752189564389</v>
+        <v>62.73117345105474</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>55.29420366574136</v>
+        <v>51.3723114547595</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>63.41484848172962</v>
+        <v>59.06856095111113</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>70.86523228805149</v>
+        <v>65.82005120253328</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.12282023358691</v>
+        <v>21.01000868672401</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>62.58530682970088</v>
+        <v>58.52202594536367</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>68.50060011664968</v>
+        <v>63.75317039041532</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>20.59159951761028</v>
+        <v>21.2046094937465</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>40.6140212811886</v>
+        <v>39.16260859237281</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>44.95468690069826</v>
+        <v>43.94480829086389</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>5.855020681649879</v>
+        <v>8.71192222665772</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>38.53092389484797</v>
+        <v>38.44979970820597</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>44.27744083953018</v>
+        <v>44.03754431526855</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>8.876359647676594</v>
+        <v>10.73083237700831</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>66.20414757878535</v>
+        <v>62.74816563542352</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>74.43330656709573</v>
+        <v>70.50442644605259</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>76.38362012941995</v>
+        <v>72.10132285101288</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>81.61742207965924</v>
+        <v>76.49609341219178</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>89.05159778304574</v>
+        <v>83.89611374892522</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.37246779745806</v>
+        <v>26.59735692792509</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>79.25464422562733</v>
+        <v>73.61830462666791</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>83.90973994796339</v>
+        <v>78.47701411385442</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>63.7118005519017</v>
+        <v>59.66137822499557</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>36.29325481130007</v>
+        <v>34.68937125957231</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>42.33099802501892</v>
+        <v>39.93231978821488</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>53.53724772068207</v>
+        <v>50.39485723975852</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>16.62282439540267</v>
+        <v>16.86532520826304</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>56.92981919434941</v>
+        <v>52.63644908352085</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>65.72037211796305</v>
+        <v>60.61476946194261</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>18.50420541019894</v>
+        <v>18.63430394599896</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>40.41340893178152</v>
+        <v>38.28907675754382</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>47.6552058990805</v>
+        <v>45.67288893773083</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>6.924803152324017</v>
+        <v>9.487033857472994</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>42.87430262166636</v>
+        <v>41.45204665390357</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>49.95114078716124</v>
+        <v>48.16414598460213</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>3.928273442351774</v>
+        <v>6.168861392854879</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>62.85754635650454</v>
+        <v>59.11830811760546</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>73.78656134648739</v>
+        <v>69.5108714561689</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>68.65368946991995</v>
+        <v>64.23024569488368</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>76.26461382915844</v>
+        <v>70.90866820651931</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>86.56796177833053</v>
+        <v>81.34468643281528</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>22.02476385291516</v>
+        <v>21.12035362076696</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>72.83082449778439</v>
+        <v>67.33078134136761</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>83.07350802598199</v>
+        <v>77.46774633428575</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.89293184200686</v>
+        <v>14.31748907827098</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.09951868483687</v>
+        <v>16.27947413801901</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>18.49275774199042</v>
+        <v>21.7096610162932</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>3.764683744296903</v>
+        <v>7.79872767757044</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>9.744157560502472</v>
+        <v>13.30425275680755</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>10.48321603725261</v>
+        <v>14.27027451674326</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>7.210463595275147</v>
+        <v>10.59472078825024</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.4506685867847</v>
+        <v>24.66770467475428</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>23.47993999411604</v>
+        <v>26.48946414353645</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>13.25336485020965</v>
+        <v>16.34955657636646</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>16.18708444065895</v>
+        <v>19.30001246390763</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>15.8662031022895</v>
+        <v>19.05109492412686</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>8.999912652250678</v>
+        <v>14.0376633305962</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>10.06130866951288</v>
+        <v>14.88899380181042</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>16.55648134872223</v>
+        <v>20.98257882147717</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>11.0627551285972</v>
+        <v>14.55821415043647</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.63715375997917</v>
+        <v>23.26254919489257</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>24.77139238857204</v>
+        <v>26.64838005761721</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.145658403032357</v>
+        <v>7.000113057011735</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>7.360377722606717</v>
+        <v>11.89473227281083</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>11.20532231905524</v>
+        <v>15.17416234947143</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>3.629104136706214</v>
+        <v>7.732897407135802</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>17.14432002959796</v>
+        <v>20.77142885482202</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.58117317225189</v>
+        <v>19.3085584992433</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.54091507466465</v>
+        <v>23.97458222716146</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>21.40847029697395</v>
+        <v>24.29654975424116</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.166681628544485</v>
+        <v>7.426153937384715</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.89827500173197</v>
+        <v>24.74499132468808</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>23.40547830903399</v>
+        <v>25.87362520101592</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>5.185896263078881</v>
+        <v>9.425039512551418</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>32.44913443490762</v>
+        <v>34.58062730847875</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.93200552714688</v>
+        <v>34.18789313956498</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.35996036877079</v>
+        <v>32.80180242804872</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.59457628619621</v>
+        <v>38.80864527918806</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>37.71999176319414</v>
+        <v>39.28490904319771</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>13.35179218422166</v>
+        <v>18.20398900463573</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>32.49867891680731</v>
+        <v>34.27870085134283</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.46186323884653</v>
+        <v>35.88421825809561</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>14.22145763977697</v>
+        <v>17.34999793104592</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.79042103747862</v>
+        <v>28.67533854182485</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.21746502452261</v>
+        <v>31.07930565127025</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>3.019635771862646</v>
+        <v>7.332471376388362</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.95255493067259</v>
+        <v>27.21462587718363</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.73581222778427</v>
+        <v>30.92548215382824</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>3.3065251716774</v>
+        <v>8.207667329259596</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>40.65329922784667</v>
+        <v>41.115659043096</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>7.160218097520872</v>
+        <v>11.00534150910122</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>16.07846220462919</v>
+        <v>19.02183406859681</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>19.95867450792155</v>
+        <v>22.51082566770278</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>3.551058457480163</v>
+        <v>7.438969502186676</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.0903869109767</v>
+        <v>23.71958927999259</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>22.95330647283316</v>
+        <v>25.26126800760647</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>8.024876010181089</v>
+        <v>11.61650893517068</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>33.48032319019425</v>
+        <v>35.01317253475743</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.00478767913067</v>
+        <v>36.27211271356762</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>33.84530121016582</v>
+        <v>35.81953190429853</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>35.7488181787707</v>
+        <v>38.27972914003904</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>42.37937808629615</v>
+        <v>43.12410105876927</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>6.019987554251699</v>
+        <v>10.58556190854058</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>20.99840620317786</v>
+        <v>24.3840382182152</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>23.92098297750056</v>
+        <v>27.018495713145</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>9.422929935994652</v>
+        <v>13.08026454207723</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>22.28175215731816</v>
+        <v>25.70071854834668</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.99595316633833</v>
+        <v>30.25801062753911</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>3.126660110487396</v>
+        <v>7.132152032938375</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>19.8966368381719</v>
+        <v>22.86753230470718</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.96798453764748</v>
+        <v>31.28480467421911</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>5.261321408498841</v>
+        <v>9.17536248676187</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>32.13401352231653</v>
+        <v>34.54287427656802</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>5.254660607824434</v>
+        <v>9.389489186480759</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>12.27006955852959</v>
+        <v>15.94199567120201</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>17.94044988852861</v>
+        <v>21.42746787030979</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>2.220837862482806</v>
+        <v>6.644713214376658</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>13.91359767382621</v>
+        <v>18.18992232142652</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>24.39358207446321</v>
+        <v>26.73961881204729</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>3.019348763823587</v>
+        <v>7.424294634588843</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.48295002900896</v>
+        <v>29.55809862524035</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.48604232705934</v>
+        <v>35.12624277176683</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>27.11908665101829</v>
+        <v>29.88863875269012</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.96719027992291</v>
+        <v>32.90267229674451</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.15544972112215</v>
+        <v>38.14272391781703</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>4.156597620168977</v>
+        <v>9.30999318401949</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>20.45922580055151</v>
+        <v>23.34268129220491</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>27.84676139393682</v>
+        <v>29.58190121829594</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>6.523329434426451</v>
+        <v>10.63377613810049</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>19.40268047306785</v>
+        <v>22.44372834638724</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.84584819798159</v>
+        <v>27.61310507876183</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>2.746065038436896</v>
+        <v>6.926469515598097</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>17.18195842108053</v>
+        <v>20.46796500735122</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.57412784145023</v>
+        <v>28.49744724275936</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>2.463011977335885</v>
+        <v>7.002174604226745</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.84545420314429</v>
+        <v>29.41695556513821</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>19.68088929384778</v>
+        <v>22.75182394121396</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>17.10156379211933</v>
+        <v>20.40697437272203</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.5134342817201</v>
+        <v>30.33583738331499</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>30.77805021775478</v>
+        <v>32.19480639487693</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>7.129141421730893</v>
+        <v>11.06026083223236</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>13.17051498515059</v>
+        <v>17.49219229567694</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>18.95183999873148</v>
+        <v>22.42524781027979</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>13.6261429754323</v>
+        <v>16.9343153358995</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>24.88469874070009</v>
+        <v>26.24209738501575</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.73446474920835</v>
+        <v>31.09842751133595</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>3.409842363176171</v>
+        <v>6.884948840820606</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>8.280156822154829</v>
+        <v>11.83057619207632</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>13.20932382611139</v>
+        <v>16.42223225094566</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>5.278419485621416</v>
+        <v>8.840797937311983</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>21.62930413916909</v>
+        <v>23.55334773839924</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.67754829546032</v>
+        <v>35.27897508925028</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>22.28841956402327</v>
+        <v>24.42537160709924</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>34.8243842038019</v>
+        <v>35.98605942695607</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>39.14211476439627</v>
+        <v>39.56226364658229</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>8.203618516234741</v>
+        <v>11.8493221385034</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>18.83977734452581</v>
+        <v>21.66573209955849</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>27.99919269592744</v>
+        <v>29.68763997266689</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>47.7699711255523</v>
+        <v>46.89877579219625</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.8426663783395</v>
+        <v>40.95765436221175</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>49.344401871475</v>
+        <v>48.86347165535844</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>50.62788681463622</v>
+        <v>49.4720634357757</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>12.79751707482566</v>
+        <v>16.77711925380608</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>44.8046809755734</v>
+        <v>44.67645009738337</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>48.35535540242782</v>
+        <v>47.65755203882532</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>23.67729304070269</v>
+        <v>25.17812346149506</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>34.22310220505962</v>
+        <v>35.15864947560674</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>40.00536662490899</v>
+        <v>39.86996436623586</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>5.02456791149497</v>
+        <v>9.022048736041441</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>35.4328832766118</v>
+        <v>36.07739168638668</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>39.94618035149875</v>
+        <v>39.56371226343247</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>10.53726079120873</v>
+        <v>13.61195666163817</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>55.87565565701888</v>
+        <v>53.89068292559747</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>59.44803801290156</v>
+        <v>56.6869179152775</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>63.69412292129954</v>
+        <v>60.4440410899387</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>70.58120199242171</v>
+        <v>66.04999837810681</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>74.88609674801221</v>
+        <v>69.11847080673959</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.1393808126508</v>
+        <v>29.28063194865674</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>64.55056413119499</v>
+        <v>61.11161669498117</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>66.95957478686367</v>
+        <v>63.26187079779801</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>48.82490304160666</v>
+        <v>47.95931277626533</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>32.85977628763608</v>
+        <v>35.0435750507115</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>38.93425255547254</v>
+        <v>40.78864813727058</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>47.62449645311665</v>
+        <v>47.57191339259103</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>9.059292979625109</v>
+        <v>12.82482524403852</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>37.32233700565337</v>
+        <v>39.12950300300729</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>44.1977314729662</v>
+        <v>44.89056336940294</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>16.61506439610622</v>
+        <v>18.79230228171095</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.29707794636643</v>
+        <v>32.67994288395886</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>40.4134658408526</v>
+        <v>39.61010815316536</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>3.713655000434528</v>
+        <v>7.999583623887752</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.28436174315291</v>
+        <v>32.6540445625324</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>38.21503013418649</v>
+        <v>38.00222167596743</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>9.613305303644768</v>
+        <v>12.47145145369539</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>50.45854243007135</v>
+        <v>49.65608807135005</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>63.30536040284422</v>
+        <v>59.72150838209808</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>57.92135235719611</v>
+        <v>56.30832081692804</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>62.50823441398256</v>
+        <v>60.47997142011686</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>76.73169294751692</v>
+        <v>71.16410552138244</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>18.40059159486671</v>
+        <v>20.34212658307233</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>57.40164688099198</v>
+        <v>55.97183908886021</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>64.71532589630949</v>
+        <v>62.18201518144321</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.72221255674156</v>
+        <v>42.52183889228045</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>20.14065174195482</v>
+        <v>23.60062189576015</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>25.13324910434261</v>
+        <v>28.13306882958317</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>31.59208268822017</v>
+        <v>34.44671277833277</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>6.163806861337509</v>
+        <v>10.36523741712266</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>24.88632556664079</v>
+        <v>29.01781501537</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>37.59126692274172</v>
+        <v>39.69651936810021</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>11.19893295450006</v>
+        <v>14.98569323394927</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.55085753576791</v>
+        <v>31.45323420659455</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>39.37371634992513</v>
+        <v>38.95817127661226</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>3.326533381167859</v>
+        <v>7.728288927934869</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.21261973731953</v>
+        <v>31.25100845134978</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.24958090289204</v>
+        <v>37.84092221922401</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>4.094114861875322</v>
+        <v>8.601386278742044</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>45.73218144691354</v>
+        <v>45.35303060680705</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>60.51210486225568</v>
+        <v>57.50196569729692</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>49.8414452310994</v>
+        <v>48.87921150085521</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.0977017919224</v>
+        <v>54.33321475179209</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>71.51314419888701</v>
+        <v>66.9721940392462</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>10.44434331922427</v>
+        <v>14.15137055596842</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>52.22588711655463</v>
+        <v>51.33186984169834</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>63.25638970154255</v>
+        <v>60.78430715949432</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>23.40949036736144</v>
+        <v>22.3476423864424</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>16.67539634762752</v>
+        <v>16.98832380658616</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.48929306841693</v>
+        <v>35.25574492339577</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>8.871806715221648</v>
+        <v>8.836866112245783</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>37.53429177513817</v>
+        <v>34.20925090800082</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>41.40364606365861</v>
+        <v>38.77709647045695</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>13.39565459456263</v>
+        <v>13.29213991605638</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>57.02566288049047</v>
+        <v>54.01325938413655</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>59.65774814544482</v>
+        <v>56.52062835642086</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>17.37340817551009</v>
+        <v>17.89567890767764</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>20.7674666724669</v>
+        <v>21.08239571270809</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>20.68570987843988</v>
+        <v>20.96285169128004</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.33170274890826</v>
+        <v>33.29601515002614</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>16.49637470310735</v>
+        <v>18.58878064323946</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>43.34040761181691</v>
+        <v>42.96822972348546</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>18.31841795657754</v>
+        <v>18.7223996512114</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.83044202800111</v>
+        <v>29.92854625412308</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.53951710473541</v>
+        <v>38.42189975214182</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>30.81701707993772</v>
+        <v>25.75552294504579</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>36.27713388811768</v>
+        <v>32.89107578785524</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>38.44390893257183</v>
+        <v>35.32122107527163</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>5.325533333791117</v>
+        <v>6.150132174552265</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>22.79097109399732</v>
+        <v>23.63326526374463</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>31.71109660055401</v>
+        <v>29.52987062382679</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>34.9663403748824</v>
+        <v>34.23423200361356</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>38.0623516807031</v>
+        <v>37.35022908070503</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>8.033719155340872</v>
+        <v>8.356417066832794</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>55.91614687206116</v>
+        <v>52.42887520804813</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>54.30549225070604</v>
+        <v>51.0518011052656</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>10.22537483556054</v>
+        <v>11.06078060800666</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>60.44896945385955</v>
+        <v>58.81116797041803</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>58.90479476968494</v>
+        <v>57.05199802416018</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>58.02180906097262</v>
+        <v>55.45270790215405</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>61.3526159883983</v>
+        <v>59.27679766427979</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>60.91035143810613</v>
+        <v>59.19570465230713</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>59.16365147599601</v>
+        <v>55.31098117411134</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>67.7640601693934</v>
+        <v>63.4359744687655</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>71.1078514314863</v>
+        <v>66.48218985826085</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.69960012444895</v>
+        <v>29.09977272073851</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>38.98573837034067</v>
+        <v>39.73103732575832</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>38.25360172587681</v>
+        <v>39.57007758866266</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.69659865623016</v>
+        <v>27.11197289964279</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>52.28845440638324</v>
+        <v>49.62461161337217</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>48.89556809084908</v>
+        <v>46.98096223175305</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>6.732922187499465</v>
+        <v>8.11526122230352</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>56.63641505279503</v>
+        <v>56.355438875787</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>13.98538877332324</v>
+        <v>14.09955812903424</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.29689424014864</v>
+        <v>26.319552157349</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.937447001697</v>
+        <v>32.71212280700796</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>5.717998568949142</v>
+        <v>6.368831887376473</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>50.17083622468419</v>
+        <v>46.66014367866472</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>53.74010384055298</v>
+        <v>49.27925018142965</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>8.60040466545113</v>
+        <v>9.94704309897169</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>58.56154391580436</v>
+        <v>56.93823406267279</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>64.77213226914799</v>
+        <v>62.3118044399894</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>70.23049503571194</v>
+        <v>66.92748738869972</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>70.42231071475227</v>
+        <v>67.83049413431149</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>72.42318320167333</v>
+        <v>70.1898873267518</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>12.84223102933736</v>
+        <v>14.51792874063423</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>40.30300615302581</v>
+        <v>39.23385050883084</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>54.13714059455643</v>
+        <v>51.65831129802599</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>23.24960505506223</v>
+        <v>22.86943911643731</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.91470276511042</v>
+        <v>35.96185387813213</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>37.44743372510322</v>
+        <v>37.37404577106305</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>31.24224714033044</v>
+        <v>27.41784212170739</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>46.35520072802212</v>
+        <v>43.5369352215223</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>52.32583348256982</v>
+        <v>49.46840810288986</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>8.249720942654431</v>
+        <v>8.588475352105494</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>52.31926930856457</v>
+        <v>51.80215298944771</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>6.519438875464985</v>
+        <v>7.637330195938826</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>17.71380216879819</v>
+        <v>18.80217790876665</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.74208231945563</v>
+        <v>30.02959069951205</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>6.855837839623021</v>
+        <v>7.313747497674886</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>54.39703871079656</v>
+        <v>50.62626048057913</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>56.00576580595503</v>
+        <v>52.93087262192711</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>3.987105294826403</v>
+        <v>5.333170729344342</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>61.51368996940403</v>
+        <v>59.09797907576112</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>62.7938285163475</v>
+        <v>60.83801614244688</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>65.27679765939651</v>
+        <v>62.10241820794798</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>65.82688071662727</v>
+        <v>63.04984386133308</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>72.34595945500628</v>
+        <v>69.55413258592758</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>11.22579864295388</v>
+        <v>13.18795946451958</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>27.9451792502074</v>
+        <v>29.40861677490966</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>58.5965365321786</v>
+        <v>55.75049600873591</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>15.9848891456153</v>
+        <v>16.36392526636403</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>32.27345362359589</v>
+        <v>32.24508853781507</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>37.73748269580764</v>
+        <v>37.54224187479761</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>30.83487862918023</v>
+        <v>27.21428163878889</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>49.48630904091131</v>
+        <v>45.35030905736743</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>54.68229265831823</v>
+        <v>52.09577447033588</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>3.528887577535286</v>
+        <v>4.638409862203737</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>51.40952207423866</v>
+        <v>50.26752098348408</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.00170093230791</v>
+        <v>27.24317593602093</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.19645204309209</v>
+        <v>23.68638524896387</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>38.43822318959599</v>
+        <v>37.87432211010055</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>42.38985787929076</v>
+        <v>41.70985311023485</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>10.8396521657232</v>
+        <v>11.73212695482032</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>16.8664990768749</v>
+        <v>19.69095681934612</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.67930833571168</v>
+        <v>27.58388176511438</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>14.85517095591005</v>
+        <v>16.20745395559305</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>23.30030148295228</v>
+        <v>25.70086385422665</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.35943695761465</v>
+        <v>36.31509055975479</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>30.31821372619573</v>
+        <v>25.35749123194771</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>35.01699213872015</v>
+        <v>31.57576324728999</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>39.39483461039472</v>
+        <v>35.9801960921569</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>5.037264988661899</v>
+        <v>6.063008623801089</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.58036237009609</v>
+        <v>26.68763581007331</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>48.59480279190613</v>
+        <v>47.42423267630069</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.92774642106706</v>
+        <v>26.3538938082963</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>49.02364096553644</v>
+        <v>47.69786561121093</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>57.35106408996725</v>
+        <v>55.32744101137358</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>8.705383098983994</v>
+        <v>9.781734078390357</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>23.76152167424494</v>
+        <v>24.4794478413524</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>38.62111466660652</v>
+        <v>38.16743929200592</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>58.44106270284777</v>
+        <v>58.11159782410619</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>61.47156077914626</v>
+        <v>60.62708395780346</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>65.15757230355248</v>
+        <v>64.88459351682999</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>62.02467883139269</v>
+        <v>62.94113989737675</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>34.68944191272535</v>
+        <v>32.87702834250467</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>61.4025203843064</v>
+        <v>60.87161876985896</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>65.62530927508254</v>
+        <v>64.76323710617146</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.36244317153681</v>
+        <v>33.96180744169957</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>39.8270693913759</v>
+        <v>41.44530300220958</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.20573363189556</v>
+        <v>43.39436595798703</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.96757225751766</v>
+        <v>28.31215207904815</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>60.59398970872633</v>
+        <v>57.39998870648485</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>54.24028184292654</v>
+        <v>52.25705402058477</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>8.205769450680691</v>
+        <v>9.513838637819191</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>69.18519797330589</v>
+        <v>68.05386144199039</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>66.51296508968748</v>
+        <v>66.98763391526951</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>83.27265056381123</v>
+        <v>80.959194816899</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>83.47682321525468</v>
+        <v>81.50855302333507</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>84.46703820599926</v>
+        <v>83.42658293572651</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>45.06650008211062</v>
+        <v>43.10505999507514</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>79.03341386595591</v>
+        <v>77.47195536509501</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>80.28030832220013</v>
+        <v>78.6587124278764</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>65.34604018298518</v>
+        <v>63.01939380698112</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>53.49875748469933</v>
+        <v>52.51485899830826</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>57.96798692784488</v>
+        <v>57.43922705115655</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>61.81076786766403</v>
+        <v>61.60984002979553</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.39717516215379</v>
+        <v>26.62675705608188</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>56.74135392309854</v>
+        <v>57.22290514472906</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>63.79835356829592</v>
+        <v>62.95054711840125</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.04417536278966</v>
+        <v>25.57857680737561</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.34967431340309</v>
+        <v>38.42857711476791</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>43.28950938455579</v>
+        <v>43.1271130621384</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>32.88569913959425</v>
+        <v>28.2178266443136</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>56.9327866617521</v>
+        <v>53.26947363806096</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>58.51747617689449</v>
+        <v>55.34959734498099</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>12.00614162156074</v>
+        <v>12.09384790407562</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>68.58681581041613</v>
+        <v>66.79723362511936</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>74.51645845200341</v>
+        <v>72.68609939581017</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>83.38699809115658</v>
+        <v>80.19184629044149</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>81.81387488262047</v>
+        <v>79.34229864837394</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>88.48492980613308</v>
+        <v>86.08850613598719</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>32.77135302401774</v>
+        <v>31.83220873866743</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>75.86993297906649</v>
+        <v>74.38071966988468</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>83.33093345869034</v>
+        <v>80.64980103498657</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>60.99911888156005</v>
+        <v>59.94655145561435</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>32.38478665396199</v>
+        <v>33.06008377594947</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>37.91352030802208</v>
+        <v>38.58431559576335</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>47.0687091330651</v>
+        <v>47.39207951127489</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>17.5359182536053</v>
+        <v>18.89628347011753</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>55.90284095403949</v>
+        <v>54.74587295780883</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>62.16974952875988</v>
+        <v>59.99693953852485</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>19.66594414500771</v>
+        <v>19.89047092563987</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>37.77251423438113</v>
+        <v>37.78206433387773</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>44.98281490028945</v>
+        <v>45.12511802907004</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>33.19472018703333</v>
+        <v>29.22139051048467</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>58.74623767918921</v>
+        <v>55.18875445000155</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>62.9147207708543</v>
+        <v>59.54900208991857</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>4.149897073966692</v>
+        <v>5.382523932694102</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>67.20206188393263</v>
+        <v>64.90853036606718</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>72.20029780244803</v>
+        <v>70.64678476422233</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>79.00908054863991</v>
+        <v>75.207446421722</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>79.97885322326407</v>
+        <v>76.07157206168381</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>90.80947490991659</v>
+        <v>86.52767107409659</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>23.85715287485431</v>
+        <v>23.67690868594836</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>73.38715867577712</v>
+        <v>71.06275417669553</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>83.79028769467467</v>
+        <v>80.04727261384585</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.346</v>
+        <v>19.482</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.451</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.233</v>
+        <v>20.562</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.947</v>
+        <v>0.968</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.29019628110522</v>
+        <v>19.47257453718999</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.99902878387442</v>
+        <v>19.01491871359714</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.57009975222312</v>
+        <v>33.15067863515027</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.774692219040638</v>
+        <v>7.402774369286956</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.25372362066935</v>
+        <v>26.98687034581387</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.3812746277602</v>
+        <v>31.36796261345871</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.098956737285896</v>
+        <v>11.10482656087691</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>47.3710007646024</v>
+        <v>46.86468205959744</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>49.13618913620887</v>
+        <v>48.4977608989637</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>18.06739034972026</v>
+        <v>20.22128754199062</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>21.26691760084944</v>
+        <v>23.03646227992061</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>21.09701895687515</v>
+        <v>22.89296687083242</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.7832860921602</v>
+        <v>24.82557735552015</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>23.41693466745285</v>
+        <v>25.215147979592</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>52.78114583102053</v>
+        <v>51.09244486949905</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.67131480305342</v>
+        <v>18.67406976216949</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.13226373821109</v>
+        <v>29.26010361715748</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.55699721246005</v>
+        <v>34.39490167550553</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.191813707993912</v>
+        <v>9.785043360040071</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.3298883796792</v>
+        <v>17.22809309619759</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.11360022307818</v>
+        <v>20.30657251475554</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.822645865604304</v>
+        <v>8.082558682719931</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.7113221092753</v>
+        <v>23.29648258549225</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25.94572570791026</v>
+        <v>27.14813914344911</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31.5885909391341</v>
+        <v>32.0675709439388</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>33.42456170986576</v>
+        <v>34.46419492607516</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.021719949460106</v>
+        <v>7.922862826116628</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>38.38720381221246</v>
+        <v>38.91196246387298</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>37.3678702098664</v>
+        <v>38.07835824291308</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>8.899952999883169</v>
+        <v>11.81979951483638</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>52.34940348640813</v>
+        <v>51.93683835778477</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>51.34646539534305</v>
+        <v>50.99463980941134</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>47.47475183173128</v>
+        <v>46.88503149599764</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>51.5724966199477</v>
+        <v>50.84460256995183</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>53.71850808218866</v>
+        <v>52.58672932451373</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>43.9346626154878</v>
+        <v>43.3252010074866</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>57.11089608276999</v>
+        <v>54.97087994727187</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>60.69745007475649</v>
+        <v>57.89961206708912</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>25.03617850948844</v>
+        <v>26.63444951722921</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.48829585225852</v>
+        <v>38.09024074504834</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>37.99074544946902</v>
+        <v>37.55375628722062</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6.744587657195567</v>
+        <v>10.22804967519549</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>37.15214381712096</v>
+        <v>36.85169448073562</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>37.31228448401308</v>
+        <v>37.02221419128566</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6.383348188567101</v>
+        <v>9.887337356926917</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>54.25278105755515</v>
+        <v>52.0033574996916</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8.028136166849119</v>
+        <v>11.21436446466711</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.83520858023083</v>
+        <v>24.55704025715337</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.36938281939215</v>
+        <v>29.95670722216669</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2.347320391443724</v>
+        <v>6.948592493450246</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.80151278861358</v>
+        <v>35.71656380192994</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>38.34503424048371</v>
+        <v>38.76777820302703</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>8.553491108938104</v>
+        <v>12.40525121136999</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>50.75517221570643</v>
+        <v>50.7549904280128</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>54.9016590811493</v>
+        <v>53.79113023806339</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>60.53384050531082</v>
+        <v>58.46677090559413</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>61.32114670679671</v>
+        <v>59.63711134791758</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>65.64637215270648</v>
+        <v>63.37380333873202</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>13.44654638400804</v>
+        <v>16.36746134158966</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.52974819225295</v>
+        <v>37.21265614254132</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>48.00577704102201</v>
+        <v>47.54391842651602</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>14.77087299370976</v>
+        <v>17.55497501794751</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.97957719689378</v>
+        <v>33.69720411146027</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.63890400054301</v>
+        <v>35.85766234941013</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6.294923731444104</v>
+        <v>9.6101055826148</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.15974479896241</v>
+        <v>30.00121862341394</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>37.77121839603205</v>
+        <v>37.56090549822781</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5.597464000326653</v>
+        <v>9.351225116820029</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>47.80169002727603</v>
+        <v>47.49482419247752</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5.639639389443783</v>
+        <v>9.260235261291502</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>17.59268369403286</v>
+        <v>19.88958491360611</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>26.32826212088151</v>
+        <v>28.18711549287827</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2.313936027209554</v>
+        <v>7.056662478885524</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>34.07557574136717</v>
+        <v>35.25910096305246</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>40.20003712964905</v>
+        <v>40.61462526852991</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3.648118542112826</v>
+        <v>7.405305288846201</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>48.70485145260967</v>
+        <v>48.03965517646898</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>53.95420048592171</v>
+        <v>52.33734319397186</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>51.9577794440593</v>
+        <v>51.4908927567046</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>53.87224892153259</v>
+        <v>53.4127207141297</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>61.5082051666049</v>
+        <v>60.11473014201101</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.21878568773254</v>
+        <v>14.82617149553835</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>26.82865915536252</v>
+        <v>28.42726158888319</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>52.01192168179067</v>
+        <v>50.26610052716352</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>10.51451754698494</v>
+        <v>13.64530804936092</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.39802702126179</v>
+        <v>29.72396154837711</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.15275151385217</v>
+        <v>36.06150293276293</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.579204772701075</v>
+        <v>9.917080937521913</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.02727245411291</v>
+        <v>30.09470062435329</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>41.50036804037811</v>
+        <v>39.60210493112132</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2.450069171152947</v>
+        <v>6.949199931946243</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>42.57805327260458</v>
+        <v>42.46348711455073</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>23.67028571137663</v>
+        <v>26.45998551042884</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>20.86713379230837</v>
+        <v>23.16632513736402</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>34.17353728697926</v>
+        <v>34.66514570928782</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.9559631843639</v>
+        <v>37.29043451959092</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>8.375570296308769</v>
+        <v>12.38651527400652</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>17.1470937421958</v>
+        <v>19.87258696207552</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>24.00118013239801</v>
+        <v>26.18315813198547</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>14.66794558577981</v>
+        <v>17.21686810914695</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.21439072832549</v>
+        <v>26.0217404805346</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.79484570558533</v>
+        <v>35.18195814302908</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>5.479913777665612</v>
+        <v>9.661771190786407</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>12.08463844985613</v>
+        <v>15.30609317708259</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>18.70392328199172</v>
+        <v>21.36760386576034</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3.808445232787722</v>
+        <v>8.215066103021439</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>21.86937130374163</v>
+        <v>24.35826644472499</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>41.223694736697</v>
+        <v>41.78062751477115</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>23.40232334936339</v>
+        <v>25.23102230862764</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>42.22877513951961</v>
+        <v>42.07264531581295</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>49.54868717851842</v>
+        <v>48.43829754021064</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6.551270066876569</v>
+        <v>11.30338545621646</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>20.93436283077072</v>
+        <v>23.95252828870283</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>33.75717333048304</v>
+        <v>34.93575984670905</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>58.39798928426223</v>
+        <v>55.56840557021117</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>59.79018357282379</v>
+        <v>56.76455467519862</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>64.93926947178878</v>
+        <v>60.83186539168337</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>63.77091263111468</v>
+        <v>59.76981532805604</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>27.2648734296448</v>
+        <v>28.71528897346862</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>61.23751160109266</v>
+        <v>58.3627222981044</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>64.11995215533017</v>
+        <v>60.58338685536566</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>30.78819359776388</v>
+        <v>31.40470316553302</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.76898687275941</v>
+        <v>40.70805571021155</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>44.57524455827706</v>
+        <v>43.11669969761756</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>8.134265789745196</v>
+        <v>11.18579856540793</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>46.28835183959678</v>
+        <v>44.78862131104768</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>46.15516640413573</v>
+        <v>44.52487135122084</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>9.358826277299652</v>
+        <v>11.91407477036179</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>68.59209745217308</v>
+        <v>64.15748487914003</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.91196121734163</v>
+        <v>63.66404479734813</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>80.19121800904077</v>
+        <v>73.62993107877162</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>82.77451300611965</v>
+        <v>75.76001999814572</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>83.71770522979062</v>
+        <v>77.52322232573357</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>37.93952330676079</v>
+        <v>37.35385007916786</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>77.98740146975791</v>
+        <v>72.00249142424627</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>78.70663782740823</v>
+        <v>73.12434957600452</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>60.72810722333372</v>
+        <v>57.42520779449899</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>47.82794116048547</v>
+        <v>47.15679321562347</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>55.38152590920066</v>
+        <v>53.49125753502479</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>62.77901273206308</v>
+        <v>59.27951705388491</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>14.32801305824401</v>
+        <v>17.58924246303812</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>54.85608585664614</v>
+        <v>53.06146988361619</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>61.53195591681829</v>
+        <v>58.05504862701716</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>17.02774363566947</v>
+        <v>19.65546167431753</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>37.09297776599337</v>
+        <v>37.05267248818628</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>43.23826173392769</v>
+        <v>42.09535491786558</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>6.695069404626189</v>
+        <v>10.1273305490245</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>39.45572412729894</v>
+        <v>39.43218196801594</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>46.53214263907933</v>
+        <v>44.75544407922273</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>8.783123129455593</v>
+        <v>12.26319236615327</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>63.26335929146079</v>
+        <v>60.41770823271818</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>72.01715563766611</v>
+        <v>66.53381298825704</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>76.06578225425335</v>
+        <v>71.5332989820339</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>78.8128265571346</v>
+        <v>72.98856269439736</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>87.25409044268345</v>
+        <v>79.58015380531663</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>19.20859368119817</v>
+        <v>21.4588689017599</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>72.32974003294828</v>
+        <v>68.27618267265089</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>80.77636937654731</v>
+        <v>75.07468339626814</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>58.83995979353872</v>
+        <v>56.07056828566641</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.38930116987536</v>
+        <v>31.36741983263935</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>35.10162330192792</v>
+        <v>35.82379130780347</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>46.14776112227787</v>
+        <v>45.03142194680559</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>10.79241325057509</v>
+        <v>14.00415104561048</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>49.96165798029047</v>
+        <v>48.85796232725545</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>59.08876215372177</v>
+        <v>56.65469309588684</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>13.63968231806375</v>
+        <v>16.54157498884274</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.59704108276451</v>
+        <v>35.79338429160563</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.37394287204228</v>
+        <v>43.35286364004068</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>7.294706221951728</v>
+        <v>10.46057866540764</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40.24591972970918</v>
+        <v>39.36551049251217</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>49.66619811288164</v>
+        <v>46.64347409558209</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3.139270876887963</v>
+        <v>7.654318193382391</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>57.68895518852756</v>
+        <v>55.21968172957821</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>71.29228799833216</v>
+        <v>65.84826752590746</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>63.5458350293102</v>
+        <v>61.04220847959034</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>71.2333485045544</v>
+        <v>67.73866051587444</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>85.99065778193886</v>
+        <v>78.56114037285047</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>13.42822969332991</v>
+        <v>16.17783225326819</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>64.15927758179475</v>
+        <v>61.63907236950695</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>79.07212771452475</v>
+        <v>72.88910174412776</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13.11972339486146</v>
+        <v>18.99821506968367</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>14.4943917461548</v>
+        <v>20.11828987714997</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.68878323272992</v>
+        <v>26.86146521351741</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>3.724321229263911</v>
+        <v>12.1164234970661</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.6358554959954</v>
+        <v>21.54782085105985</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>19.50553937432507</v>
+        <v>22.79254403887484</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>7.750388653723014</v>
+        <v>15.02827644438459</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.49931862823441</v>
+        <v>33.48797164973919</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>35.91149244432335</v>
+        <v>34.76320246065308</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>15.90437245941532</v>
+        <v>21.12721002249857</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>19.27957724125851</v>
+        <v>23.68747162085705</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>18.47730659075746</v>
+        <v>23.21579230897651</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>16.71393869334078</v>
+        <v>21.55352761484948</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>15.22644758006241</v>
+        <v>20.80414981073297</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30.63844080274204</v>
+        <v>30.6753901624951</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>11.66835102171702</v>
+        <v>18.31288831914726</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.29705107183188</v>
+        <v>27.64796932699158</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.47704624553604</v>
+        <v>29.88750340605923</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>2.520332592875555</v>
+        <v>11.79750769531694</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>11.27057526167511</v>
+        <v>17.58409490523002</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>15.49433924657565</v>
+        <v>20.59371972809061</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>4.130058869116674</v>
+        <v>12.6214360157732</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>24.66301343400409</v>
+        <v>27.40932235773266</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>20.71305937236628</v>
+        <v>24.1662464510995</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.33396880698855</v>
+        <v>27.84933375847545</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>27.80799757111634</v>
+        <v>29.174754438364</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>3.590289398440238</v>
+        <v>12.25129478667466</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.33310454418332</v>
+        <v>30.55246432011305</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.56871186259028</v>
+        <v>31.00226127992158</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>7.341537772312645</v>
+        <v>14.46635174536967</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>44.18063234535585</v>
+        <v>41.25617791690019</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>43.26713777873326</v>
+        <v>40.19211758589432</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>38.94688418341759</v>
+        <v>37.60496136490629</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>47.04601927911778</v>
+        <v>43.56120892995857</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>46.77605934758861</v>
+        <v>43.42936707230383</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>24.18144930785972</v>
+        <v>26.69173443350719</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>40.13528434239954</v>
+        <v>38.86656782567285</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>42.63110622182184</v>
+        <v>40.27931637948961</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>19.35870776921772</v>
+        <v>23.13327197536915</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.37244423523613</v>
+        <v>31.70983873577988</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.78087478707364</v>
+        <v>33.57318314511111</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>3.097730545311084</v>
+        <v>11.82893610706888</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.49088638341862</v>
+        <v>30.75220992824567</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.44028799363528</v>
+        <v>33.24486668709892</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>4.954279591865987</v>
+        <v>12.88356197796251</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>47.59776374072108</v>
+        <v>43.82092658588554</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>7.394419327671184</v>
+        <v>15.03595719287348</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>18.44571354359411</v>
+        <v>23.16392948203168</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.02335746225496</v>
+        <v>27.32470776679713</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>3.231201439697276</v>
+        <v>11.76991723725118</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.77640907645618</v>
+        <v>29.8221538198198</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.94940399632916</v>
+        <v>30.97121147480669</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>7.752110389729811</v>
+        <v>14.93159658017126</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>43.65507214444882</v>
+        <v>40.82911947823901</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>45.78503286522631</v>
+        <v>42.01888699446664</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>45.34621344880942</v>
+        <v>41.98614983648447</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>49.68884905190238</v>
+        <v>45.07244186831264</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>54.92986121890803</v>
+        <v>48.47829228483107</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>6.477065177862702</v>
+        <v>14.64363662053972</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.83789212356583</v>
+        <v>28.78933025897346</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>31.88066103215759</v>
+        <v>32.86727340908845</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>12.59654175960442</v>
+        <v>18.761806096004</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.65839372403555</v>
+        <v>29.87869398208343</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.70077448850066</v>
+        <v>32.91487133023307</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>2.79517050186309</v>
+        <v>11.6642852377514</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>26.60395182496357</v>
+        <v>28.62186152717242</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>34.05337707646089</v>
+        <v>33.6124369314489</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>5.627146879374198</v>
+        <v>13.52442376043469</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>43.1447079300806</v>
+        <v>40.73873040424967</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>5.531928752309955</v>
+        <v>13.85496781727759</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>13.94385199214492</v>
+        <v>19.98464321004317</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>23.64217082662675</v>
+        <v>26.28040177749359</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>2.636706253964409</v>
+        <v>11.70362110563245</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>24.89486448316307</v>
+        <v>27.14172124794806</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>32.79938129114507</v>
+        <v>32.66146860733801</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>3.555229424121187</v>
+        <v>12.0182091563387</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.79418311856404</v>
+        <v>37.63608951235582</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>44.98262488781195</v>
+        <v>41.73068708719629</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>40.94266119157074</v>
+        <v>38.42000370020044</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>45.19901773764622</v>
+        <v>41.65986013665135</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>50.60207370002186</v>
+        <v>45.54520337083247</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>4.655354412075329</v>
+        <v>13.65392155896323</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>22.8797718940102</v>
+        <v>26.8069835520486</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>35.39071193275385</v>
+        <v>34.99635987565913</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>8.546453915031702</v>
+        <v>15.980976178464</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>25.60921195089656</v>
+        <v>27.89362222818752</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.71398662278653</v>
+        <v>31.23517394929898</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>2.617101405067604</v>
+        <v>11.66687659401031</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>23.46782412039919</v>
+        <v>26.35377568875257</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.22720582417092</v>
+        <v>31.9574890965733</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>3.362201810369751</v>
+        <v>12.04472699816843</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>37.00611987962883</v>
+        <v>36.05746282199016</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.60520372872604</v>
+        <v>28.67686807621414</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>21.87890439402292</v>
+        <v>25.31749708954682</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>34.90325073377744</v>
+        <v>34.4256944572988</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.36206987185459</v>
+        <v>36.34068021537395</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>10.19783832340781</v>
+        <v>17.16204580653629</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.84581531323347</v>
+        <v>23.56715525998496</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.61324010831878</v>
+        <v>28.58847787476742</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>15.26790528517428</v>
+        <v>20.5087824353686</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>27.28328961622554</v>
+        <v>29.08940449063556</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.61594775759477</v>
+        <v>34.10592678678625</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>2.353803377251566</v>
+        <v>11.71462942013006</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>10.42562287316668</v>
+        <v>16.99571401597248</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>17.85171094387238</v>
+        <v>22.07688511880904</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>5.340219878791949</v>
+        <v>12.98813303976119</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.2821733437593</v>
+        <v>28.77749124294922</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>44.35162835341619</v>
+        <v>41.01688044074149</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.86286647581084</v>
+        <v>28.82138702510201</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>42.23313775263811</v>
+        <v>39.8027512127533</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>47.18340957287387</v>
+        <v>43.27771854701899</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>10.09742067402554</v>
+        <v>16.76097830097387</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.95900560243747</v>
+        <v>26.64441842805797</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>35.24958694571914</v>
+        <v>34.76269590760563</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>53.79591409330827</v>
+        <v>48.15410305889774</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>47.89317826757863</v>
+        <v>44.1703093657428</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>56.46406957428364</v>
+        <v>50.28869593913272</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>56.97769027298571</v>
+        <v>50.51060993402607</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>20.46063185231322</v>
+        <v>23.98221303746305</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>52.40110110598104</v>
+        <v>47.40582056175742</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>54.94183323080098</v>
+        <v>49.03780392517628</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>26.95280009716661</v>
+        <v>28.58088147850141</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>37.38296769219673</v>
+        <v>35.94106238499691</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>42.7842260155256</v>
+        <v>39.80107229863564</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>4.531678791273766</v>
+        <v>12.61065143053351</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>39.51121221114695</v>
+        <v>37.60082000594013</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>42.80768798978589</v>
+        <v>39.70456994058729</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>9.559491541013426</v>
+        <v>15.8385897981244</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>61.13424196330152</v>
+        <v>53.40125793767332</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>64.38445761365807</v>
+        <v>55.34800959994828</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>68.04344867975395</v>
+        <v>58.39346006504298</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>73.97625926673788</v>
+        <v>62.323123407244</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>76.94567725876534</v>
+        <v>64.38242793882813</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>32.11775507295923</v>
+        <v>32.31227552121196</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>69.17864551682965</v>
+        <v>59.25430174677037</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>71.87211459396286</v>
+        <v>61.07797805783848</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>54.5508062367736</v>
+        <v>48.88336348429588</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>42.46001191249094</v>
+        <v>40.37387684012449</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>48.69828579269524</v>
+        <v>44.91011268337743</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>55.34476143137096</v>
+        <v>49.51057313186732</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>12.5552023178331</v>
+        <v>18.87037996315418</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>46.81767483524104</v>
+        <v>43.51343797800139</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>52.0261770064963</v>
+        <v>47.26784879591413</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.27942845871835</v>
+        <v>21.79886817777315</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.84510108366823</v>
+        <v>34.59835514437788</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>41.61005050016915</v>
+        <v>38.9964801675806</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>3.447020835963571</v>
+        <v>11.89359519731528</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>37.79287935720806</v>
+        <v>36.18969617642981</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>41.17155996360857</v>
+        <v>38.75669056053079</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>8.465816482720729</v>
+        <v>15.70545170547091</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>59.11450663739423</v>
+        <v>52.08447429961829</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>66.98093742389109</v>
+        <v>57.40023758557791</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>66.55841886152452</v>
+        <v>57.24393445578357</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>70.86079074356275</v>
+        <v>60.73688411207803</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>80.08775160957278</v>
+        <v>66.77060951432628</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>18.00084828705094</v>
+        <v>22.45798063621266</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>66.27305316739188</v>
+        <v>57.41067096743967</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>72.04462055990314</v>
+        <v>61.15701525091484</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>49.90508664300703</v>
+        <v>45.41768630222069</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.14134600725609</v>
+        <v>29.1747453409894</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>33.72845895452278</v>
+        <v>33.66527935798612</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>40.79113230380557</v>
+        <v>39.26450079428861</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>8.783022669987066</v>
+        <v>16.38046395646669</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>38.50708842065958</v>
+        <v>37.40963833826367</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>47.86275668334179</v>
+        <v>43.91797915944478</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>12.51979730874697</v>
+        <v>18.33757907641016</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.32295320855629</v>
+        <v>34.21100014153977</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42.01717850900482</v>
+        <v>39.0748925851139</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>3.232604068264479</v>
+        <v>11.86192084472794</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.28908837539165</v>
+        <v>35.44923942688191</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>41.77557592229272</v>
+        <v>39.30813685629854</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>4.56475659450814</v>
+        <v>12.71395105790174</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>55.61203544961808</v>
+        <v>49.25349418325537</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>65.52602783784064</v>
+        <v>55.90079892132051</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>59.40618221425954</v>
+        <v>52.13480857186806</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>66.1450523065503</v>
+        <v>56.79884729533006</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>76.49267372503766</v>
+        <v>64.30132852522271</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>11.41612310607584</v>
+        <v>17.69625538832385</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>62.72408793948593</v>
+        <v>54.4639034525476</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>71.32150576347578</v>
+        <v>60.71256487120317</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>14.76115852608606</v>
+        <v>19.4051040390997</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>14.96494740519756</v>
+        <v>19.50754488419032</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.32629742510397</v>
+        <v>29.57029367328566</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>5.51217971165643</v>
+        <v>12.20597329450073</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>20.24052036904006</v>
+        <v>23.49839223212411</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>23.57232951696174</v>
+        <v>25.95792636139591</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>9.761343892186929</v>
+        <v>15.34907912906765</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>41.22615986245269</v>
+        <v>39.43949587706263</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>43.44138734152938</v>
+        <v>41.09838430373198</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>16.90103743139532</v>
+        <v>20.91124684632545</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>19.87835354987233</v>
+        <v>23.32859076070798</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>20.00130525976004</v>
+        <v>23.44703875018919</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.75750945685138</v>
+        <v>27.66191408382018</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>23.90374696636835</v>
+        <v>26.22459637245154</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>38.06210338401204</v>
+        <v>37.41756427521427</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>17.89800963020955</v>
+        <v>21.74277755092536</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.61333946124478</v>
+        <v>30.45655304173162</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>33.78816957571885</v>
+        <v>33.57116592565247</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>8.087520962506265</v>
+        <v>14.35855513008605</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>16.95986787050987</v>
+        <v>20.71548161192421</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>20.98423672092967</v>
+        <v>24.04825152024673</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>6.0250209425019</v>
+        <v>12.8539784986585</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.55573724947286</v>
+        <v>27.25645768223414</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>25.36424642042129</v>
+        <v>27.21388573009029</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.77747297365886</v>
+        <v>33.41797114265192</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>34.13940867951602</v>
+        <v>33.75238543759706</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>5.500305716949406</v>
+        <v>12.48816786128093</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>38.26867410789249</v>
+        <v>37.15066579895414</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.75293498453242</v>
+        <v>37.3876421353385</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>9.304742427213515</v>
+        <v>14.90598396759975</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>54.2563505899541</v>
+        <v>49.28205009572477</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>51.0410011538233</v>
+        <v>46.86718151990497</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>46.30544754617988</v>
+        <v>43.29765816538519</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>53.62120047137466</v>
+        <v>48.91347795924391</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>54.92911418826733</v>
+        <v>49.92255840713764</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>37.09124099881052</v>
+        <v>36.56323479422183</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>44.79889578607076</v>
+        <v>42.92621249733195</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>46.49202268190267</v>
+        <v>43.93391137935756</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.38660727659424</v>
+        <v>27.79716532911007</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>40.66380164244197</v>
+        <v>38.47796513011081</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>40.17013518575509</v>
+        <v>38.13031274649521</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>8.861297115756912</v>
+        <v>14.73269004929634</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>39.45196178881627</v>
+        <v>37.45593149411543</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>40.87582582287963</v>
+        <v>38.76603508923679</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>9.031169305882134</v>
+        <v>14.89041651096228</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>58.27057446294396</v>
+        <v>51.53052010499228</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>10.33487241853886</v>
+        <v>15.85170078291488</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>24.73927014956896</v>
+        <v>26.76002732937749</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.36457971949462</v>
+        <v>30.25005529598164</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>4.550573897424258</v>
+        <v>11.88860490729524</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>33.83706067536328</v>
+        <v>33.64776577603482</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>37.06025528872397</v>
+        <v>36.25721548280509</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>9.485618575260041</v>
+        <v>15.55097843422157</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>51.56697331602874</v>
+        <v>47.44947207278963</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>54.20425627115112</v>
+        <v>49.15790911106886</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>55.25287793088523</v>
+        <v>50.15264652115503</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>60.52733993141221</v>
+        <v>54.04753049424511</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>64.55696527478787</v>
+        <v>56.94073581379731</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.373941379914</v>
+        <v>21.58844221721282</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>33.02392387904267</v>
+        <v>33.68233553642129</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>38.77264742503246</v>
+        <v>38.50811785461809</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>18.00383812037701</v>
+        <v>21.46692407186145</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>36.08961506098714</v>
+        <v>35.02133913210763</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>38.1703969861128</v>
+        <v>36.75869308865121</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>8.573680293132959</v>
+        <v>14.21639421953332</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>31.68825462772129</v>
+        <v>31.8385630455317</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>39.30753642554934</v>
+        <v>37.69441430815001</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>7.340668336096169</v>
+        <v>13.51934462230735</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>51.55851819207552</v>
+        <v>46.7579031304828</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>7.955347911776112</v>
+        <v>14.12176024635588</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>21.51842664589675</v>
+        <v>24.34609255374825</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.47024417390319</v>
+        <v>30.17932672149577</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>4.984760950479831</v>
+        <v>12.07165224613903</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>34.80887612752058</v>
+        <v>34.3731759788599</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>40.58134123665388</v>
+        <v>38.69574929243127</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>6.231875849517508</v>
+        <v>12.60814864504366</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>50.9370249652266</v>
+        <v>46.37993160823357</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>54.67007768918768</v>
+        <v>49.13865132868182</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>50.66218270463018</v>
+        <v>46.40788053081344</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>54.43838008609505</v>
+        <v>49.28561292108054</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>61.20275357435851</v>
+        <v>54.39629461320023</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>17.1331926966709</v>
+        <v>20.87429863287916</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.38839309211998</v>
+        <v>29.07890564527823</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>41.07048095861378</v>
+        <v>39.7096847203352</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>14.33753662623459</v>
+        <v>18.75581337572382</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>32.00655620179838</v>
+        <v>31.94869881867943</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>37.40614039818162</v>
+        <v>36.0964466175494</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>8.748109295783433</v>
+        <v>14.55846479287563</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>32.20328464729734</v>
+        <v>32.09737603463199</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>42.58213327298898</v>
+        <v>39.40981100720767</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>4.99459292150236</v>
+        <v>11.97469232919307</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>46.82420266063855</v>
+        <v>43.05665831873439</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.83402736640379</v>
+        <v>28.98038897318306</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.51343332696026</v>
+        <v>26.62711792789081</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>39.08881144704483</v>
+        <v>37.25306469846701</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>41.04357503974948</v>
+        <v>39.04068603652379</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>12.22838832381172</v>
+        <v>17.26441861434133</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>23.03008508593911</v>
+        <v>25.00485445129135</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.33254458092081</v>
+        <v>30.07941687871179</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>19.43373322733986</v>
+        <v>22.46827967471646</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.67907440596342</v>
+        <v>29.50623081467254</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>36.4671739466789</v>
+        <v>35.33689986886462</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>7.431244066197895</v>
+        <v>14.36254329039413</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>14.66596125228553</v>
+        <v>19.0633032493305</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>20.54089638199159</v>
+        <v>23.41381969344348</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>6.053872329266401</v>
+        <v>12.99603355895577</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25.85579856104442</v>
+        <v>27.47403211204593</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>43.43539173622911</v>
+        <v>40.78876790246107</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.48195949470126</v>
+        <v>27.90231731547352</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>44.07525460469302</v>
+        <v>41.27942889715234</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>49.57488367332709</v>
+        <v>45.48142768816783</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>11.14633361386535</v>
+        <v>16.78134808798755</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.78460918299445</v>
+        <v>26.75727015907964</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>36.87242735210026</v>
+        <v>35.95395023913974</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>60.49404179217546</v>
+        <v>53.64643936732823</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>60.96147250527454</v>
+        <v>53.62066493101127</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>66.82105107817861</v>
+        <v>58.21533546075224</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>66.50186870855379</v>
+        <v>57.98859576620265</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.04800415130632</v>
+        <v>29.85679337202817</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>63.55231721766479</v>
+        <v>55.98598083795218</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>66.17038767294298</v>
+        <v>57.89552623959752</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>31.66751580147697</v>
+        <v>31.88699582536338</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>43.51381435368943</v>
+        <v>40.45321861953687</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>45.27481943332549</v>
+        <v>41.92311412406978</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>9.991211587258679</v>
+        <v>15.46950821507156</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>46.32710211866625</v>
+        <v>42.96420649510927</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>46.39837968167762</v>
+        <v>43.00598257986038</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>10.82740625836113</v>
+        <v>15.97869585877325</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>68.12245494684969</v>
+        <v>59.49436413370969</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>67.61805734063351</v>
+        <v>59.0249531335134</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>77.17142441861645</v>
+        <v>65.88216302606962</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>79.89368354226912</v>
+        <v>68.04117975144109</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>81.78809132891962</v>
+        <v>69.96214709644552</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>39.55534218558287</v>
+        <v>37.97090976469811</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>77.4933276727439</v>
+        <v>66.44734110052104</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>77.76849033598826</v>
+        <v>66.9183570227528</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>62.73117345105474</v>
+        <v>55.18456792346835</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>51.3723114547595</v>
+        <v>46.65690071744689</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>59.06856095111113</v>
+        <v>52.41279503101056</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>65.82005120253328</v>
+        <v>57.64648800190075</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.01000868672401</v>
+        <v>23.76826224101146</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>58.52202594536367</v>
+        <v>51.90119952231363</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>63.75317039041532</v>
+        <v>55.33075310148253</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>21.2046094937465</v>
+        <v>23.96608987922279</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>39.16260859237281</v>
+        <v>37.49589869142523</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>43.94480829086389</v>
+        <v>41.21147078013033</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>8.71192222665772</v>
+        <v>14.74888956013499</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>38.44979970820597</v>
+        <v>37.06679131408341</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>44.03754431526855</v>
+        <v>41.41888910692676</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>10.73083237700831</v>
+        <v>16.26199879023154</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>62.74816563542352</v>
+        <v>55.40212559088158</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>70.50442644605259</v>
+        <v>60.86241778218839</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>72.10132285101288</v>
+        <v>62.67250108351657</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>76.49609341219178</v>
+        <v>65.49691694554583</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>83.89611374892522</v>
+        <v>71.06336215752606</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>26.59735692792509</v>
+        <v>28.04130651196741</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>73.61830462666791</v>
+        <v>63.48234588783578</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>78.47701411385442</v>
+        <v>67.41742457940043</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>59.66137822499557</v>
+        <v>53.01373383629738</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>34.68937125957231</v>
+        <v>34.02717233332197</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>39.93231978821488</v>
+        <v>37.84395149832898</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>50.39485723975852</v>
+        <v>45.56621437540674</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>16.86532520826304</v>
+        <v>20.59437077425427</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>52.63644908352085</v>
+        <v>47.50226148263328</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>60.61476946194261</v>
+        <v>53.64145945335081</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>18.63430394599896</v>
+        <v>22.07340054256913</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>38.28907675754382</v>
+        <v>36.77952798765867</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>45.67288893773083</v>
+        <v>42.10719201687865</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>9.487033857472994</v>
+        <v>15.1122703758374</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>41.45204665390357</v>
+        <v>39.06283430893237</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>48.16414598460213</v>
+        <v>43.85769567365297</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>6.168861392854879</v>
+        <v>12.85975811508985</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>59.11830811760546</v>
+        <v>52.60192084278649</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>69.5108714561689</v>
+        <v>60.22299241371256</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>64.23024569488368</v>
+        <v>56.71586181650524</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>70.90866820651931</v>
+        <v>61.71672148576907</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>81.34468643281528</v>
+        <v>69.30496851950826</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>21.12035362076696</v>
+        <v>23.7318360192734</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>67.33078134136761</v>
+        <v>58.92285475511814</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>77.46774633428575</v>
+        <v>66.20232794843591</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>14.31748907827098</v>
+        <v>20.92557748260067</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.27947413801901</v>
+        <v>22.33526297621441</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>21.7096610162932</v>
+        <v>25.81442665605719</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>7.79872767757044</v>
+        <v>16.42808902315013</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>13.30425275680755</v>
+        <v>20.482283175757</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>14.27027451674326</v>
+        <v>21.10778149799968</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>10.59472078825024</v>
+        <v>18.30937328333753</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.66770467475428</v>
+        <v>27.97989382835426</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.48946414353645</v>
+        <v>29.29639168369935</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>16.34955657636646</v>
+        <v>22.57815139553818</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>19.30001246390763</v>
+        <v>24.61228124127918</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>19.05109492412686</v>
+        <v>24.45330195414749</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>14.0376633305962</v>
+        <v>20.96085960110785</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>14.88899380181042</v>
+        <v>21.72080007550156</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>20.98257882147717</v>
+        <v>25.67788297328616</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>14.55821415043647</v>
+        <v>21.21230450387213</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.26254919489257</v>
+        <v>26.95207569323603</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.64838005761721</v>
+        <v>29.00028169469675</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>7.000113057011735</v>
+        <v>16.23234894891183</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>11.89473227281083</v>
+        <v>19.40169230333592</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.17416234947143</v>
+        <v>21.50986571968851</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.732897407135802</v>
+        <v>16.51201614823574</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>20.77142885482202</v>
+        <v>25.65106669339711</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>19.3085584992433</v>
+        <v>24.08815495014203</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.97458222716146</v>
+        <v>27.41832824408434</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.29654975424116</v>
+        <v>27.57360603377987</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>7.426153937384715</v>
+        <v>16.46482658359784</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>24.74499132468808</v>
+        <v>28.09323626693981</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.87362520101592</v>
+        <v>28.61990481246765</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>9.425039512551418</v>
+        <v>17.5405978919928</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>34.58062730847875</v>
+        <v>34.84189896438106</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>34.18789313956498</v>
+        <v>34.47110744379798</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>32.80180242804872</v>
+        <v>33.54697960476331</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>38.80864527918806</v>
+        <v>37.44060415600578</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>39.28490904319771</v>
+        <v>37.9759293632596</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>18.20398900463573</v>
+        <v>23.75343208219922</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>34.27870085134283</v>
+        <v>34.57167972447872</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.88421825809561</v>
+        <v>35.51972777573305</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>17.34999793104592</v>
+        <v>22.86767338503259</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.67533854182485</v>
+        <v>30.16362039611224</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.07930565127025</v>
+        <v>31.84432429620605</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>7.332471376388362</v>
+        <v>16.23942628474618</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.21462587718363</v>
+        <v>29.44652487565123</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.92548215382824</v>
+        <v>31.66822949596754</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>8.207667329259596</v>
+        <v>16.67882722867485</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>41.115659043096</v>
+        <v>38.74969441845052</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>11.00534150910122</v>
+        <v>18.62411809885928</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>19.02183406859681</v>
+        <v>24.22380643924732</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.51082566770278</v>
+        <v>26.37568058607942</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>7.438969502186676</v>
+        <v>16.18356293558195</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>23.71958927999259</v>
+        <v>27.28035056283318</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.26126800760647</v>
+        <v>28.49763590610093</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>11.61650893517068</v>
+        <v>18.82981266309807</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>35.01317253475743</v>
+        <v>35.08075425590477</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.27211271356762</v>
+        <v>35.68495203513159</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>35.81953190429853</v>
+        <v>35.61832682265504</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>38.27972914003904</v>
+        <v>37.3868415869931</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>43.12410105876927</v>
+        <v>40.21723544266611</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>10.58556190854058</v>
+        <v>18.58754762180934</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>24.3840382182152</v>
+        <v>28.07596109779544</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.018495713145</v>
+        <v>29.9652184939131</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>13.08026454207723</v>
+        <v>20.32559625579835</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.70071854834668</v>
+        <v>28.38451903874331</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.25801062753911</v>
+        <v>31.34792811605837</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>7.132152032938375</v>
+        <v>16.16624230988484</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>22.86753230470718</v>
+        <v>26.85243729940748</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.28480467421911</v>
+        <v>31.97662139265787</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>9.17536248676187</v>
+        <v>17.41069800740445</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>34.54287427656802</v>
+        <v>34.90479807743554</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>9.389489186480759</v>
+        <v>17.88816240029145</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>15.94199567120201</v>
+        <v>22.16213276148012</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.42746787030979</v>
+        <v>25.59297859494404</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>6.644713214376658</v>
+        <v>16.11274460053141</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>18.18992232142652</v>
+        <v>23.87093097171883</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>26.73961881204729</v>
+        <v>29.32242531944814</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>7.424294634588843</v>
+        <v>16.32468373574714</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.55809862524035</v>
+        <v>31.4641394770972</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>35.12624277176683</v>
+        <v>35.25703123865883</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.88863875269012</v>
+        <v>31.65676724226506</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>32.90267229674451</v>
+        <v>33.82997013234816</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>38.14272391781703</v>
+        <v>37.21797191631119</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>9.30999318401949</v>
+        <v>17.94319356340167</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>23.34268129220491</v>
+        <v>27.2605383999658</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.58190121829594</v>
+        <v>31.24668593526924</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>10.63377613810049</v>
+        <v>18.6362420356544</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>22.44372834638724</v>
+        <v>26.45029987517787</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.61310507876183</v>
+        <v>29.6069995923926</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>6.926469515598097</v>
+        <v>16.17704761573676</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>20.46796500735122</v>
+        <v>25.18967062571554</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.49744724275936</v>
+        <v>30.39042975959098</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>7.002174604226745</v>
+        <v>16.25401543561592</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.41695556513821</v>
+        <v>31.23106804511934</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>22.75182394121396</v>
+        <v>26.72391075242017</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>20.40697437272203</v>
+        <v>25.22006703621793</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>30.33583738331499</v>
+        <v>31.56600596534701</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>32.19480639487693</v>
+        <v>32.94529587661814</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>11.06026083223236</v>
+        <v>19.15080457796073</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>17.49219229567694</v>
+        <v>23.13249959883231</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>22.42524781027979</v>
+        <v>26.53384186095056</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>16.9343153358995</v>
+        <v>22.66164511806538</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>26.24209738501575</v>
+        <v>28.89155187894466</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>31.09842751133595</v>
+        <v>31.98972119261572</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>6.884948840820606</v>
+        <v>16.1926284401349</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>11.83057619207632</v>
+        <v>19.38523743040034</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>16.42223225094566</v>
+        <v>22.34191216580943</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>8.840797937311983</v>
+        <v>16.93923918327649</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>23.55334773839924</v>
+        <v>27.19715238483895</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.27897508925028</v>
+        <v>35.1467131280136</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>24.42537160709924</v>
+        <v>27.86651375775715</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>35.98605942695607</v>
+        <v>35.51917357975702</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>39.56226364658229</v>
+        <v>37.84375524594086</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>11.8493221385034</v>
+        <v>19.26351400212828</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>21.66573209955849</v>
+        <v>25.92875033169458</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.68763997266689</v>
+        <v>31.46495660725652</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>46.89877579219625</v>
+        <v>42.50395524151749</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>40.95765436221175</v>
+        <v>38.92008886653695</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>48.86347165535844</v>
+        <v>44.03367409713258</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>49.4720634357757</v>
+        <v>44.34294371316322</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>16.77711925380608</v>
+        <v>22.65778804932006</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>44.67645009738337</v>
+        <v>41.28671198694596</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>47.65755203882532</v>
+        <v>43.14476050263568</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>25.17812346149506</v>
+        <v>27.88136630948255</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.15864947560674</v>
+        <v>34.32912612064955</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>39.86996436623586</v>
+        <v>37.46944482114182</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>9.022048736041441</v>
+        <v>17.06626309013308</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.07739168638668</v>
+        <v>34.99916411779529</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>39.56371226343247</v>
+        <v>36.98167885102587</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>13.61195666163817</v>
+        <v>19.82918267413257</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>53.89068292559747</v>
+        <v>47.0536904986473</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>56.6869179152775</v>
+        <v>48.75229225005239</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>60.4440410899387</v>
+        <v>51.32067720152234</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>66.04999837810681</v>
+        <v>54.85936814364118</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>69.11847080673959</v>
+        <v>56.67886534780336</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.28063194865674</v>
+        <v>30.50810034357018</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>61.11161669498117</v>
+        <v>51.88545251582184</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>63.26187079779801</v>
+        <v>53.22938342998262</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>47.95931277626533</v>
+        <v>43.21090215048329</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.0435750507115</v>
+        <v>35.14630754549175</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>40.78864813727058</v>
+        <v>38.85469015509283</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>47.57191339259103</v>
+        <v>43.07433519783218</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>12.82482524403852</v>
+        <v>20.18998220867781</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>39.12950300300729</v>
+        <v>37.83094110028834</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>44.89056336940294</v>
+        <v>41.42007867711211</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>18.79230228171095</v>
+        <v>23.6088456853428</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.67994288395886</v>
+        <v>33.07634223460884</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>39.61010815316536</v>
+        <v>37.1268843133461</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>7.999583623887752</v>
+        <v>16.40757525350686</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.6540445625324</v>
+        <v>32.93897504216923</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>38.00222167596743</v>
+        <v>36.29477000271055</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>12.47145145369539</v>
+        <v>19.62926121130965</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>49.65608807135005</v>
+        <v>44.64096800722203</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>59.72150838209808</v>
+        <v>50.66734480144038</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>56.30832081692804</v>
+        <v>48.88542993110686</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>60.47997142011686</v>
+        <v>51.90454777139045</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>71.16410552138244</v>
+        <v>58.15859942720557</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>20.34212658307233</v>
+        <v>24.53034898130102</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>55.97183908886021</v>
+        <v>48.8940089081574</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>62.18201518144321</v>
+        <v>52.44735207157966</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>42.52183889228045</v>
+        <v>39.75791687989465</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>23.60062189576015</v>
+        <v>27.38264003312997</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.13306882958317</v>
+        <v>30.3026512958942</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>34.44671277833277</v>
+        <v>34.71608130004928</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>10.36523741712266</v>
+        <v>18.7379177343111</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.01781501537</v>
+        <v>31.32547814365338</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>39.69651936810021</v>
+        <v>38.02961645869921</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>14.98569323394927</v>
+        <v>21.05008158205518</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.45323420659455</v>
+        <v>32.32801856419992</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.95817127661226</v>
+        <v>36.62808949087441</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>7.728288927934869</v>
+        <v>16.40864081633993</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>31.25100845134978</v>
+        <v>32.18523569888657</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>37.84092221922401</v>
+        <v>36.3633430696052</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>8.601386278742044</v>
+        <v>16.99701869520149</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>45.35303060680705</v>
+        <v>41.69322560323808</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>57.50196569729692</v>
+        <v>49.1346093178793</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>48.87921150085521</v>
+        <v>44.0412575714922</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>54.33321475179209</v>
+        <v>47.62688558935157</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>66.9721940392462</v>
+        <v>55.66226637801988</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>14.15137055596842</v>
+        <v>20.55281100763023</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>51.33186984169834</v>
+        <v>45.67784266437918</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>60.78430715949432</v>
+        <v>51.81534517532549</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>22.3476423864424</v>
+        <v>23.23536493482648</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>16.98832380658616</v>
+        <v>18.51173388303664</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>35.25574492339577</v>
+        <v>34.95040888755794</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>8.836866112245783</v>
+        <v>11.63694574641497</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>34.20925090800082</v>
+        <v>33.66914818119095</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>38.77709647045695</v>
+        <v>38.0871904351208</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>13.29213991605638</v>
+        <v>15.14626220605064</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>54.01325938413655</v>
+        <v>51.9530654059957</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>56.52062835642086</v>
+        <v>54.18370070280868</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>17.89567890767764</v>
+        <v>19.44595622119794</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>21.08239571270809</v>
+        <v>22.26696062728505</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>20.96285169128004</v>
+        <v>22.1732666126067</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>33.29601515002614</v>
+        <v>33.06274366026555</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>18.58878064323946</v>
+        <v>20.17142933901506</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>42.96822972348546</v>
+        <v>41.91692854684202</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>18.7223996512114</v>
+        <v>20.31088481782668</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.92854625412308</v>
+        <v>30.73249469220656</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>38.42189975214182</v>
+        <v>37.82974256155881</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>25.75552294504579</v>
+        <v>26.3220469270016</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>32.89107578785524</v>
+        <v>32.84837041393642</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>35.32122107527163</v>
+        <v>35.26855847998782</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>6.150132174552265</v>
+        <v>9.69486499920917</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>23.63326526374463</v>
+        <v>25.21638895999775</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.52987062382679</v>
+        <v>29.84966421481325</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>34.23423200361356</v>
+        <v>34.04577393460954</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>37.35022908070503</v>
+        <v>36.9899707201298</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>8.356417066832794</v>
+        <v>11.19557592475808</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>52.42887520804813</v>
+        <v>50.36789091339626</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>51.0518011052656</v>
+        <v>49.17391180793854</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>11.06078060800666</v>
+        <v>13.21921406189714</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>58.81116797041803</v>
+        <v>56.41031169549539</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>57.05199802416018</v>
+        <v>54.82956560487118</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>55.45270790215405</v>
+        <v>52.71018764565922</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>59.27679766427979</v>
+        <v>56.58373765026072</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>59.19570465230713</v>
+        <v>56.55443946945559</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>55.31098117411134</v>
+        <v>52.66371043822005</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>63.4359744687655</v>
+        <v>59.79433237904662</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>66.48218985826085</v>
+        <v>62.2779978020826</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.09977272073851</v>
+        <v>29.67731495112731</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>39.73103732575832</v>
+        <v>39.15507524222728</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>39.57007758866266</v>
+        <v>38.91157784373386</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>27.11197289964279</v>
+        <v>27.45693669417545</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>49.62461161337217</v>
+        <v>47.72197734921441</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>46.98096223175305</v>
+        <v>45.50530544803658</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>8.11526122230352</v>
+        <v>10.81294424550491</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>56.355438875787</v>
+        <v>53.77772496094962</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>14.09955812903424</v>
+        <v>16.06906476982489</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.319552157349</v>
+        <v>26.99700642180923</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.71212280700796</v>
+        <v>32.72973869368424</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>6.368831887376473</v>
+        <v>10.25038864955921</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>46.66014367866472</v>
+        <v>44.63786723901467</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>49.27925018142965</v>
+        <v>47.53781826048101</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>9.94704309897169</v>
+        <v>13.26594504246489</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>56.93823406267279</v>
+        <v>54.89531219216759</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>62.3118044399894</v>
+        <v>59.43057354792146</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>66.92748738869972</v>
+        <v>63.35060619600844</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>67.83049413431149</v>
+        <v>64.32787028376728</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>70.1898873267518</v>
+        <v>66.55537472049983</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>14.51792874063423</v>
+        <v>16.48228629041659</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>39.23385050883084</v>
+        <v>38.41731848348699</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>51.65831129802599</v>
+        <v>49.56989958608933</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>22.86943911643731</v>
+        <v>23.94900618338388</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.96185387813213</v>
+        <v>35.66810679581101</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>37.37404577106305</v>
+        <v>37.04807041620855</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>27.41784212170739</v>
+        <v>26.62268986161971</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>43.5369352215223</v>
+        <v>42.65517924159212</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>49.46840810288986</v>
+        <v>47.70640336683514</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>8.588475352105494</v>
+        <v>11.34180987951823</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>51.80215298944771</v>
+        <v>50.35651456959988</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>7.637330195938826</v>
+        <v>10.29724957373498</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>18.80217790876665</v>
+        <v>20.36629981654834</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>30.02959069951205</v>
+        <v>30.53238391572439</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>7.313747497674886</v>
+        <v>10.23239783046716</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>50.62626048057913</v>
+        <v>48.76905392244075</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>52.93087262192711</v>
+        <v>50.94012505534727</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>5.333170729344342</v>
+        <v>8.246293405071853</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>59.09797907576112</v>
+        <v>56.57781558337527</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>60.83801614244688</v>
+        <v>57.06270861399506</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>62.10241820794798</v>
+        <v>59.31745863699103</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>63.04984386133308</v>
+        <v>60.25650916321269</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>69.55413258592758</v>
+        <v>66.14038927291443</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>13.18795946451958</v>
+        <v>15.14171167125394</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.40861677490966</v>
+        <v>29.68227713141978</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>55.75049600873591</v>
+        <v>53.02956219620773</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>16.36392526636403</v>
+        <v>18.81012821498856</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>32.24508853781507</v>
+        <v>32.57324382256075</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>37.54224187479761</v>
+        <v>37.18206518215773</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>27.21428163878889</v>
+        <v>27.47111898084827</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>45.35030905736743</v>
+        <v>44.06405371939603</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>52.09577447033588</v>
+        <v>48.68543638088174</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>4.638409862203737</v>
+        <v>7.858530976419871</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>50.26752098348408</v>
+        <v>48.85862209393642</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.24317593602093</v>
+        <v>28.37567978113585</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.68638524896387</v>
+        <v>26.00166742738818</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>37.87432211010055</v>
+        <v>37.34728480301923</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>41.70985311023485</v>
+        <v>41.14854875344162</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>11.73212695482032</v>
+        <v>14.17274087475474</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>19.69095681934612</v>
+        <v>21.38545361952649</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.58388176511438</v>
+        <v>29.36091454230862</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>16.20745395559305</v>
+        <v>18.06661301462982</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>25.70086385422665</v>
+        <v>26.70746246624018</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.31509055975479</v>
+        <v>36.16501122701324</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.35749123194771</v>
+        <v>26.24199995580034</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.57576324728999</v>
+        <v>31.63815332020662</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>35.9801960921569</v>
+        <v>35.64434975333148</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>6.063008623801089</v>
+        <v>10.01034951633886</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.68763581007331</v>
+        <v>27.73731494938352</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>47.42423267630069</v>
+        <v>46.36518808923238</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>26.3538938082963</v>
+        <v>27.26524596045869</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>47.69786561121093</v>
+        <v>46.47830135698604</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>55.32744101137358</v>
+        <v>53.2826006810682</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>9.781734078390357</v>
+        <v>12.64198213739405</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>24.4794478413524</v>
+        <v>25.73516116256359</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>38.16743929200592</v>
+        <v>39.00210801074181</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>58.11159782410619</v>
+        <v>55.75578892986478</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>60.62708395780346</v>
+        <v>57.05055766444611</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>64.88459351682999</v>
+        <v>61.24524467450517</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>62.94113989737675</v>
+        <v>59.51702809487227</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>32.87702834250467</v>
+        <v>32.89889366935784</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>60.87161876985896</v>
+        <v>57.54730926015885</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>64.76323710617146</v>
+        <v>60.84644814512524</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.96180744169957</v>
+        <v>33.94064932989349</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>41.44530300220958</v>
+        <v>40.59779996618921</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.39436595798703</v>
+        <v>42.27215328387624</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.31215207904815</v>
+        <v>28.4303291959909</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>57.39998870648485</v>
+        <v>54.73333357819014</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>52.25705402058477</v>
+        <v>50.18313438046799</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>9.513838637819191</v>
+        <v>11.82091969866991</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>68.05386144199039</v>
+        <v>64.40438967880689</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>66.98763391526951</v>
+        <v>63.42193327007507</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>80.959194816899</v>
+        <v>74.710553868217</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>81.50855302333507</v>
+        <v>75.53651851999268</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>83.42658293572651</v>
+        <v>77.43461607271426</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>43.10505999507514</v>
+        <v>41.55960738753777</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>77.47195536509501</v>
+        <v>71.74523994697884</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>78.6587124278764</v>
+        <v>73.413191304332</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>63.01939380698112</v>
+        <v>59.71046423192458</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>52.51485899830826</v>
+        <v>50.83167663258351</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>57.43922705115655</v>
+        <v>54.62151364519771</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>61.60984002979553</v>
+        <v>58.80059431874925</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.62675705608188</v>
+        <v>27.37026476465056</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>57.22290514472906</v>
+        <v>54.44374675027643</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>62.95054711840125</v>
+        <v>58.65472808997437</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.57857680737561</v>
+        <v>26.42178743414217</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.42857711476791</v>
+        <v>38.01593301720384</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>43.1271130621384</v>
+        <v>42.10043841241701</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.2178266443136</v>
+        <v>27.94610189594287</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>53.26947363806096</v>
+        <v>51.17628087079056</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>55.34959734498099</v>
+        <v>52.83845700321956</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>12.09384790407562</v>
+        <v>14.45455989482281</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>66.79723362511936</v>
+        <v>63.51017281035395</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>72.68609939581017</v>
+        <v>67.22131238172094</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>80.19184629044149</v>
+        <v>75.46744253333986</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>79.34229864837394</v>
+        <v>73.73131812716953</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>86.08850613598719</v>
+        <v>79.2530700832212</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.83220873866743</v>
+        <v>31.86486010464716</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>74.38071966988468</v>
+        <v>69.29025472519913</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>80.64980103498657</v>
+        <v>75.73203479317398</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>59.94655145561435</v>
+        <v>57.32489031568703</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>33.06008377594947</v>
+        <v>33.31333318213366</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>38.58431559576335</v>
+        <v>38.17892032083926</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>47.39207951127489</v>
+        <v>46.07386428770408</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>18.89628347011753</v>
+        <v>20.52123424832081</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>54.74587295780883</v>
+        <v>52.71386111343919</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>59.99693953852485</v>
+        <v>57.49256732167764</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>19.89047092563987</v>
+        <v>21.93914992318701</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>37.78206433387773</v>
+        <v>36.93416734686613</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>45.12511802907004</v>
+        <v>43.32314469969907</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.22139051048467</v>
+        <v>29.21873346632757</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>55.18875445000155</v>
+        <v>51.72487502730409</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>59.54900208991857</v>
+        <v>55.34214966878127</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>5.382523932694102</v>
+        <v>8.478292495879664</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>64.90853036606718</v>
+        <v>61.83212951196414</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>70.64678476422233</v>
+        <v>66.28441584225968</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>75.207446421722</v>
+        <v>71.12757281811457</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>76.07157206168381</v>
+        <v>72.00040482659861</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>86.52767107409659</v>
+        <v>80.60113319895149</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>23.67690868594836</v>
+        <v>24.63767184341532</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>71.06275417669553</v>
+        <v>67.54982493785576</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>80.04727261384585</v>
+        <v>75.03931589268953</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test1/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.41</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.482</v>
+        <v>15.399</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.433</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.562</v>
+        <v>20.411</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.968</v>
+        <v>1.597</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>19.47257453718999</v>
+        <v>17.02255164573295</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.01491871359714</v>
+        <v>16.9053046419641</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>33.15067863515027</v>
+        <v>32.12413959482901</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.402774369286956</v>
+        <v>3.169309514961625</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.98687034581387</v>
+        <v>24.68698864939462</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>31.36796261345871</v>
+        <v>29.94661351420918</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>11.10482656087691</v>
+        <v>7.661551061269019</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>46.86468205959744</v>
+        <v>44.76808551918504</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>48.4977608989637</v>
+        <v>48.72786245564193</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20.22128754199062</v>
+        <v>17.56130771101651</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23.03646227992061</v>
+        <v>21.18797543378098</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>22.89296687083242</v>
+        <v>20.96821152820843</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24.82557735552015</v>
+        <v>21.6440452870941</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.215147979592</v>
+        <v>21.92469496513311</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>51.09244486949905</v>
+        <v>50.84964921119427</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18.67406976216949</v>
+        <v>16.53248892006646</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.26010361715748</v>
+        <v>27.98068159107927</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.39490167550553</v>
+        <v>34.80607643608074</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9.785043360040071</v>
+        <v>5.63923379601507</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17.22809309619759</v>
+        <v>13.53112389533171</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.30657251475554</v>
+        <v>17.03091382726817</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.082558682719931</v>
+        <v>3.322322439125173</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.29648258549225</v>
+        <v>19.30008665883745</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>27.14813914344911</v>
+        <v>25.74186461150306</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.0675709439388</v>
+        <v>30.95495064115949</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>34.46419492607516</v>
+        <v>32.59513687552382</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7.922862826116628</v>
+        <v>2.065262681958291</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>38.91196246387298</v>
+        <v>37.82871108532994</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>38.07835824291308</v>
+        <v>36.71112251752722</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>11.81979951483638</v>
+        <v>8.047975171875862</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>51.93683835778477</v>
+        <v>51.28538414866473</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>50.99463980941134</v>
+        <v>50.71253000032355</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>46.88503149599764</v>
+        <v>47.59972467093922</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>50.84460256995183</v>
+        <v>51.99888148408428</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>52.58672932451373</v>
+        <v>53.53696200736597</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>43.3252010074866</v>
+        <v>34.10068916080284</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>54.97087994727187</v>
+        <v>49.58850439883427</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>57.89961206708912</v>
+        <v>61.19899013746083</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>26.63444951722921</v>
+        <v>24.42378783995147</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.09024074504834</v>
+        <v>38.54293631129073</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>37.55375628722062</v>
+        <v>38.0502123707827</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10.22804967519549</v>
+        <v>6.207878325055926</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.85169448073562</v>
+        <v>36.69732763909846</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>37.02221419128566</v>
+        <v>36.87450191727381</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>9.887337356926917</v>
+        <v>5.249779945662677</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>52.0033574996916</v>
+        <v>52.60185674810958</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>11.21436446466711</v>
+        <v>8.349716811524182</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>24.55704025715337</v>
+        <v>22.02058625791509</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.95670722216669</v>
+        <v>27.22849974207824</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6.948592493450246</v>
+        <v>1.825483446346471</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>35.71656380192994</v>
+        <v>33.74515191855461</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>38.76777820302703</v>
+        <v>37.93205485224091</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>12.40525121136999</v>
+        <v>7.96815198415403</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>50.7549904280128</v>
+        <v>50.90755964556446</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>53.79113023806339</v>
+        <v>54.61319500384224</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>58.46677090559413</v>
+        <v>59.73661111285336</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>59.63711134791758</v>
+        <v>60.77529337271686</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>63.37380333873202</v>
+        <v>65.32770551160402</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>16.36746134158966</v>
+        <v>14.33487475570289</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.21265614254132</v>
+        <v>35.57626048554871</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>47.54391842651602</v>
+        <v>47.66119299584257</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>17.55497501794751</v>
+        <v>13.8265171292797</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.69720411146027</v>
+        <v>32.65356591542512</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.85766234941013</v>
+        <v>35.64517843106906</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>9.6101055826148</v>
+        <v>5.296611233322444</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.00121862341394</v>
+        <v>27.32650520995193</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>37.56090549822781</v>
+        <v>37.76462445300882</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>9.351225116820029</v>
+        <v>4.86502942313296</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>47.49482419247752</v>
+        <v>47.41243910953108</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>9.260235261291502</v>
+        <v>4.660427331890535</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>19.88958491360611</v>
+        <v>16.67468927415808</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.18711549287827</v>
+        <v>25.2692644928842</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>7.056662478885524</v>
+        <v>1.209872470666372</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>35.25910096305246</v>
+        <v>33.22540244959142</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>40.61462526852991</v>
+        <v>39.25271445489644</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>7.405305288846201</v>
+        <v>1.971808215505227</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>48.03965517646898</v>
+        <v>47.69908265639243</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>52.33734319397186</v>
+        <v>53.22192998008254</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>51.4908927567046</v>
+        <v>51.95005809967192</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>53.4127207141297</v>
+        <v>53.65024272009231</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>60.11473014201101</v>
+        <v>61.27958766657996</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>14.82617149553835</v>
+        <v>11.45466012744942</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.42726158888319</v>
+        <v>25.99231387147002</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>50.26610052716352</v>
+        <v>51.43040570420129</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>13.64530804936092</v>
+        <v>9.569408031710275</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.72396154837711</v>
+        <v>27.94737747366918</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.06150293276293</v>
+        <v>36.22740385799267</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>9.917080937521913</v>
+        <v>5.743131884296243</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>30.09470062435329</v>
+        <v>28.11345593692976</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>39.60210493112132</v>
+        <v>41.60777036976928</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6.949199931946243</v>
+        <v>1.304957482323509</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>42.46348711455073</v>
+        <v>42.43857772238044</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26.45998551042884</v>
+        <v>23.36485209229284</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>23.16632513736402</v>
+        <v>20.10564584440501</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>34.66514570928782</v>
+        <v>33.91551971801232</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>37.29043451959092</v>
+        <v>36.89158794818657</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>12.38651527400652</v>
+        <v>7.417553008984285</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>19.87258696207552</v>
+        <v>15.69945841145511</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>26.18315813198547</v>
+        <v>23.12677976707487</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>17.21686810914695</v>
+        <v>14.06276190420407</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.0217404805346</v>
+        <v>23.37579897478034</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>35.18195814302908</v>
+        <v>34.47072796187891</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>9.661771190786407</v>
+        <v>4.634540640619683</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>15.30609317708259</v>
+        <v>10.96324840256192</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>21.36760386576034</v>
+        <v>18.10477127403916</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>8.215066103021439</v>
+        <v>3.044790493890353</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>24.35826644472499</v>
+        <v>20.81596942271566</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>41.78062751477115</v>
+        <v>40.39935467375145</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>25.23102230862764</v>
+        <v>22.3016998658988</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>42.07264531581295</v>
+        <v>42.06371464470299</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>48.43829754021064</v>
+        <v>49.5781284958428</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>11.30338545621646</v>
+        <v>5.493847442790404</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>23.95252828870283</v>
+        <v>19.7819400327361</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>34.93575984670905</v>
+        <v>33.1511601743644</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>55.56840557021117</v>
+        <v>59.03673220180377</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>56.76455467519862</v>
+        <v>60.39915651170408</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>60.83186539168337</v>
+        <v>65.62647050330501</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>59.76981532805604</v>
+        <v>64.02344337462455</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.71528897346862</v>
+        <v>27.05320975386774</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>58.3627222981044</v>
+        <v>62.07646451958396</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>60.58338685536566</v>
+        <v>65.39031308014421</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>31.40470316553302</v>
+        <v>30.6028087304917</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.70805571021155</v>
+        <v>41.8325421717857</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>43.11669969761756</v>
+        <v>44.93661472405712</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>11.18579856540793</v>
+        <v>6.919869443608331</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>44.78862131104768</v>
+        <v>46.53041775651568</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>44.52487135122084</v>
+        <v>46.48815727841949</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>11.91407477036179</v>
+        <v>8.681332291556775</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>64.15748487914003</v>
+        <v>69.48683487842351</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>63.66404479734813</v>
+        <v>68.78309490476236</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>73.62993107877162</v>
+        <v>81.01299118623908</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>75.76001999814572</v>
+        <v>83.61489700546554</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>77.52322232573357</v>
+        <v>85.13017360913634</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>37.35385007916786</v>
+        <v>38.30086252531142</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>72.00249142424627</v>
+        <v>79.24723557080411</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>73.12434957600452</v>
+        <v>80.07508499137511</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>57.42520779449899</v>
+        <v>61.3901240613894</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>47.15679321562347</v>
+        <v>48.46759549962499</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>53.49125753502479</v>
+        <v>55.52333136549743</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>59.27951705388491</v>
+        <v>63.34194229602825</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>17.58924246303812</v>
+        <v>13.06960519494707</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>53.06146988361619</v>
+        <v>54.54787017682393</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>58.05504862701716</v>
+        <v>61.9165143755541</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>19.65546167431753</v>
+        <v>16.1685359914641</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>37.05267248818628</v>
+        <v>36.90648842413204</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>42.09535491786558</v>
+        <v>43.52435709770669</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>10.1273305490245</v>
+        <v>5.727043775002336</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>39.43218196801594</v>
+        <v>39.03411836672502</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>44.75544407922273</v>
+        <v>47.07418511982118</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>12.26319236615327</v>
+        <v>8.016225422395703</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>60.41770823271818</v>
+        <v>63.66503454695645</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>66.53381298825704</v>
+        <v>72.98844481323759</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>71.5332989820339</v>
+        <v>77.60024169111203</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>72.98856269439736</v>
+        <v>79.89021241498909</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>79.58015380531663</v>
+        <v>88.93116148263458</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>21.4588689017599</v>
+        <v>18.48236194601049</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>68.27618267265089</v>
+        <v>72.78116893149101</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>75.07468339626814</v>
+        <v>82.48198135048909</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>56.07056828566641</v>
+        <v>59.52863172764427</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>31.36741983263935</v>
+        <v>29.44953165405255</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>35.82379130780347</v>
+        <v>34.38859568010601</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.03142194680559</v>
+        <v>45.93480236136659</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>14.00415104561048</v>
+        <v>9.468569256581564</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>48.85796232725545</v>
+        <v>50.01626509991075</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>56.65469309588684</v>
+        <v>59.74670485659352</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>16.54157498884274</v>
+        <v>12.6948579903224</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.79338429160563</v>
+        <v>35.53102194919403</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>43.35286364004068</v>
+        <v>45.80650371368861</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>10.46057866540764</v>
+        <v>6.359574100857696</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>39.36551049251217</v>
+        <v>39.97337756976427</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>46.64347409558209</v>
+        <v>50.18478730938982</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>7.654318193382391</v>
+        <v>2.182547328956527</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>55.21968172957821</v>
+        <v>58.09767189448579</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>65.84826752590746</v>
+        <v>72.39151453309449</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>61.04220847959034</v>
+        <v>64.28988397711153</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>67.73866051587444</v>
+        <v>71.64834551402367</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>78.56114037285047</v>
+        <v>87.68649126603322</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>16.17783225326819</v>
+        <v>12.47759452799592</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>61.63907236950695</v>
+        <v>64.58429923881221</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>72.88910174412776</v>
+        <v>80.49359461605772</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>18.99821506968367</v>
+        <v>11.29024276208212</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>20.11828987714997</v>
+        <v>12.52108396283788</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>26.86146521351741</v>
+        <v>24.34924504286079</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>12.1164234970661</v>
+        <v>1.548110965374704</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21.54782085105985</v>
+        <v>17.26133654120064</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>22.79254403887484</v>
+        <v>19.45457907084441</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>15.02827644438459</v>
+        <v>5.878632549468811</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>33.48797164973919</v>
+        <v>34.78976370357913</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>34.76320246065308</v>
+        <v>36.82314798642201</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>21.12721002249857</v>
+        <v>14.47562127858362</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>23.68747162085705</v>
+        <v>17.82051970824421</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>23.21579230897651</v>
+        <v>17.0350148381338</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>21.55352761484948</v>
+        <v>15.27561633887514</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>20.80414981073297</v>
+        <v>13.46015850287191</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30.6753901624951</v>
+        <v>30.80495644383999</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>18.31288831914726</v>
+        <v>9.42176300453103</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>27.64796932699158</v>
+        <v>24.56914074432975</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.88750340605923</v>
+        <v>27.8347788770751</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>11.79750769531694</v>
+        <v>0.05343460966625457</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>17.58409490523002</v>
+        <v>9.171627194784396</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>20.59371972809061</v>
+        <v>13.85594747672623</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>12.6214360157732</v>
+        <v>1.992181848747045</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>27.40932235773266</v>
+        <v>24.20093070366175</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>24.1662464510995</v>
+        <v>18.13218796887882</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>27.84933375847545</v>
+        <v>24.03700283017675</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.174754438364</v>
+        <v>27.06343855013943</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>12.25129478667466</v>
+        <v>1.36195600629269</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.55246432011305</v>
+        <v>28.7239306172456</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>31.00226127992158</v>
+        <v>30.33104900823048</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>14.46635174536967</v>
+        <v>5.603437944548581</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>41.25617791690019</v>
+        <v>44.7343166578859</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>40.19211758589432</v>
+        <v>43.85403958598605</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>37.60496136490629</v>
+        <v>38.74146865395139</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>43.56120892995857</v>
+        <v>47.94038417430291</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>43.42936707230383</v>
+        <v>47.02171451229897</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>26.69173443350719</v>
+        <v>20.97612969669807</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>38.86656782567285</v>
+        <v>38.5130483530475</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>40.27931637948961</v>
+        <v>42.36580377288663</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>23.13327197536915</v>
+        <v>18.45930546712578</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.70983873577988</v>
+        <v>30.17045001170921</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.57318314511111</v>
+        <v>33.10455560574802</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>11.82893610706888</v>
+        <v>0.5575759664797211</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>30.75220992824567</v>
+        <v>28.8175250064864</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.24486668709892</v>
+        <v>33.15525324611882</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>12.88356197796251</v>
+        <v>2.727973027980486</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>43.82092658588554</v>
+        <v>47.51976153677035</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>15.03595719287348</v>
+        <v>5.508783013052266</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>23.16392948203168</v>
+        <v>16.88777088481711</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>27.32470776679713</v>
+        <v>24.31864834600414</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>11.76991723725118</v>
+        <v>0.8468243310272641</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.8221538198198</v>
+        <v>28.45197513424853</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>30.97121147480669</v>
+        <v>29.84841597055484</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>14.93159658017126</v>
+        <v>5.723363542228689</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>40.82911947823901</v>
+        <v>44.63598053732121</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>42.01888699446664</v>
+        <v>46.97744761935095</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>41.98614983648447</v>
+        <v>46.06589840887852</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>45.07244186831264</v>
+        <v>50.76741038006367</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>48.47829228483107</v>
+        <v>56.71685276783334</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>14.64363662053972</v>
+        <v>4.169469533561042</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.78933025897346</v>
+        <v>24.54186816526131</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>32.86727340908845</v>
+        <v>31.33325185265075</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>18.761806096004</v>
+        <v>10.80646264163544</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.87869398208343</v>
+        <v>27.28117059300133</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.91487133023307</v>
+        <v>31.93692312778824</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>11.6642852377514</v>
+        <v>0.3908048361937873</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.62186152717242</v>
+        <v>25.94937675243321</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>33.6124369314489</v>
+        <v>33.89433375177358</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>13.52442376043469</v>
+        <v>3.3838116782923</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>40.73873040424967</v>
+        <v>43.80303814637512</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>13.85496781727759</v>
+        <v>2.924429566142152</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>19.98464321004317</v>
+        <v>11.6021981906959</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26.28040177749359</v>
+        <v>22.77558575599988</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>11.70362110563245</v>
+        <v>-0.0984656479668331</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>27.14172124794806</v>
+        <v>25.06762563912736</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>32.66146860733801</v>
+        <v>32.81892051024762</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>12.0182091563387</v>
+        <v>0.7492170761362296</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>37.63608951235582</v>
+        <v>40.2191165730506</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>41.73068708719629</v>
+        <v>46.34479961747478</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>38.42000370020044</v>
+        <v>41.91248909219868</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>41.65986013665135</v>
+        <v>46.24691343153145</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>45.54520337083247</v>
+        <v>52.01753677085575</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>13.65392155896323</v>
+        <v>1.179790472750376</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>26.8069835520486</v>
+        <v>20.79015894687513</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>34.99635987565913</v>
+        <v>35.58740268772328</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>15.980976178464</v>
+        <v>6.448387601795748</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>27.89362222818752</v>
+        <v>24.66816690406398</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.23517394929898</v>
+        <v>29.86223265613725</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>11.66687659401031</v>
+        <v>-0.1673507792996851</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>26.35377568875257</v>
+        <v>22.46702450002364</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.9574890965733</v>
+        <v>30.656793655553</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>12.04472699816843</v>
+        <v>0.8125298780166652</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.05746282199016</v>
+        <v>36.95278900517386</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.67686807621414</v>
+        <v>26.37033953585741</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>25.31749708954682</v>
+        <v>20.80179380990679</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>34.4256944572988</v>
+        <v>34.79831689860098</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>36.34068021537395</v>
+        <v>37.40409972479917</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>17.16204580653629</v>
+        <v>8.498922102687189</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.56715525998496</v>
+        <v>18.43849832889191</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.58847787476742</v>
+        <v>25.69710237699411</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>20.5087824353686</v>
+        <v>13.15602293498069</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.08940449063556</v>
+        <v>26.76788205845109</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.10592678678625</v>
+        <v>34.64409595115367</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>11.71462942013006</v>
+        <v>0.1677483834461562</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>16.99571401597248</v>
+        <v>8.701313775491695</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>22.07688511880904</v>
+        <v>16.8544568329893</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>12.98813303976119</v>
+        <v>3.431295273113125</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.77749124294922</v>
+        <v>27.22738203176227</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>41.01688044074149</v>
+        <v>45.62461521429201</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.82138702510201</v>
+        <v>26.44482343072588</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>39.8027512127533</v>
+        <v>42.76554117069616</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>43.27771854701899</v>
+        <v>48.44848815822064</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>16.76097830097387</v>
+        <v>8.403562004884741</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>26.64441842805797</v>
+        <v>23.3951456497072</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>34.76269590760563</v>
+        <v>35.5925920111448</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>48.15410305889774</v>
+        <v>54.25311879323635</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>44.1703093657428</v>
+        <v>48.14797892148154</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>50.28869593913272</v>
+        <v>57.35705205530646</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>50.51060993402607</v>
+        <v>57.80871042785646</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>23.98221303746305</v>
+        <v>19.46206770905876</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>47.40582056175742</v>
+        <v>53.43147870679384</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>49.03780392517628</v>
+        <v>55.95441412644004</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.58088147850141</v>
+        <v>26.35316031750093</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.94106238499691</v>
+        <v>37.17173258190437</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>39.80107229863564</v>
+        <v>43.05280437192647</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>12.61065143053351</v>
+        <v>2.021788504139383</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>37.60082000594013</v>
+        <v>39.61912106487077</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>39.70456994058729</v>
+        <v>43.32871978662557</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>15.8385897981244</v>
+        <v>7.869282952962134</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>53.40125793767332</v>
+        <v>62.76853311487712</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>55.34800959994828</v>
+        <v>66.44773556257691</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>58.39346006504298</v>
+        <v>70.31305298055601</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>62.323123407244</v>
+        <v>75.86148361684452</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>64.38242793882813</v>
+        <v>79.87598283168325</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>32.31227552121196</v>
+        <v>31.86059006077073</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>59.25430174677037</v>
+        <v>71.64032007360623</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>61.07797805783848</v>
+        <v>74.21874543738605</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>48.88336348429588</v>
+        <v>55.44087769110777</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>40.37387684012449</v>
+        <v>42.27506699837963</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>44.91011268337743</v>
+        <v>48.67069349390813</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>49.51057313186732</v>
+        <v>56.24348622411513</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>18.87037996315418</v>
+        <v>10.56736742607799</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>43.51343797800139</v>
+        <v>46.90299001501953</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>47.26784879591413</v>
+        <v>52.59884762649948</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>21.79886817777315</v>
+        <v>15.82590222777671</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.59835514437788</v>
+        <v>34.58369556778581</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>38.9964801675806</v>
+        <v>42.04535035633047</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>11.89359519731528</v>
+        <v>0.9359864029766811</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>36.18969617642981</v>
+        <v>38.24779021360945</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>38.75669056053079</v>
+        <v>41.73413706612273</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>15.70545170547091</v>
+        <v>6.665342606273814</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>52.08447429961829</v>
+        <v>60.79790174376073</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>57.40023758557791</v>
+        <v>69.50923309149553</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>57.24393445578357</v>
+        <v>68.79853036143557</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>60.73688411207803</v>
+        <v>73.16040766644066</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>66.77060951432628</v>
+        <v>83.50519144795135</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>22.45798063621266</v>
+        <v>16.14050520453369</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>57.41067096743967</v>
+        <v>68.23797619649127</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>61.15701525091484</v>
+        <v>74.42239258551203</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>45.41768630222069</v>
+        <v>50.41146158229007</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.1747453409894</v>
+        <v>26.03388581740583</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>33.66527935798612</v>
+        <v>33.1807736701248</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>39.26450079428861</v>
+        <v>40.1919350790669</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>16.38046395646669</v>
+        <v>6.585851309951487</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>37.40963833826367</v>
+        <v>40.85519163969037</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>43.91797915944478</v>
+        <v>47.9704340221449</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>18.33757907641016</v>
+        <v>10.09428678724822</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.21100014153977</v>
+        <v>34.21229170896248</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>39.0748925851139</v>
+        <v>42.56415029311557</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>11.86192084472794</v>
+        <v>0.5557099465225939</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>35.44923942688191</v>
+        <v>36.56513820557171</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>39.30813685629854</v>
+        <v>42.49458820997712</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>12.71395105790174</v>
+        <v>2.123335067841733</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>49.25349418325537</v>
+        <v>57.30241107407601</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>55.90079892132051</v>
+        <v>67.88322908144887</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>52.13480857186806</v>
+        <v>61.41503332945106</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>56.79884729533006</v>
+        <v>68.60237439567922</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>64.30132852522271</v>
+        <v>79.85944344833173</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>17.69625538832385</v>
+        <v>9.293826944640283</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>54.4639034525476</v>
+        <v>64.57400942499285</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>60.71256487120317</v>
+        <v>73.70739829412103</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>19.4051040390997</v>
+        <v>13.22461767965856</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>19.50754488419032</v>
+        <v>14.15906371967522</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.57029367328566</v>
+        <v>27.96221300547478</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>12.20597329450073</v>
+        <v>3.637527666023018</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>23.49839223212411</v>
+        <v>19.37943757085079</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.95792636139591</v>
+        <v>23.15360126412778</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>15.34907912906765</v>
+        <v>8.203502986239315</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>39.43949587706263</v>
+        <v>41.09366071906821</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>41.09838430373198</v>
+        <v>44.53189566682484</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>20.91124684632545</v>
+        <v>15.5637292201636</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>23.32859076070798</v>
+        <v>19.70230183200253</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>23.44703875018919</v>
+        <v>19.92433089321444</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.66191408382018</v>
+        <v>25.61446838445286</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>26.22459637245154</v>
+        <v>20.49407066485452</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>37.41756427521427</v>
+        <v>37.85064563071563</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>21.74277755092536</v>
+        <v>16.87393553063491</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>30.45655304173162</v>
+        <v>29.54005247309553</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>33.57116592565247</v>
+        <v>33.97549753583016</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>14.35855513008605</v>
+        <v>6.56987055211793</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>20.71548161192421</v>
+        <v>15.96291595167939</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>24.04825152024673</v>
+        <v>20.78067696172639</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>12.8539784986585</v>
+        <v>4.295680190102569</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>27.25645768223414</v>
+        <v>25.4750982048094</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>27.21388573009029</v>
+        <v>24.77541602690405</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.41797114265192</v>
+        <v>33.95222143270764</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>33.75238543759706</v>
+        <v>34.52517338195162</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>12.48816786128093</v>
+        <v>3.526818796399841</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>37.15066579895414</v>
+        <v>38.88627047735564</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>37.3876421353385</v>
+        <v>39.4674402454615</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>14.90598396759975</v>
+        <v>7.489348745902909</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>49.28205009572477</v>
+        <v>55.28337299801934</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>46.86718151990497</v>
+        <v>52.52124355305683</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>43.29765816538519</v>
+        <v>47.73499363380916</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>48.91347795924391</v>
+        <v>55.44436492579904</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>49.92255840713764</v>
+        <v>56.61482861140227</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>36.56323479422183</v>
+        <v>33.71465414367923</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>42.92621249733195</v>
+        <v>43.94766110706757</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>43.93391137935756</v>
+        <v>48.63013571245027</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>27.79716532911007</v>
+        <v>26.19003367717147</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>38.47796513011081</v>
+        <v>41.75565953937103</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>38.13031274649521</v>
+        <v>40.93899249519625</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>14.73269004929634</v>
+        <v>7.560387041152161</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>37.45593149411543</v>
+        <v>39.69956239970855</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>38.76603508923679</v>
+        <v>41.0805899825295</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>14.89041651096228</v>
+        <v>6.692435028066363</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>51.53052010499228</v>
+        <v>58.56298496947673</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.85170078291488</v>
+        <v>8.945610646013559</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>26.76002732937749</v>
+        <v>24.19573989263366</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>30.25005529598164</v>
+        <v>29.09454242178971</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>11.88860490729524</v>
+        <v>2.53317252734789</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>33.64776577603482</v>
+        <v>33.81201074436581</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>36.25721548280509</v>
+        <v>37.69828373130107</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>15.55097843422157</v>
+        <v>7.810463518863919</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>47.44947207278963</v>
+        <v>53.61481454064429</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>49.15790911106886</v>
+        <v>56.08889390797242</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>50.15264652115503</v>
+        <v>56.70308726653358</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>54.04753049424511</v>
+        <v>62.71531934297406</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>56.94073581379731</v>
+        <v>67.10536672951899</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.58844221721282</v>
+        <v>17.97457569431948</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>33.68233553642129</v>
+        <v>33.19821976538697</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>38.50811785461809</v>
+        <v>39.19612021878913</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>21.46692407186145</v>
+        <v>17.09039208784152</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>35.02133913210763</v>
+        <v>36.96122572841571</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>36.75869308865121</v>
+        <v>38.80877445705396</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>14.21639421953332</v>
+        <v>6.963856797404954</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>31.8385630455317</v>
+        <v>32.09734545724727</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>37.69441430815001</v>
+        <v>39.92255594174458</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>13.51934462230735</v>
+        <v>5.529138738849174</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>46.7579031304828</v>
+        <v>53.5778013697239</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>14.12176024635588</v>
+        <v>5.922660997050635</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>24.34609255374825</v>
+        <v>20.67955237332638</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>30.17932672149577</v>
+        <v>29.4480218441394</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>12.07165224613903</v>
+        <v>2.936199618491067</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>34.3731759788599</v>
+        <v>35.69819224148602</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>38.69574929243127</v>
+        <v>41.29772270812958</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>12.60814864504366</v>
+        <v>4.095653810983997</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>46.37993160823357</v>
+        <v>52.68733662455328</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>49.13865132868182</v>
+        <v>56.69724954870972</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>46.40788053081344</v>
+        <v>52.69232080005742</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>49.28561292108054</v>
+        <v>56.69952918510386</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>54.39629461320023</v>
+        <v>64.00051849428264</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>20.87429863287916</v>
+        <v>16.06468199287826</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.07890564527823</v>
+        <v>27.42929410923853</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>39.7096847203352</v>
+        <v>43.52109995176252</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>18.75581337572382</v>
+        <v>12.98991298513192</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>31.94869881867943</v>
+        <v>32.74853212565394</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>36.0964466175494</v>
+        <v>38.19039976373618</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>14.55846479287563</v>
+        <v>7.056235425490406</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>32.09737603463199</v>
+        <v>32.67635831667941</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>39.40981100720767</v>
+        <v>43.77306070168942</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>11.97469232919307</v>
+        <v>2.893510511313966</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>43.05665831873439</v>
+        <v>48.57347212747154</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.98038897318306</v>
+        <v>28.0862190491771</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>26.62711792789081</v>
+        <v>24.02460477395371</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>37.25306469846701</v>
+        <v>39.97677291547529</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>39.04068603652379</v>
+        <v>41.94338608821583</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>17.26441861434133</v>
+        <v>10.92856635169641</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.00485445129135</v>
+        <v>22.12394445054924</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>30.07941687871179</v>
+        <v>29.26671955846031</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>22.46827967471646</v>
+        <v>18.70856543298932</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.50623081467254</v>
+        <v>28.46830606947396</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>35.33689986886462</v>
+        <v>37.18887009297465</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>14.36254329039413</v>
+        <v>5.986118517908675</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>19.0633032493305</v>
+        <v>13.20684313482442</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>23.41381969344348</v>
+        <v>19.90161481189809</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>12.99603355895577</v>
+        <v>4.403184610490822</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.47403211204593</v>
+        <v>25.52810856772765</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>40.78876790246107</v>
+        <v>44.52347315495312</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>27.90231731547352</v>
+        <v>25.66095949192594</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>41.27942889715234</v>
+        <v>45.17032153146548</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>45.48142768816783</v>
+        <v>51.08725468210838</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>16.78134808798755</v>
+        <v>9.720336857070468</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>26.75727015907964</v>
+        <v>24.18829915455416</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>35.95395023913974</v>
+        <v>37.48116725037879</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>53.64643936732823</v>
+        <v>62.69306263645575</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>53.62066493101127</v>
+        <v>63.51926752490176</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>58.21533546075224</v>
+        <v>69.61586895637193</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>57.98859576620265</v>
+        <v>69.01152464665691</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.85679337202817</v>
+        <v>29.74782499250444</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>55.98598083795218</v>
+        <v>66.42961013863933</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>57.89552623959752</v>
+        <v>69.22068173280275</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>31.88699582536338</v>
+        <v>32.27235113317024</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40.45321861953687</v>
+        <v>44.47425878776075</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>41.92311412406978</v>
+        <v>46.34252760116074</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>15.46950821507156</v>
+        <v>8.243432741871302</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>42.96420649510927</v>
+        <v>47.61340485579215</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>43.00598257986038</v>
+        <v>47.50593301576265</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>15.97869585877325</v>
+        <v>9.141548733120679</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>59.49436413370969</v>
+        <v>71.02571051556014</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>59.0249531335134</v>
+        <v>70.56611322562935</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>65.88216302606962</v>
+        <v>80.08143163481334</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>68.04117975144109</v>
+        <v>83.64318910869305</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>69.96214709644552</v>
+        <v>85.50255947367003</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>37.97090976469811</v>
+        <v>40.89580098413572</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>66.44734110052104</v>
+        <v>81.09981486571085</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>66.9183570227528</v>
+        <v>81.29614303244989</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>55.18456792346835</v>
+        <v>65.25127532385213</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>46.65690071744689</v>
+        <v>53.94720649052331</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>52.41279503101056</v>
+        <v>61.430395510911</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>57.64648800190075</v>
+        <v>68.59395829470496</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>23.76826224101146</v>
+        <v>20.4708717997439</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>51.90119952231363</v>
+        <v>60.84006111106004</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>55.33075310148253</v>
+        <v>66.35618742089021</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.96608987922279</v>
+        <v>20.54313578150558</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>37.49589869142523</v>
+        <v>39.97455761333853</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>41.21147078013033</v>
+        <v>44.79236230175817</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>14.74888956013499</v>
+        <v>7.138659374651894</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>37.06679131408341</v>
+        <v>38.97984276184569</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>41.41888910692676</v>
+        <v>44.79732735698391</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>16.26199879023154</v>
+        <v>9.203905706340365</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>55.40212559088158</v>
+        <v>65.45245704567154</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>60.86241778218839</v>
+        <v>73.44509431780162</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>62.67250108351657</v>
+        <v>76.51883478857899</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>65.49691694554583</v>
+        <v>80.25740141259159</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>71.06336215752606</v>
+        <v>87.84652507948331</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.04130651196741</v>
+        <v>26.49425857331277</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>63.48234588783578</v>
+        <v>76.96122919786031</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>67.41742457940043</v>
+        <v>82.62576605162734</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>53.01373383629738</v>
+        <v>62.16656638999365</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>34.02717233332197</v>
+        <v>34.96324815337637</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>37.84395149832898</v>
+        <v>40.78221459859278</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>45.56621437540674</v>
+        <v>51.89213326795447</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>20.59437077425427</v>
+        <v>15.74627963962731</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>47.50226148263328</v>
+        <v>56.22801060232273</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>53.64145945335081</v>
+        <v>63.36298538631441</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>22.07340054256913</v>
+        <v>17.6540016676448</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>36.77952798765867</v>
+        <v>39.45561822487301</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>42.10719201687865</v>
+        <v>47.13502350989866</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>15.1122703758374</v>
+        <v>7.894295856189167</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>39.06283430893237</v>
+        <v>42.41004974715734</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>43.85769567365297</v>
+        <v>49.58802893420652</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>12.85975811508985</v>
+        <v>4.328469807177132</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>52.60192084278649</v>
+        <v>61.51209868297768</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>60.22299241371256</v>
+        <v>72.55606959741802</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>56.71586181650524</v>
+        <v>67.04596664769788</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>61.71672148576907</v>
+        <v>74.07828863038581</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>69.30496851950826</v>
+        <v>85.32315318979316</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>23.7318360192734</v>
+        <v>20.66917235919624</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>58.92285475511814</v>
+        <v>70.58768262465152</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>66.20232794843591</v>
+        <v>81.33826019057008</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>20.92557748260067</v>
+        <v>11.72429489050597</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>22.33526297621441</v>
+        <v>13.9093884099032</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.81442665605719</v>
+        <v>19.95136706580131</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>16.42808902315013</v>
+        <v>4.699726949963935</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>20.482283175757</v>
+        <v>10.53038390578182</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.10778149799968</v>
+        <v>11.70579811693433</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>18.30937328333753</v>
+        <v>7.835765198592021</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>27.97989382835426</v>
+        <v>22.90791082263698</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.29639168369935</v>
+        <v>24.89001465658667</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>22.57815139553818</v>
+        <v>13.98592953031311</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.61228124127918</v>
+        <v>17.17227867302364</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.45330195414749</v>
+        <v>16.99790319782826</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>20.96085960110785</v>
+        <v>11.03537277315844</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.72080007550156</v>
+        <v>12.21015536273239</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.67788297328616</v>
+        <v>18.8031366507543</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>21.21230450387213</v>
+        <v>11.96196281022242</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>26.95207569323603</v>
+        <v>21.8839180467244</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.00028169469675</v>
+        <v>25.62416969553153</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>16.23234894891183</v>
+        <v>3.884779189883741</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>19.40169230333592</v>
+        <v>8.730852107670582</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>21.50986571968851</v>
+        <v>12.3428812217322</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>16.51201614823574</v>
+        <v>4.687385098168772</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.65106669339711</v>
+        <v>18.78829842916595</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>24.08815495014203</v>
+        <v>16.05351293195579</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>27.41832824408434</v>
+        <v>22.33653801975221</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.57360603377987</v>
+        <v>22.65885033324763</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>16.46482658359784</v>
+        <v>4.212295078452282</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.09323626693981</v>
+        <v>23.00810132208627</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.61990481246765</v>
+        <v>24.62878532624918</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>17.5405978919928</v>
+        <v>6.417422712107346</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>34.84189896438106</v>
+        <v>33.89483154310273</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>34.47110744379798</v>
+        <v>33.46922409528685</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>33.54697960476331</v>
+        <v>31.93085387551455</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.44060415600578</v>
+        <v>39.07362727572644</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>37.9759293632596</v>
+        <v>39.2173089387307</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>23.75343208219922</v>
+        <v>14.81814866381669</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>34.57167972447872</v>
+        <v>32.80223813304932</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.51972777573305</v>
+        <v>35.03341677201013</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>22.86767338503259</v>
+        <v>15.20346466902888</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>30.16362039611224</v>
+        <v>27.14086642824513</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.84432429620605</v>
+        <v>30.23241197907915</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>16.23942628474618</v>
+        <v>3.974580102170453</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.44652487565123</v>
+        <v>26.1165571401114</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.66822949596754</v>
+        <v>30.43591730915119</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>16.67882722867485</v>
+        <v>4.86858667271273</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>38.74969441845052</v>
+        <v>40.39150389169589</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>18.62411809885928</v>
+        <v>8.327165739086411</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>24.22380643924732</v>
+        <v>16.90334963864595</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>26.37568058607942</v>
+        <v>20.79754663339849</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>16.18356293558195</v>
+        <v>4.359853094612898</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>27.28035056283318</v>
+        <v>21.89042427084013</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.49763590610093</v>
+        <v>24.01014183082628</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>18.82981266309807</v>
+        <v>8.795290505723298</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>35.08075425590477</v>
+        <v>34.56859264267909</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.68495203513159</v>
+        <v>36.15197758903674</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>35.61832682265504</v>
+        <v>35.39742958173241</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>37.3868415869931</v>
+        <v>37.96879719979265</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>40.21723544266611</v>
+        <v>43.80857180316228</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>18.58754762180934</v>
+        <v>7.600344247289357</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.07596109779544</v>
+        <v>22.77555731940334</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.9652184939131</v>
+        <v>25.60450047464559</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>20.32559625579835</v>
+        <v>10.37471221339394</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.38451903874331</v>
+        <v>23.68362854030543</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>31.34792811605837</v>
+        <v>29.33867320907313</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>16.16624230988484</v>
+        <v>3.961434125007475</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>26.85243729940748</v>
+        <v>21.14211302097562</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.97662139265787</v>
+        <v>30.7893692412893</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>17.41069800740445</v>
+        <v>6.080488921088715</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>34.90479807743554</v>
+        <v>34.29862752187262</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>17.88816240029145</v>
+        <v>6.126712333002189</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.16213276148012</v>
+        <v>13.08678919128742</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>25.59297859494404</v>
+        <v>19.47895304137985</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>16.11274460053141</v>
+        <v>3.273106376032544</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>23.87093097171883</v>
+        <v>16.90300887653573</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.32242531944814</v>
+        <v>25.47726576712938</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>16.32468373574714</v>
+        <v>4.001142460106255</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>31.4641394770972</v>
+        <v>28.24978238558891</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>35.25703123865883</v>
+        <v>34.8440911847723</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>31.65676724226506</v>
+        <v>28.92249915338207</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>33.82997013234816</v>
+        <v>32.05120505632017</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>37.21797191631119</v>
+        <v>37.95772154279657</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>17.94319356340167</v>
+        <v>5.451736904662795</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>27.2605383999658</v>
+        <v>21.29183692554463</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>31.24668593526924</v>
+        <v>28.56541629770215</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>18.6362420356544</v>
+        <v>7.611996596564868</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.45029987517787</v>
+        <v>20.5394576457588</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.6069995923926</v>
+        <v>26.22325504924769</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>16.17704761573676</v>
+        <v>3.605743423947729</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.18967062571554</v>
+        <v>18.40335989362808</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.39042975959098</v>
+        <v>27.48998084546455</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>16.25401543561592</v>
+        <v>3.645753619472355</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>31.23106804511934</v>
+        <v>27.98416979310516</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>26.72391075242017</v>
+        <v>21.21474044365096</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.22006703621793</v>
+        <v>18.4341038101668</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>31.56600596534701</v>
+        <v>29.63739628321785</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>32.94529587661814</v>
+        <v>31.66906489364621</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>19.15080457796073</v>
+        <v>8.18304353113172</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>23.13249959883231</v>
+        <v>14.84916258036728</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>26.53384186095056</v>
+        <v>20.53116830489493</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>22.66164511806538</v>
+        <v>14.54028753073264</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.89155187894466</v>
+        <v>25.3463875479107</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>31.98972119261572</v>
+        <v>30.51555018986397</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>16.1926284401349</v>
+        <v>3.991465281627971</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>19.38523743040034</v>
+        <v>8.965262133108723</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>22.34191216580943</v>
+        <v>14.04857430388092</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>16.93923918327649</v>
+        <v>5.996186334156448</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>27.19715238483895</v>
+        <v>22.20322071875795</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.1467131280136</v>
+        <v>35.15184647001065</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>27.86651375775715</v>
+        <v>23.11395491822214</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>35.51917357975702</v>
+        <v>35.86597259928823</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>37.84375524594086</v>
+        <v>39.94543128420371</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>19.26351400212828</v>
+        <v>9.149572839385385</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>25.92875033169458</v>
+        <v>19.95662756421189</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>31.46495660725652</v>
+        <v>28.91076111891433</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.50395524151749</v>
+        <v>47.73651019663782</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.92008886653695</v>
+        <v>41.22543388879144</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>44.03367409713258</v>
+        <v>50.13803111649141</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>44.34294371316322</v>
+        <v>50.87086454548281</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>22.65778804932006</v>
+        <v>14.34328932051845</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.28671198694596</v>
+        <v>45.65078333259508</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>43.14476050263568</v>
+        <v>48.9805066110888</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>27.88136630948255</v>
+        <v>24.11874558452338</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>34.32912612064955</v>
+        <v>35.01627152081215</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>37.46944482114182</v>
+        <v>40.40801382350398</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>17.06626309013308</v>
+        <v>5.882681766111215</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.99916411779529</v>
+        <v>36.19231219966083</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>36.98167885102587</v>
+        <v>40.24206194638604</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>19.82918267413257</v>
+        <v>11.27175135178965</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>47.0536904986473</v>
+        <v>56.13224368412496</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>48.75229225005239</v>
+        <v>59.37780849805714</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>51.32067720152234</v>
+        <v>63.61367216398217</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>54.85936814364118</v>
+        <v>68.70301709157911</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>56.67886534780336</v>
+        <v>73.62215718719096</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>30.50810034357018</v>
+        <v>28.85274243418639</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>51.88545251582184</v>
+        <v>64.75598403507142</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>53.22938342998262</v>
+        <v>66.74620964342934</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>43.21090215048329</v>
+        <v>49.30479774057088</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.14630754549175</v>
+        <v>34.30792982007481</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>38.85469015509283</v>
+        <v>40.59280635641884</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>43.07433519783218</v>
+        <v>48.71954483069808</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>20.18998220867781</v>
+        <v>10.01585808910432</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>37.83094110028834</v>
+        <v>38.73458379843353</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>41.42007867711211</v>
+        <v>45.5022332112231</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>23.6088456853428</v>
+        <v>16.97016394305024</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>33.07634223460884</v>
+        <v>32.27887628550834</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>37.1268843133461</v>
+        <v>40.4769351283229</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>16.40757525350686</v>
+        <v>4.75460324395512</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.93897504216923</v>
+        <v>32.26815097952829</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>36.29477000271055</v>
+        <v>38.60950327244363</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>19.62926121130965</v>
+        <v>10.07271299598233</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>44.64096800722203</v>
+        <v>51.18827637288688</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>50.66734480144038</v>
+        <v>63.03848221556713</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>48.88542993110686</v>
+        <v>58.69368870881669</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>51.90454777139045</v>
+        <v>63.19443578045582</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>58.15859942720557</v>
+        <v>75.95435714881748</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>24.53034898130102</v>
+        <v>18.40089713668576</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>48.8940089081574</v>
+        <v>58.24238526045208</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>52.44735207157966</v>
+        <v>65.37710575061976</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>39.75791687989465</v>
+        <v>42.95156604635042</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>27.38264003312997</v>
+        <v>21.52948019101843</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>30.3026512958942</v>
+        <v>26.76571756356426</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>34.71608130004928</v>
+        <v>33.47005269386072</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>18.7379177343111</v>
+        <v>7.260774148596525</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>31.32547814365338</v>
+        <v>31.27806005914131</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.02961645869921</v>
+        <v>39.52401207491486</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>21.05008158205518</v>
+        <v>12.2001806680864</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>32.32801856419992</v>
+        <v>31.08510539135756</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.62808949087441</v>
+        <v>39.67061947581989</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>16.40864081633993</v>
+        <v>4.31747884731292</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>32.18523569888657</v>
+        <v>30.77916343421924</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>36.3633430696052</v>
+        <v>38.60565562518431</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>16.99701869520149</v>
+        <v>5.280601695157674</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>41.69322560323808</v>
+        <v>46.39869211072368</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>49.1346093178793</v>
+        <v>60.4211645217446</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>44.0412575714922</v>
+        <v>50.47844423724764</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>47.62688558935157</v>
+        <v>56.36921422574666</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>55.66226637801988</v>
+        <v>71.04876187220171</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>20.55281100763023</v>
+        <v>11.54719132010749</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>45.67784266437918</v>
+        <v>52.88485281224024</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>51.81534517532549</v>
+        <v>63.73342373752939</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>23.23536493482648</v>
+        <v>22.31592436252456</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>18.51173388303664</v>
+        <v>16.82492905058881</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.95040888755794</v>
+        <v>35.47077289648539</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>11.63694574641497</v>
+        <v>8.516796518469935</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>33.66914818119095</v>
+        <v>35.24637622684508</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>38.0871904351208</v>
+        <v>39.23668761488686</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>15.14626220605064</v>
+        <v>12.9831752442637</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>51.9530654059957</v>
+        <v>53.17519233993282</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>54.18370070280868</v>
+        <v>57.47151261499585</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>19.44595622119794</v>
+        <v>17.48013536689016</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>22.26696062728505</v>
+        <v>21.11690098542357</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>22.1732666126067</v>
+        <v>20.95803071320569</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>33.06274366026555</v>
+        <v>33.57398805671593</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>20.17142933901506</v>
+        <v>17.28643846193484</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>41.91692854684202</v>
+        <v>43.15651669033902</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>20.31088481782668</v>
+        <v>18.33359194109443</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>30.73249469220656</v>
+        <v>29.30152638987816</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>37.82974256155881</v>
+        <v>38.75011134632355</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>26.3220469270016</v>
+        <v>27.36711272342519</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>32.84837041393642</v>
+        <v>33.29274740567168</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>35.26855847998782</v>
+        <v>35.97953939067423</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>9.69486499920917</v>
+        <v>5.478359600049924</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.21638895999775</v>
+        <v>23.13470689187464</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.84966421481325</v>
+        <v>29.77851567715727</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>34.04577393460954</v>
+        <v>34.21479094655765</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>36.9899707201298</v>
+        <v>37.53938256994811</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>11.19557592475808</v>
+        <v>7.660887801045902</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>50.36789091339626</v>
+        <v>53.41270769507513</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>49.17391180793854</v>
+        <v>51.97026628173067</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>13.21921406189714</v>
+        <v>10.01772785252246</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>56.41031169549539</v>
+        <v>59.42854372968188</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>54.82956560487118</v>
+        <v>57.89260569985756</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>52.71018764565922</v>
+        <v>56.58967369873319</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>56.58373765026072</v>
+        <v>60.49052876032204</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>56.55443946945559</v>
+        <v>60.20148883258382</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>52.66371043822005</v>
+        <v>46.91870061204966</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>59.79433237904662</v>
+        <v>53.74309513022806</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>62.2779978020826</v>
+        <v>65.43218706731138</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.67731495112731</v>
+        <v>28.89198193981041</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>39.15507524222728</v>
+        <v>39.92941851185432</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>38.91157784373386</v>
+        <v>39.72795290332402</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>27.45693669417545</v>
+        <v>27.64251293960143</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>47.72197734921441</v>
+        <v>50.07567620052017</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>45.50530544803658</v>
+        <v>47.24068799257259</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>10.81294424550491</v>
+        <v>7.030485664443912</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>53.77772496094962</v>
+        <v>54.65890262467198</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>16.06906476982489</v>
+        <v>14.04136304732886</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.99700642180923</v>
+        <v>26.12679485532888</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.72973869368424</v>
+        <v>32.51949609702477</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>10.25038864955921</v>
+        <v>6.464581300189696</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>44.63786723901467</v>
+        <v>47.72340467440697</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>47.53781826048101</v>
+        <v>51.38402433116666</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>13.26594504246489</v>
+        <v>9.838788374110155</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>54.89531219216759</v>
+        <v>59.09052098544797</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>59.43057354792146</v>
+        <v>63.41596378367947</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>63.35060619600844</v>
+        <v>68.14143694617874</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>64.32787028376728</v>
+        <v>69.03723838293611</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>66.55537472049983</v>
+        <v>71.34679037853319</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>16.48228629041659</v>
+        <v>23.72217027983572</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>38.41731848348699</v>
+        <v>39.64663043807025</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>49.56989958608933</v>
+        <v>52.71841854617653</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>23.94900618338388</v>
+        <v>22.58537260778707</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.66810679581101</v>
+        <v>36.05529638101036</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>37.04807041620855</v>
+        <v>37.55889933554931</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>26.62268986161971</v>
+        <v>27.79977589130804</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>42.65517924159212</v>
+        <v>44.06784856137899</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>47.70640336683514</v>
+        <v>50.2871766986129</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>11.34180987951823</v>
+        <v>8.132948460188032</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>50.35651456959988</v>
+        <v>52.30983134528384</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>10.29724957373498</v>
+        <v>6.864088493538937</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>20.36629981654834</v>
+        <v>18.25843282301226</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>30.53238391572439</v>
+        <v>29.60723711528775</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>10.23239783046716</v>
+        <v>6.556396214655283</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>48.76905392244075</v>
+        <v>51.50813863883987</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>50.94012505534727</v>
+        <v>53.67658862037584</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>8.246293405071853</v>
+        <v>4.348105136643834</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>56.57781558337527</v>
+        <v>59.94647390823504</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>57.06270861399506</v>
+        <v>61.73390022765715</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>59.31745863699103</v>
+        <v>63.48738996058988</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>60.25650916321269</v>
+        <v>64.36786890038707</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>66.14038927291443</v>
+        <v>70.92564641772161</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>15.14171167125394</v>
+        <v>16.75191619386286</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.68227713141978</v>
+        <v>29.52012968690534</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>53.02956219620773</v>
+        <v>56.86442957039401</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>18.81012821498856</v>
+        <v>15.7556019577854</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>32.57324382256075</v>
+        <v>32.23263556793619</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>37.18206518215773</v>
+        <v>37.73333906797116</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>27.47111898084827</v>
+        <v>27.54070314220837</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>44.06405371939603</v>
+        <v>45.90748791594609</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>48.68543638088174</v>
+        <v>52.92949879829173</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>7.858530976419871</v>
+        <v>3.686372719152352</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>48.85862209393642</v>
+        <v>50.67826604523404</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.37567978113585</v>
+        <v>27.03733542832274</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>26.00166742738818</v>
+        <v>23.26405579812497</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>37.34728480301923</v>
+        <v>38.06338541775818</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>41.14854875344162</v>
+        <v>42.01318181899674</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>14.17274087475474</v>
+        <v>11.01398828558689</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>21.38545361952649</v>
+        <v>18.77724954150469</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.36091454230862</v>
+        <v>26.89614329801103</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.06661301462982</v>
+        <v>15.59263973731193</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>26.70746246624018</v>
+        <v>24.28913901084754</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.16501122701324</v>
+        <v>36.34375796777326</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>26.24199995580034</v>
+        <v>26.89627220156103</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.63815332020662</v>
+        <v>31.80117769538179</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>35.64434975333148</v>
+        <v>36.44683220019024</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>10.01034951633886</v>
+        <v>5.279786955195675</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.73731494938352</v>
+        <v>26.31794103698765</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>46.36518808923238</v>
+        <v>47.6880391961041</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>27.26524596045869</v>
+        <v>25.79176118886098</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>46.47830135698604</v>
+        <v>48.13379784808361</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>53.2826006810682</v>
+        <v>56.04577289725468</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>12.64198213739405</v>
+        <v>9.006270906789151</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>25.73516116256359</v>
+        <v>23.95585913513727</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>39.00210801074181</v>
+        <v>38.2444226285063</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>55.75578892986478</v>
+        <v>58.68066715407856</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>57.05055766444611</v>
+        <v>61.43832303402205</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>61.24524467450517</v>
+        <v>65.60125792115967</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>59.51702809487227</v>
+        <v>63.18546344151436</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>32.89889366935784</v>
+        <v>33.58227169504468</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>57.54730926015885</v>
+        <v>61.74418034891512</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>60.84644814512524</v>
+        <v>66.12832097456428</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.94064932989349</v>
+        <v>34.24890428680112</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>40.59779996618921</v>
+        <v>40.99578846023687</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.27215328387624</v>
+        <v>43.63027897990641</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.4303291959909</v>
+        <v>28.58948549497354</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>54.73333357819014</v>
+        <v>58.4716840424999</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>50.18313438046799</v>
+        <v>53.00824391311674</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>11.82091969866991</v>
+        <v>8.72704752546456</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>64.40438967880689</v>
+        <v>69.17522225512906</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>63.42193327007507</v>
+        <v>68.15727388957346</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>74.710553868217</v>
+        <v>82.1451824228823</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>75.53651851999268</v>
+        <v>82.96384468210458</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>77.43461607271426</v>
+        <v>84.70720682821447</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.55960738753777</v>
+        <v>44.26702073501819</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>71.74523994697884</v>
+        <v>78.8757108105371</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>73.413191304332</v>
+        <v>80.42812721672082</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>59.71046423192458</v>
+        <v>64.07602080548128</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>50.83167663258351</v>
+        <v>53.42984332363014</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>54.62151364519771</v>
+        <v>58.09022211289691</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>58.80059431874925</v>
+        <v>62.40174921958621</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.37026476465056</v>
+        <v>26.48500839229558</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>54.44374675027643</v>
+        <v>57.60481279699523</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>58.65472808997437</v>
+        <v>63.80388961056279</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.42178743414217</v>
+        <v>25.42909519143529</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.01593301720384</v>
+        <v>38.55767091857435</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.10043841241701</v>
+        <v>43.47466388568791</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>27.94610189594287</v>
+        <v>29.19601198263699</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>51.17628087079056</v>
+        <v>54.13071136464963</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>52.83845700321956</v>
+        <v>56.42911973575546</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>14.45455989482281</v>
+        <v>11.55392852128477</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>63.51017281035395</v>
+        <v>67.90035366779702</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>67.22131238172094</v>
+        <v>74.02226343434366</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>75.46744253333986</v>
+        <v>82.36604010028577</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>73.73131812716953</v>
+        <v>81.08210623351945</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>79.2530700832212</v>
+        <v>87.9244664829283</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.86486010464716</v>
+        <v>32.02196547719926</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>69.29025472519913</v>
+        <v>75.53460846666123</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>75.73203479317398</v>
+        <v>83.1781533260785</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>57.32489031568703</v>
+        <v>60.84655191379548</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>33.31333318213366</v>
+        <v>32.69202087089364</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>38.17892032083926</v>
+        <v>38.35118497056332</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>46.07386428770408</v>
+        <v>47.54696407266218</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>20.52123424832081</v>
+        <v>17.47162484060811</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>52.71386111343919</v>
+        <v>55.3777271385074</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>57.49256732167764</v>
+        <v>61.24068932819611</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>21.93914992318701</v>
+        <v>19.41436988942232</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>36.93416734686613</v>
+        <v>37.99644797578775</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>43.32314469969907</v>
+        <v>45.56826839052205</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.21873346632757</v>
+        <v>29.64725529501671</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>51.72487502730409</v>
+        <v>56.13649696835652</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>55.34214966878127</v>
+        <v>60.71751358250188</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>8.478292495879664</v>
+        <v>4.485571497913295</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>61.83212951196414</v>
+        <v>65.92551280877994</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>66.28441584225968</v>
+        <v>71.88448044839978</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>71.12757281811457</v>
+        <v>76.70477820920894</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>72.00040482659861</v>
+        <v>77.88100887158143</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>80.60113319895149</v>
+        <v>89.42989264029926</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>24.63767184341532</v>
+        <v>23.48426668909499</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>67.54982493785576</v>
+        <v>72.3030725867757</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>75.03931589268953</v>
+        <v>82.82620074628814</v>
       </c>
     </row>
   </sheetData>
